--- a/DC_Converter_Calc.xlsx
+++ b/DC_Converter_Calc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BR\GIT\HV_DCDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B693AE64-768A-4D68-A7DA-25EC8594D99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946273A1-4D61-499D-9898-6605F9612C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2490" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -229,7 +229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -655,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Y38" sqref="Y38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -799,8 +799,8 @@
         <v>17</v>
       </c>
       <c r="B15" s="3">
-        <f>1/0.182</f>
-        <v>5.4945054945054945</v>
+        <f>F17</f>
+        <v>12.048192771084336</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -813,7 +813,8 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <v>2600</v>
+        <f>F18</f>
+        <v>3100</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
@@ -840,7 +841,7 @@
       </c>
       <c r="B18" s="3">
         <f>B17/(B15^2)</f>
-        <v>86.122399999999999</v>
+        <v>21.355900000000005</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
@@ -888,14 +889,14 @@
       </c>
       <c r="B22" s="2">
         <f>(1-((1/B5)*B15*B3))*1/B21*B3*1/B9</f>
-        <v>3.3741539359516896E-5</v>
+        <v>-6.4240619269724338E-6</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="3">
         <f>B22*10^6</f>
-        <v>33.741539359516892</v>
+        <v>-6.4240619269724339</v>
       </c>
       <c r="E22" t="s">
         <v>15</v>
@@ -907,14 +908,14 @@
       </c>
       <c r="B23" s="2">
         <f>(1-((1/B6)*B15*B3))*1/B21*B3*1/B9</f>
-        <v>5.1569052229990773E-5</v>
+        <v>3.2667592801054613E-5</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="3">
         <f>B23*10^6</f>
-        <v>51.569052229990774</v>
+        <v>32.66759280105461</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>

--- a/DC_Converter_Calc.xlsx
+++ b/DC_Converter_Calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BR\GIT\HV_DCDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946273A1-4D61-499D-9898-6605F9612C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2542485E-C96E-4A89-A2E4-122351CC83D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2490" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
   <si>
     <t>Eingangsparameter</t>
   </si>
@@ -138,12 +138,6 @@
     <t>Coilcraft</t>
   </si>
   <si>
-    <t>AGP4233-223ME</t>
-  </si>
-  <si>
-    <t>3 in reihe</t>
-  </si>
-  <si>
     <t>A RMS</t>
   </si>
   <si>
@@ -175,6 +169,114 @@
   </si>
   <si>
     <t>P_RMS</t>
+  </si>
+  <si>
+    <t>2pcs</t>
+  </si>
+  <si>
+    <t>anzahl</t>
+  </si>
+  <si>
+    <t>U_real_gesamt</t>
+  </si>
+  <si>
+    <t>AGP4233-153ME</t>
+  </si>
+  <si>
+    <t>4 in reihe</t>
+  </si>
+  <si>
+    <t>K_Factor</t>
+  </si>
+  <si>
+    <t>Leakage Inductance</t>
+  </si>
+  <si>
+    <t>RISense</t>
+  </si>
+  <si>
+    <t>Ohm</t>
+  </si>
+  <si>
+    <t>mOhm</t>
+  </si>
+  <si>
+    <t>RIVSEC</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>Mohm</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>UVLO_Sec_min</t>
+  </si>
+  <si>
+    <t>UVLO_Sec_max</t>
+  </si>
+  <si>
+    <t>kOhm</t>
+  </si>
+  <si>
+    <t>C_CL</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>nF</t>
+  </si>
+  <si>
+    <t>C_S</t>
+  </si>
+  <si>
+    <t>R_S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switch timing ? </t>
+  </si>
+  <si>
+    <t>R_TAS &amp; R_TAO</t>
+  </si>
+  <si>
+    <t>!todo!</t>
+  </si>
+  <si>
+    <t>Soft start</t>
+  </si>
+  <si>
+    <t>external circuit for shutdown and start</t>
+  </si>
+  <si>
+    <t>Voltage Ripple requrement</t>
+  </si>
+  <si>
+    <t>of Vout</t>
+  </si>
+  <si>
+    <t>V_p2p</t>
+  </si>
+  <si>
+    <t>ESR of C_out</t>
+  </si>
+  <si>
+    <t>C_out_min</t>
+  </si>
+  <si>
+    <t>uF</t>
+  </si>
+  <si>
+    <t>?????</t>
+  </si>
+  <si>
+    <t>große kapazitive last -&gt; strakes schwingen an V-out (comp und FB beachten)</t>
   </si>
 </sst>
 </file>
@@ -225,12 +327,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -252,16 +359,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -276,8 +383,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8397240" y="289560"/>
-          <a:ext cx="4625340" cy="1996440"/>
+          <a:off x="10919460" y="167640"/>
+          <a:ext cx="4625340" cy="2362200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -385,6 +492,314 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>516255</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95559</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118C68DD-80E5-4E59-A5F2-51E928DB7271}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6469380" y="6217920"/>
+          <a:ext cx="1828800" cy="1558599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>518161</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>174231</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8126807F-5DD6-4D17-9E3B-26C45A88F7DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6461761" y="7795261"/>
+          <a:ext cx="1501139" cy="608570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>487681</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>562524</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Grafik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4970B79B-CDF5-42AD-BF91-199D23C5A6CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6431281" y="8427720"/>
+          <a:ext cx="1294043" cy="777240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>312419</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>248636</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>108510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Grafik 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E472B45-A7C6-4078-9C06-C0647939DED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5913119" y="9563100"/>
+          <a:ext cx="2984217" cy="603810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>516777</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>178777</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>39965</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Grafik 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{361EF41D-D43D-4A34-B7A7-A6DE4DADBD71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6117477" y="10264140"/>
+          <a:ext cx="1490800" cy="199985"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>487679</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>74884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>120495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Grafik 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F139117-58F5-471D-ABCC-43BB333FBF66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6088379" y="10499044"/>
+          <a:ext cx="1638301" cy="1508651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>79112</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>140334</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Grafik 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70C47167-5F45-468A-80F4-E2413701CC16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11346180" y="2369820"/>
+          <a:ext cx="7180952" cy="5085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -653,25 +1068,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H31"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -681,8 +1107,11 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -692,14 +1121,16 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="B5">
-        <f>132*2</f>
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -707,14 +1138,16 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
       <c r="B6">
-        <f>132*4.25</f>
-        <v>561</v>
+        <v>630</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -723,7 +1156,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -735,7 +1168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -750,7 +1183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -767,7 +1200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -778,279 +1211,553 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14">
         <f>(B5/B3)*B11</f>
-        <v>6.6</v>
+        <v>5.75</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
       <c r="D14">
         <f>(B5/B3)*D11</f>
-        <v>7.6999999999999993</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6.708333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="3">
-        <f>F17</f>
-        <v>12.048192771084336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E16" t="s">
+        <f>I18</f>
+        <v>10.989010989010989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="3">
+        <f>I18/I20</f>
+        <v>5.4945054945054945</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B17">
-        <f>F18</f>
-        <v>3100</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18">
+        <f>I19</f>
+        <v>3900</v>
+      </c>
+      <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>9</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <f>1/0.083</f>
         <v>12.048192771084336</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <f>1/0.182</f>
         <v>5.4945054945054945</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <f>1/0.363</f>
         <v>2.7548209366391188</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="I18">
+        <f>1/0.091</f>
+        <v>10.989010989010989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="3">
-        <f>B17/(B15^2)</f>
-        <v>21.355900000000005</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19" s="3">
+        <f>B18/(B15^2)</f>
+        <v>32.295899999999996</v>
+      </c>
+      <c r="C19" t="s">
         <v>15</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>13</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>3100</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>2600</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>2600</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="I19">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <f>1-(B21/B18)</f>
+        <v>0.99923076923076926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
+      <c r="B25">
         <f>B12*B7</f>
         <v>1.7799999999999998</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B21">
-        <f>B20*2</f>
+      <c r="B26">
+        <f>B25*2</f>
         <v>3.5599999999999996</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="2">
-        <f>(1-((1/B5)*B15*B3))*1/B21*B3*1/B9</f>
-        <v>-6.4240619269724338E-6</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B27" s="2">
+        <f>(1-((1/B5)*B16*B3))*1/B26*B3*1/B9</f>
+        <v>2.8763615475877321E-5</v>
+      </c>
+      <c r="C27" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="3">
-        <f>B22*10^6</f>
-        <v>-6.4240619269724339</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D27" s="3">
+        <f>B27*10^6</f>
+        <v>28.763615475877319</v>
+      </c>
+      <c r="E27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="2">
-        <f>(1-((1/B6)*B15*B3))*1/B21*B3*1/B9</f>
-        <v>3.2667592801054613E-5</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B28" s="2">
+        <f>(1-((1/B6)*B16*B3))*1/B26*B3*1/B9</f>
+        <v>5.330464078457658E-5</v>
+      </c>
+      <c r="C28" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="3">
-        <f>B23*10^6</f>
-        <v>32.66759280105461</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D28" s="3">
+        <f>B28*10^6</f>
+        <v>53.304640784576577</v>
+      </c>
+      <c r="E28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B24">
-        <v>66</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B29">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="4">
+        <f>B3*B31</f>
+        <v>0.24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32">
+        <v>0.2</v>
+      </c>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="2">
+        <f>B26/(8*B9*(D31-B26*B32))</f>
+        <v>-9.4279661016949134E-6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="9">
+        <f>-B33*10^6</f>
+        <v>9.4279661016949134</v>
+      </c>
+      <c r="E33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>34</v>
       </c>
-      <c r="E24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="B37">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="C37">
+        <v>22.3</v>
+      </c>
+      <c r="D37">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G37">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="C28">
-        <v>22.3</v>
-      </c>
-      <c r="D28">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="G28">
+      <c r="H37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>35</v>
       </c>
-      <c r="H28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29">
+      <c r="B38">
         <v>57</v>
       </c>
-      <c r="C29">
+      <c r="C38">
         <v>315</v>
       </c>
-      <c r="D29">
+      <c r="D38">
         <v>278</v>
       </c>
-      <c r="E29">
+      <c r="E38">
         <v>6.5</v>
       </c>
-      <c r="F29">
+      <c r="F38">
         <f>360*10^-3</f>
         <v>0.36</v>
       </c>
-      <c r="G29">
+      <c r="G38">
         <v>290</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H38" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39">
         <v>770</v>
       </c>
-      <c r="C30">
+      <c r="C39">
         <v>41</v>
       </c>
-      <c r="D30">
+      <c r="D39">
         <v>100</v>
       </c>
-      <c r="E30">
+      <c r="E39">
         <v>775</v>
       </c>
-      <c r="F30">
+      <c r="F39">
         <v>660</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H39" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40">
         <v>2.5</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H40" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42">
+        <f>(B16*96*10^-3)/(0.5*B26*B7*1.3)</f>
+        <v>5.6987092423566059E-3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42">
+        <f>B42*10^3</f>
+        <v>5.6987092423566059</v>
+      </c>
+      <c r="E42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44">
+        <f>B44*10^6</f>
+        <v>1000000</v>
+      </c>
+      <c r="E44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="7">
+        <f>(D44*((1/((B5/1.25)-1))+1))/(B6/1.25)</f>
+        <v>1994.9692080839623</v>
+      </c>
+      <c r="C45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="7">
+        <f>B45*((B6/1.25)-1)-D44</f>
+        <v>3469.5116662330693</v>
+      </c>
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47">
+        <f>(B5/D44)/((1/(B45+B46))+(1/D44))</f>
+        <v>1.2500000000000209</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47">
+        <f>(B6/D44)/((1/(B45+B46))+(1/D44))</f>
+        <v>3.423913043478318</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="7">
+        <f>(D11/(0.725*((B9/1000)/300)*(1.25/B47)))*51.1*10^3</f>
+        <v>148013.79310345076</v>
+      </c>
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="7">
+        <f>B48*10^-3</f>
+        <v>148.01379310345078</v>
+      </c>
+      <c r="E48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="6">
+        <f>(B3/B6)*B16</f>
+        <v>0.20931449502878077</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51">
+        <f>(10*(1-B50)^2)/(B18*(2*PI()*(B9/1000))^2)</f>
+        <v>4.0605345564331669E-9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51">
+        <f>B51*10^9</f>
+        <v>4.0605345564331667</v>
+      </c>
+      <c r="E51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52">
+        <f>6*D51</f>
+        <v>24.363207338599</v>
+      </c>
+      <c r="C52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <f>(B3/B5)*B16</f>
+        <v>0.5733397037744864</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54">
+        <f>(1/(1-B53))*SQRT(B18*10^-6/B51)</f>
+        <v>2296.9866312323384</v>
+      </c>
+      <c r="C54" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/DC_Converter_Calc.xlsx
+++ b/DC_Converter_Calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BR\GIT\HV_DCDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2542485E-C96E-4A89-A2E4-122351CC83D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6F7C33-3789-4831-B125-FD5BA1056544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2490" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2784" yWindow="3828" windowWidth="9432" windowHeight="5100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="124">
   <si>
     <t>Eingangsparameter</t>
   </si>
@@ -277,6 +277,135 @@
   </si>
   <si>
     <t>große kapazitive last -&gt; strakes schwingen an V-out (comp und FB beachten)</t>
+  </si>
+  <si>
+    <t>Foldback ratio</t>
+  </si>
+  <si>
+    <t>per Datasheet</t>
+  </si>
+  <si>
+    <t>R_Timer</t>
+  </si>
+  <si>
+    <t>V_trip_min</t>
+  </si>
+  <si>
+    <t>I_catch_FET</t>
+  </si>
+  <si>
+    <t>R_DS_on</t>
+  </si>
+  <si>
+    <t>mV</t>
+  </si>
+  <si>
+    <t>V_trip_max Mosfet</t>
+  </si>
+  <si>
+    <t>E_AS</t>
+  </si>
+  <si>
+    <t>V_BR(DSS)</t>
+  </si>
+  <si>
+    <t>mJ</t>
+  </si>
+  <si>
+    <t>R_CSP/R_CSN</t>
+  </si>
+  <si>
+    <t>V_DS_Max Catch Mosfet</t>
+  </si>
+  <si>
+    <t>S=2</t>
+  </si>
+  <si>
+    <t>IPP200N25N3</t>
+  </si>
+  <si>
+    <t>&gt;=66mv</t>
+  </si>
+  <si>
+    <t>R_sns</t>
+  </si>
+  <si>
+    <t>R_sns req.</t>
+  </si>
+  <si>
+    <t>festgelegt</t>
+  </si>
+  <si>
+    <t>V_trip</t>
+  </si>
+  <si>
+    <t>aus Spice modell</t>
+  </si>
+  <si>
+    <t>I_catch_FET_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mOhm </t>
+  </si>
+  <si>
+    <t>gewählt</t>
+  </si>
+  <si>
+    <t>C_oss</t>
+  </si>
+  <si>
+    <t>pF</t>
+  </si>
+  <si>
+    <t>C_S_ClampM</t>
+  </si>
+  <si>
+    <t>R_S_ClampM</t>
+  </si>
+  <si>
+    <t>P_R_S</t>
+  </si>
+  <si>
+    <t>V_in</t>
+  </si>
+  <si>
+    <t>I_mag</t>
+  </si>
+  <si>
+    <t>RMS Current Sec.</t>
+  </si>
+  <si>
+    <t>RMS Current Prim</t>
+  </si>
+  <si>
+    <t>Total Power In</t>
+  </si>
+  <si>
+    <t>Toral Power Out</t>
+  </si>
+  <si>
+    <t>Total Eff.</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>260V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I_Out </t>
+  </si>
+  <si>
+    <t>ARMS</t>
+  </si>
+  <si>
+    <t>V_Ripp</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Without Leakage Inductance</t>
   </si>
 </sst>
 </file>
@@ -367,7 +496,7 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -498,14 +627,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>516255</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>95559</xdr:rowOff>
+      <xdr:colOff>512444</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>91749</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -542,14 +671,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>518161</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>174231</xdr:rowOff>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>170421</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -586,14 +715,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>487681</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>562524</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>554903</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -630,14 +759,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>312419</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>248636</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>108510</xdr:rowOff>
+      <xdr:colOff>244825</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>95175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -674,14 +803,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>516777</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>178777</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>39965</xdr:rowOff>
+      <xdr:colOff>174966</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>39964</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -718,14 +847,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>487679</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>74884</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>120495</xdr:rowOff>
+      <xdr:colOff>283844</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133831</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -760,23 +889,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>577215</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>31363</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>79112</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>140334</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>398144</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>56637</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Grafik 8">
+        <xdr:cNvPr id="11" name="Grafik 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70C47167-5F45-468A-80F4-E2413701CC16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{916E48D5-96A5-41B0-9958-0884FEFD4D92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -792,8 +921,140 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11346180" y="2369820"/>
-          <a:ext cx="7180952" cy="5085714"/>
+          <a:off x="6216015" y="12880588"/>
+          <a:ext cx="2270760" cy="1661669"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>452182</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>101803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>17275</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>97581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Grafik 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED011A99-3CB5-4E7C-9C04-9A5E843DF227}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3907159" y="12466985"/>
+          <a:ext cx="995748" cy="367080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>49768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>248436</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>132897</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Grafik 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C3598E1-E06D-410A-9B99-742B0C0201C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="45720" y="17242393"/>
+          <a:ext cx="24192381" cy="5516189"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>402210</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>54900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Grafik 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CB52EBC-D531-4CE7-B291-475050183A5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22911955"/>
+          <a:ext cx="24274285" cy="5537143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1068,17 +1329,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G171" sqref="G170:G171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1183,193 +1445,192 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>0.6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11">
-        <v>0.7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>0.6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>0.7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="1">
         <v>4.4499999999999998E-2</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <f>(B5/B3)*B11</f>
-        <v>5.75</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <f>(B5/B3)*D11</f>
-        <v>6.708333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="3">
-        <f>I18</f>
-        <v>10.989010989010989</v>
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <f>(B5/B3)*B12</f>
+        <v>5.75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f>(B5/B3)*D12</f>
+        <v>6.708333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3">
+        <f>I19</f>
+        <v>10.989010989010989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="3">
-        <f>I18/I20</f>
+      <c r="B17" s="3">
+        <f>I19/I21</f>
         <v>5.4945054945054945</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E17" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
         <v>18</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B18">
-        <f>I19</f>
+      <c r="B19">
+        <f>I20</f>
         <v>3900</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>15</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>9</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <f>1/0.083</f>
         <v>12.048192771084336</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <f>1/0.182</f>
         <v>5.4945054945054945</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <f>1/0.363</f>
         <v>2.7548209366391188</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <f>1/0.091</f>
         <v>10.989010989010989</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="3">
-        <f>B18/(B15^2)</f>
+      <c r="B20" s="3">
+        <f>B19/(B16^2)</f>
         <v>32.295899999999996</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>15</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>13</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>3100</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>2600</v>
       </c>
-      <c r="H19">
+      <c r="H20">
         <v>2600</v>
       </c>
-      <c r="I19">
+      <c r="I20">
         <v>3900</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E20" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
         <v>46</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>2</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>1</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>1</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>50</v>
       </c>
-      <c r="B22">
-        <f>1-(B21/B18)</f>
+      <c r="B23">
+        <f>1-(B22/B19)</f>
         <v>0.99923076923076926</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25">
-        <f>B12*B7</f>
-        <v>1.7799999999999998</v>
-      </c>
-      <c r="C25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26">
-        <f>B25*2</f>
-        <v>3.5599999999999996</v>
+        <f>B13*B7</f>
+        <v>1.7799999999999998</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -1377,37 +1638,30 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="2">
-        <f>(1-((1/B5)*B16*B3))*1/B26*B3*1/B9</f>
-        <v>2.8763615475877321E-5</v>
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <f>B26*2</f>
+        <v>3.5599999999999996</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="3">
-        <f>B27*10^6</f>
-        <v>28.763615475877319</v>
-      </c>
-      <c r="E27" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2">
-        <f>(1-((1/B6)*B16*B3))*1/B26*B3*1/B9</f>
-        <v>5.330464078457658E-5</v>
+        <f>(1-((1/B5)*B17*B3))*1/B27*B3*1/B9</f>
+        <v>2.8763615475877321E-5</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="3">
         <f>B28*10^6</f>
-        <v>53.304640784576577</v>
+        <v>28.763615475877319</v>
       </c>
       <c r="E28" t="s">
         <v>15</v>
@@ -1415,244 +1669,251 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2">
+        <f>(1-((1/B6)*B17*B3))*1/B27*B3*1/B9</f>
+        <v>5.330464078457658E-5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="3">
+        <f>B29*10^6</f>
+        <v>53.304640784576577</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>25</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>60</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>33</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D30" s="4"/>
-    </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="C31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="4">
-        <f>B3*B31</f>
-        <v>0.24</v>
-      </c>
-      <c r="E31" t="s">
-        <v>75</v>
-      </c>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32">
-        <v>0.2</v>
-      </c>
-      <c r="D32" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="B32" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="4">
+        <f>B3*B32</f>
+        <v>0.24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33">
+        <v>0.2</v>
+      </c>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="2">
-        <f>B26/(8*B9*(D31-B26*B32))</f>
+      <c r="B34" s="2">
+        <f>B27/(8*B9*(D32-B27*B33))</f>
         <v>-9.4279661016949134E-6</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="9">
-        <f>-B33*10^6</f>
+      <c r="D34" s="9">
+        <f>-B34*10^6</f>
         <v>9.4279661016949134</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>78</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
         <v>38</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>37</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>39</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>40</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>41</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G37" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="C37">
-        <v>22.3</v>
-      </c>
-      <c r="D37">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="G37">
-        <v>35</v>
-      </c>
-      <c r="H37" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="C38">
+        <v>22.3</v>
+      </c>
+      <c r="D38">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G38">
         <v>35</v>
       </c>
-      <c r="B38">
+      <c r="H38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39">
         <v>57</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>315</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <v>278</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <v>6.5</v>
       </c>
-      <c r="F38">
+      <c r="F39">
         <f>360*10^-3</f>
         <v>0.36</v>
       </c>
-      <c r="G38">
+      <c r="G39">
         <v>290</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H39" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39">
-        <v>770</v>
-      </c>
-      <c r="C39">
-        <v>41</v>
-      </c>
-      <c r="D39">
-        <v>100</v>
-      </c>
-      <c r="E39">
-        <v>775</v>
-      </c>
-      <c r="F39">
-        <v>660</v>
-      </c>
-      <c r="H39" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40">
+        <v>770</v>
+      </c>
+      <c r="C40">
+        <v>41</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="E40">
+        <v>775</v>
+      </c>
+      <c r="F40">
+        <v>660</v>
+      </c>
+      <c r="H40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>44</v>
       </c>
-      <c r="G40">
+      <c r="G41">
         <v>2.5</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H41" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>52</v>
       </c>
-      <c r="B42">
-        <f>(B16*96*10^-3)/(0.5*B26*B7*1.3)</f>
+      <c r="B43">
+        <f>(B17*96*10^-3)/(0.5*B27*B7*1.3)</f>
         <v>5.6987092423566059E-3</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>53</v>
       </c>
-      <c r="D42">
-        <f>B42*10^3</f>
+      <c r="D43">
+        <f>B43*10^3</f>
         <v>5.6987092423566059</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44">
-        <f>B44*10^6</f>
-        <v>1000000</v>
-      </c>
-      <c r="E44" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="7">
-        <f>(D44*((1/((B5/1.25)-1))+1))/(B6/1.25)</f>
-        <v>1994.9692080839623</v>
+        <v>56</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
       </c>
       <c r="C45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45">
+        <f>B45*10^6</f>
+        <v>1000000</v>
+      </c>
+      <c r="E45" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46" s="7">
-        <f>B45*((B6/1.25)-1)-D44</f>
-        <v>3469.5116662330693</v>
+        <f>(D45*((1/((B5/1.25)-1))+1))/(B6/1.25)</f>
+        <v>1994.9692080839623</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -1660,104 +1921,564 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47">
-        <f>(B5/D44)/((1/(B45+B46))+(1/D44))</f>
-        <v>1.2500000000000209</v>
+        <v>59</v>
+      </c>
+      <c r="B47" s="7">
+        <f>B46*((B6/1.25)-1)-D45</f>
+        <v>3469.5116662330693</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47">
-        <f>(B6/D44)/((1/(B45+B46))+(1/D44))</f>
-        <v>3.423913043478318</v>
-      </c>
-      <c r="F47" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48">
+        <f>(B5/D45)/((1/(B46+B47))+(1/D45))</f>
+        <v>1.2500000000000209</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48">
+        <f>(B6/D45)/((1/(B46+B47))+(1/D45))</f>
+        <v>3.423913043478318</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="7">
-        <f>(D11/(0.725*((B9/1000)/300)*(1.25/B47)))*51.1*10^3</f>
+      <c r="B49" s="7">
+        <f>(D12/(0.725*((B9/1000)/300)*(1.25/B48)))*51.1*10^3</f>
         <v>148013.79310345076</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="7">
-        <f>B48*10^-3</f>
+      <c r="D49" s="7">
+        <f>B49*10^-3</f>
         <v>148.01379310345078</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="F49" s="7"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="6">
-        <f>(B3/B6)*B16</f>
+      <c r="B51" s="6">
+        <f>(B3/B6)*B17</f>
         <v>0.20931449502878077</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="F51" t="s">
+        <v>111</v>
+      </c>
+      <c r="G51">
+        <f>(B6*B51)/(B19*10^-6*B9)</f>
+        <v>0.33812341504649202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>63</v>
       </c>
-      <c r="B51">
-        <f>(10*(1-B50)^2)/(B18*(2*PI()*(B9/1000))^2)</f>
+      <c r="B52">
+        <f>(10*(1-B51)^2)/(B19*(2*PI()*(B9/1000))^2)</f>
         <v>4.0605345564331669E-9</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>64</v>
       </c>
-      <c r="D51">
-        <f>B51*10^9</f>
+      <c r="D52">
+        <f>B52*10^9</f>
         <v>4.0605345564331667</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="F52" t="s">
+        <v>63</v>
+      </c>
+      <c r="G52">
+        <f>(G51*(1-B51)^2)/(1.6*B6*B9)</f>
+        <v>2.0971151087884987E-9</v>
+      </c>
+      <c r="H52">
+        <f>G52*10^9</f>
+        <v>2.0971151087884987</v>
+      </c>
+      <c r="I52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>66</v>
       </c>
-      <c r="B52">
-        <f>6*D51</f>
+      <c r="B53">
+        <f>6*B52</f>
+        <v>2.4363207338599E-8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53">
+        <f>B53*10^9</f>
         <v>24.363207338599</v>
       </c>
-      <c r="C52" t="s">
+      <c r="E53" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>5</v>
       </c>
-      <c r="B53">
-        <f>(B3/B5)*B16</f>
+      <c r="B54">
+        <f>(B3/B5)*B17</f>
         <v>0.5733397037744864</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>67</v>
       </c>
-      <c r="B54">
-        <f>(1/(1-B53))*SQRT(B18*10^-6/B51)</f>
+      <c r="B55">
+        <f>(1/(1-B54))*SQRT(B19*10^-6/B52)</f>
         <v>2296.9866312323384</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57">
+        <f>(1.2/(B9/B10))*22.1*10^6</f>
+        <v>530.40000000000009</v>
+      </c>
+      <c r="C57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59">
+        <f>B6*(1/B17)*2</f>
+        <v>229.32</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62">
+        <v>4.5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65">
+        <f>B62*B64</f>
+        <v>7.8750000000000014E-2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65">
+        <f>B65*10^3</f>
+        <v>78.750000000000014</v>
+      </c>
+      <c r="E65" t="s">
+        <v>87</v>
+      </c>
+      <c r="F65" t="s">
+        <v>96</v>
+      </c>
+      <c r="G65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66">
+        <f>D65*1.2</f>
+        <v>94.500000000000014</v>
+      </c>
+      <c r="C66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68">
+        <v>320</v>
+      </c>
+      <c r="C68" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69">
+        <v>250</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70">
+        <f>B64*SQRT(2*B68*10^-3*((1.3*B69-B3)/(1.3*B69*B30*10^-6)))</f>
+        <v>1.7393780202807836</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ref="D70" si="0">B70*10^3</f>
+        <v>1739.3780202807836</v>
+      </c>
+      <c r="E70" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71">
+        <f>B70/B64</f>
+        <v>99.393029730330483</v>
+      </c>
+      <c r="C71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73">
+        <v>1000</v>
+      </c>
+      <c r="C73" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74">
+        <f>((B73*40*10^-6)+66*10^-3)/B71</f>
+        <v>1.0664731751068995E-3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74">
+        <f>B74*10^3</f>
+        <v>1.0664731751068994</v>
+      </c>
+      <c r="E74" t="s">
+        <v>54</v>
+      </c>
+      <c r="F74">
+        <v>1.2</v>
+      </c>
+      <c r="G74" t="s">
+        <v>103</v>
+      </c>
+      <c r="H74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76">
+        <v>395</v>
+      </c>
+      <c r="C76" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78">
+        <f>2*B76</f>
+        <v>790</v>
+      </c>
+      <c r="C78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79">
+        <f>B59/B71</f>
+        <v>2.3072040425991904</v>
+      </c>
+      <c r="C79" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80">
+        <f>B78*10^-9*B59^2*B9</f>
+        <v>4154.4253295999997</v>
+      </c>
+      <c r="C80" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>112</v>
+      </c>
+      <c r="B127">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="C127" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127" t="s">
+        <v>117</v>
+      </c>
+      <c r="E127" t="s">
+        <v>110</v>
+      </c>
+      <c r="F127" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>113</v>
+      </c>
+      <c r="B128">
+        <v>3</v>
+      </c>
+      <c r="C128" t="s">
+        <v>23</v>
+      </c>
+      <c r="E128" t="s">
+        <v>119</v>
+      </c>
+      <c r="F128">
+        <v>39.85</v>
+      </c>
+      <c r="G128" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>114</v>
+      </c>
+      <c r="B129">
+        <v>1043</v>
+      </c>
+      <c r="C129" t="s">
+        <v>20</v>
+      </c>
+      <c r="E129" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>115</v>
+      </c>
+      <c r="B130">
+        <v>953</v>
+      </c>
+      <c r="C130" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>116</v>
+      </c>
+      <c r="B131" s="6">
+        <f>(B130/B129)*100</f>
+        <v>91.371045062320235</v>
+      </c>
+      <c r="C131" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>121</v>
+      </c>
+      <c r="B132">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C132" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>112</v>
+      </c>
+      <c r="B166">
+        <v>31.3</v>
+      </c>
+      <c r="C166" t="s">
+        <v>23</v>
+      </c>
+      <c r="D166" t="s">
+        <v>117</v>
+      </c>
+      <c r="E166" t="s">
+        <v>110</v>
+      </c>
+      <c r="F166" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>113</v>
+      </c>
+      <c r="B167">
+        <v>2.84</v>
+      </c>
+      <c r="C167" t="s">
+        <v>23</v>
+      </c>
+      <c r="E167" t="s">
+        <v>119</v>
+      </c>
+      <c r="F167">
+        <v>39.85</v>
+      </c>
+      <c r="G167" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>114</v>
+      </c>
+      <c r="B168">
+        <v>1001</v>
+      </c>
+      <c r="C168" t="s">
+        <v>20</v>
+      </c>
+      <c r="E168" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>115</v>
+      </c>
+      <c r="B169">
+        <v>953</v>
+      </c>
+      <c r="C169" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>116</v>
+      </c>
+      <c r="B170" s="6">
+        <f>(B169/B168)*100</f>
+        <v>95.204795204795204</v>
+      </c>
+      <c r="C170" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>121</v>
+      </c>
+      <c r="B171">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C171" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/DC_Converter_Calc.xlsx
+++ b/DC_Converter_Calc.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BR\GIT\HV_DCDC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Technik\Technik 2022\05 - Electronics\02 - HV\01 - HV Accumulator\02 - ECAD\02 - PCB Files\03 - HV_DCDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6F7C33-3789-4831-B125-FD5BA1056544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0401D9BB-A695-478B-8190-8551263D0252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2784" yWindow="3828" windowWidth="9432" windowHeight="5100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="144">
   <si>
     <t>Eingangsparameter</t>
   </si>
@@ -138,39 +136,6 @@
     <t>Coilcraft</t>
   </si>
   <si>
-    <t>A RMS</t>
-  </si>
-  <si>
-    <t>A p2p</t>
-  </si>
-  <si>
-    <t>V p2p</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
-    <t>M4</t>
-  </si>
-  <si>
-    <t>M5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameters  from Simualtion </t>
-  </si>
-  <si>
-    <t>RCSP</t>
-  </si>
-  <si>
-    <t>P_RMS</t>
-  </si>
-  <si>
     <t>2pcs</t>
   </si>
   <si>
@@ -243,9 +208,6 @@
     <t xml:space="preserve">Switch timing ? </t>
   </si>
   <si>
-    <t>R_TAS &amp; R_TAO</t>
-  </si>
-  <si>
     <t>!todo!</t>
   </si>
   <si>
@@ -321,9 +283,6 @@
     <t>S=2</t>
   </si>
   <si>
-    <t>IPP200N25N3</t>
-  </si>
-  <si>
     <t>&gt;=66mv</t>
   </si>
   <si>
@@ -351,27 +310,9 @@
     <t>gewählt</t>
   </si>
   <si>
-    <t>C_oss</t>
-  </si>
-  <si>
-    <t>pF</t>
-  </si>
-  <si>
-    <t>C_S_ClampM</t>
-  </si>
-  <si>
-    <t>R_S_ClampM</t>
-  </si>
-  <si>
-    <t>P_R_S</t>
-  </si>
-  <si>
     <t>V_in</t>
   </si>
   <si>
-    <t>I_mag</t>
-  </si>
-  <si>
     <t>RMS Current Sec.</t>
   </si>
   <si>
@@ -406,14 +347,134 @@
   </si>
   <si>
     <t>Without Leakage Inductance</t>
+  </si>
+  <si>
+    <t>Catch Mosfet and V_Trip</t>
+  </si>
+  <si>
+    <t>Clamp Capacitance and Snubber</t>
+  </si>
+  <si>
+    <t>Output Inductance and Capacitance</t>
+  </si>
+  <si>
+    <t>Transformer</t>
+  </si>
+  <si>
+    <t>Generall</t>
+  </si>
+  <si>
+    <t>Calculated Value</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Active Clamp Mosfet</t>
+  </si>
+  <si>
+    <t>Primary Mosfet</t>
+  </si>
+  <si>
+    <t>P_I_Mag</t>
+  </si>
+  <si>
+    <t>I_D_Max</t>
+  </si>
+  <si>
+    <t>V_Max</t>
+  </si>
+  <si>
+    <t>equal to primary</t>
+  </si>
+  <si>
+    <t>BV_DSS_min</t>
+  </si>
+  <si>
+    <t>I_SD_max</t>
+  </si>
+  <si>
+    <t>P_Conduction</t>
+  </si>
+  <si>
+    <t>P_Gatedriver</t>
+  </si>
+  <si>
+    <t>Q_G</t>
+  </si>
+  <si>
+    <t>INT_VCC</t>
+  </si>
+  <si>
+    <t>nC</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>P_Turn_off</t>
+  </si>
+  <si>
+    <t>P_Turn_on</t>
+  </si>
+  <si>
+    <t>Q_GD</t>
+  </si>
+  <si>
+    <t>P_M1_max</t>
+  </si>
+  <si>
+    <t>NP/NS</t>
+  </si>
+  <si>
+    <t>NS/NP</t>
+  </si>
+  <si>
+    <t>UJ3C120150K3S</t>
+  </si>
+  <si>
+    <t>STF7N105K5</t>
+  </si>
+  <si>
+    <t>Forward Mosfet</t>
+  </si>
+  <si>
+    <t>V_DS_Max</t>
+  </si>
+  <si>
+    <t>Resonant Case</t>
+  </si>
+  <si>
+    <t>Active clamp Case</t>
+  </si>
+  <si>
+    <t>I_DS_max</t>
+  </si>
+  <si>
+    <t>P_M_Forward</t>
+  </si>
+  <si>
+    <t>P_M_catch</t>
+  </si>
+  <si>
+    <t>IPP019N08NF2SAKMA1</t>
+  </si>
+  <si>
+    <t>Gewählt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+IXFK240N25X3 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -436,12 +497,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -456,17 +541,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -496,7 +609,7 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -627,13 +740,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>512444</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>91749</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -671,13 +784,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>518161</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>170421</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -715,13 +828,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>487681</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>554903</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -757,16 +870,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>312419</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>82505</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>119029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>244825</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>95175</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>14911</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>160864</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -789,8 +902,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5913119" y="9563100"/>
-          <a:ext cx="2984217" cy="603810"/>
+          <a:off x="6835402" y="10629374"/>
+          <a:ext cx="2888440" cy="613335"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -801,16 +914,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>516777</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>129210</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>174966</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>39964</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>610916</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>178426</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -833,8 +946,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6117477" y="10264140"/>
-          <a:ext cx="1490800" cy="199985"/>
+          <a:off x="2113038" y="9580705"/>
+          <a:ext cx="1072912" cy="155566"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -845,16 +958,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>487679</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>74884</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>343164</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>127437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>283844</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>133831</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>139328</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>186384</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -877,8 +990,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6088379" y="10499044"/>
-          <a:ext cx="1638301" cy="1508651"/>
+          <a:off x="8278474" y="10256782"/>
+          <a:ext cx="1569785" cy="1582947"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -889,16 +1002,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>577215</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>31363</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>445836</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>37931</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>398144</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>56637</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>242126</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>144517</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -921,8 +1034,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6216015" y="12880588"/>
-          <a:ext cx="2270760" cy="1661669"/>
+          <a:off x="8381146" y="11881776"/>
+          <a:ext cx="1569911" cy="1249586"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -934,15 +1047,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>452182</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>101803</xdr:rowOff>
+      <xdr:colOff>406200</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>174061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>17275</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>97581</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>772707</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>169839</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -965,8 +1078,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3907159" y="12466985"/>
-          <a:ext cx="995748" cy="367080"/>
+          <a:off x="3782648" y="11827406"/>
+          <a:ext cx="957714" cy="376778"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -977,16 +1090,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>49768</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>20508</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>140818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>248436</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>132897</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>18197</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>186300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1009,8 +1122,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="45720" y="17242393"/>
-          <a:ext cx="24192381" cy="5516189"/>
+          <a:off x="11517743" y="6673847"/>
+          <a:ext cx="9500278" cy="2331482"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1021,16 +1134,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>51955</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>2930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>402210</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>54900</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>95248</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>167720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1053,14 +1166,122 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="22911955"/>
-          <a:ext cx="24274285" cy="5537143"/>
+          <a:off x="11521047" y="10536459"/>
+          <a:ext cx="9574025" cy="2450790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Textfeld 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB6785CC-788D-4636-B4F7-50F48215D98C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11564470" y="14332323"/>
+          <a:ext cx="5266765" cy="1423147"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Conclusion:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The leakage Inductance ist over 1000 times smaller thatn the magnetizing inductance this would never couse such a difference. Leakage inductance will be ignoreed by setting the K factor to 1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1329,69 +1550,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J171"/>
+  <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G171" sqref="G170:G171"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>68</v>
+      <c r="G2" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="14">
         <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G3" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="14">
         <v>960</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="14">
         <v>230</v>
       </c>
       <c r="C5" t="s">
@@ -1400,15 +1635,15 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="14">
         <v>630</v>
       </c>
       <c r="C6" t="s">
@@ -1418,11 +1653,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="14">
         <f>B4/B3</f>
         <v>40</v>
       </c>
@@ -1430,11 +1665,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="14">
         <f>100*10^3</f>
         <v>100000</v>
       </c>
@@ -1445,1043 +1680,1331 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10">
+        <v>69</v>
+      </c>
+      <c r="B10" s="14">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="14">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B12">
+      <c r="B14" s="14">
         <v>0.6</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D12">
+      <c r="D14" s="14">
         <v>0.7</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B15" s="15">
         <v>4.4499999999999998E-2</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
-        <f>(B5/B3)*B12</f>
+      <c r="B17" s="6">
+        <f>(B5/B3)*B14</f>
         <v>5.75</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="D15">
-        <f>(B5/B3)*D12</f>
+      <c r="D17" s="11">
+        <f>(B5/B3)*D14</f>
         <v>6.708333333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3">
-        <f>I19</f>
+      <c r="B18" s="16">
+        <f>I21</f>
         <v>10.989010989010989</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="3">
-        <f>I19/I21</f>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="7">
+        <f>I21/I23</f>
         <v>5.4945054945054945</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E18" t="s">
+      <c r="C19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="19">
+        <f>1/B19</f>
+        <v>0.182</v>
+      </c>
+      <c r="E19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
         <v>18</v>
       </c>
-      <c r="F18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B19">
-        <f>I20</f>
+      <c r="B21" s="14">
+        <f>I22</f>
         <v>3900</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>15</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E21" t="s">
         <v>9</v>
       </c>
-      <c r="F19">
+      <c r="F21" s="14">
         <f>1/0.083</f>
         <v>12.048192771084336</v>
       </c>
-      <c r="G19">
+      <c r="G21" s="14">
         <f>1/0.182</f>
         <v>5.4945054945054945</v>
       </c>
-      <c r="H19">
+      <c r="H21" s="14">
         <f>1/0.363</f>
         <v>2.7548209366391188</v>
       </c>
-      <c r="I19">
+      <c r="I21" s="14">
         <f>1/0.091</f>
         <v>10.989010989010989</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="3">
-        <f>B19/(B16^2)</f>
+      <c r="B22" s="7">
+        <f>B21/(B18^2)</f>
         <v>32.295899999999996</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20">
-        <v>3100</v>
-      </c>
-      <c r="G20">
-        <v>2600</v>
-      </c>
-      <c r="H20">
-        <v>2600</v>
-      </c>
-      <c r="I20">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="14">
+        <v>3100</v>
+      </c>
+      <c r="G22" s="14">
+        <v>2600</v>
+      </c>
+      <c r="H22" s="14">
+        <v>2600</v>
+      </c>
+      <c r="I22" s="14">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="14">
+        <v>2</v>
+      </c>
+      <c r="G23" s="14">
+        <v>1</v>
+      </c>
+      <c r="H23" s="14">
+        <v>1</v>
+      </c>
+      <c r="I23" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="14">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="7">
+        <f>1-(B24/B21)</f>
+        <v>0.99923076923076926</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="6">
+        <f>B15*B7</f>
+        <v>1.7799999999999998</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="6">
+        <f>B28*2</f>
+        <v>3.5599999999999996</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="8">
+        <f>(1-((1/B5)*B19*B3))*1/B29*B3*1/B9</f>
+        <v>2.8763615475877321E-5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="11">
+        <f>B30*10^6</f>
+        <v>28.763615475877319</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="8">
+        <f>(1-((1/B6)*B19*B3))*1/B29*B3*1/B9</f>
+        <v>5.330464078457658E-5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="11">
+        <f>B31*10^6</f>
+        <v>53.304640784576577</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="14">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="9">
+        <f>B3*B34</f>
+        <v>0.24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:24" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="8">
+        <f>B29/(8*B9*(D34-B29*B35))</f>
+        <v>-9.4279661016949134E-6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="18">
+        <f>-B36*10^6</f>
+        <v>9.4279661016949134</v>
+      </c>
+      <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="12">
+        <f>(B19*96*10^-3)/(0.5*B29*B7*1.3)</f>
+        <v>5.6987092423566059E-3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="11">
+        <f>B38*10^3</f>
+        <v>5.6987092423566059</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="14">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="6">
+        <f>B40*10^6</f>
+        <v>1000000</v>
+      </c>
+      <c r="E40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="10">
+        <f>(D40*((1/((B5/1.25)-1))+1))/(B6/1.25)</f>
+        <v>1994.9692080839623</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="10">
+        <f>B41*((B6/1.25)-1)-D40</f>
+        <v>3469.5116662330693</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="6">
+        <f>(B5/D40)/((1/(B41+B42))+(1/D40))</f>
+        <v>1.2500000000000209</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
         <v>50</v>
       </c>
-      <c r="B23">
-        <f>1-(B22/B19)</f>
-        <v>0.99923076923076926</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26">
-        <f>B13*B7</f>
-        <v>1.7799999999999998</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="E43" s="11">
+        <f>(B6/D40)/((1/(B41+B42))+(1/D40))</f>
+        <v>3.423913043478318</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+      <c r="R43" t="s">
+        <v>93</v>
+      </c>
+      <c r="S43">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="T43" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27">
-        <f>B26*2</f>
-        <v>3.5599999999999996</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="U43" t="s">
+        <v>98</v>
+      </c>
+      <c r="V43" t="s">
+        <v>92</v>
+      </c>
+      <c r="W43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="10">
+        <f>(D14/(0.725*((B9/1000)/300)*(1.25/B43)))*51.1*10^3</f>
+        <v>148013.79310345076</v>
+      </c>
+      <c r="C44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="10">
+        <f>B44*10^-3</f>
+        <v>148.01379310345078</v>
+      </c>
+      <c r="E44" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="R44" t="s">
+        <v>94</v>
+      </c>
+      <c r="S44">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="2">
-        <f>(1-((1/B5)*B17*B3))*1/B27*B3*1/B9</f>
-        <v>2.8763615475877321E-5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="3">
-        <f>B28*10^6</f>
-        <v>28.763615475877319</v>
-      </c>
-      <c r="E28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="2">
-        <f>(1-((1/B6)*B17*B3))*1/B27*B3*1/B9</f>
-        <v>5.330464078457658E-5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="3">
-        <f>B29*10^6</f>
-        <v>53.304640784576577</v>
-      </c>
-      <c r="E29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30">
-        <v>60</v>
-      </c>
-      <c r="C30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="C32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="4">
-        <f>B3*B32</f>
-        <v>0.24</v>
-      </c>
-      <c r="E32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33">
-        <v>0.2</v>
-      </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="2">
-        <f>B27/(8*B9*(D32-B27*B33))</f>
-        <v>-9.4279661016949134E-6</v>
-      </c>
-      <c r="C34" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="9">
-        <f>-B34*10^6</f>
-        <v>9.4279661016949134</v>
-      </c>
-      <c r="E34" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" t="s">
-        <v>40</v>
-      </c>
-      <c r="F37" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="C38">
-        <v>22.3</v>
-      </c>
-      <c r="D38">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="G38">
-        <v>35</v>
-      </c>
-      <c r="H38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39">
-        <v>57</v>
-      </c>
-      <c r="C39">
-        <v>315</v>
-      </c>
-      <c r="D39">
-        <v>278</v>
-      </c>
-      <c r="E39">
-        <v>6.5</v>
-      </c>
-      <c r="F39">
-        <f>360*10^-3</f>
-        <v>0.36</v>
-      </c>
-      <c r="G39">
-        <v>290</v>
-      </c>
-      <c r="H39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40">
-        <v>770</v>
-      </c>
-      <c r="C40">
-        <v>41</v>
-      </c>
-      <c r="D40">
+      <c r="V44" t="s">
         <v>100</v>
       </c>
-      <c r="E40">
-        <v>775</v>
-      </c>
-      <c r="F40">
-        <v>660</v>
-      </c>
-      <c r="H40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="G41">
-        <v>2.5</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="W44">
+        <v>39.85</v>
+      </c>
+      <c r="X44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="R45" t="s">
+        <v>95</v>
+      </c>
+      <c r="S45">
+        <v>1043</v>
+      </c>
+      <c r="T45" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="V45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="11">
+        <f>(B3/B6)*B19</f>
+        <v>0.20931449502878077</v>
+      </c>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="R46" t="s">
+        <v>96</v>
+      </c>
+      <c r="S46">
+        <v>953</v>
+      </c>
+      <c r="T46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>52</v>
       </c>
-      <c r="B43">
-        <f>(B17*96*10^-3)/(0.5*B27*B7*1.3)</f>
-        <v>5.6987092423566059E-3</v>
-      </c>
-      <c r="C43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43">
-        <f>B43*10^3</f>
-        <v>5.6987092423566059</v>
-      </c>
-      <c r="E43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45">
-        <f>B45*10^6</f>
-        <v>1000000</v>
-      </c>
-      <c r="E45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="7">
-        <f>(D45*((1/((B5/1.25)-1))+1))/(B6/1.25)</f>
-        <v>1994.9692080839623</v>
-      </c>
-      <c r="C46" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="7">
-        <f>B46*((B6/1.25)-1)-D45</f>
-        <v>3469.5116662330693</v>
+      <c r="B47" s="8">
+        <f>(10*(1-B46)^2)/(B21*(2*PI()*(B9/1000))^2)</f>
+        <v>4.0605345564331669E-9</v>
       </c>
       <c r="C47" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D47" s="13">
+        <f>B47*10^9</f>
+        <v>4.0605345564331667</v>
+      </c>
+      <c r="E47" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="26"/>
+      <c r="H47" s="20"/>
+      <c r="R47" t="s">
+        <v>97</v>
+      </c>
+      <c r="S47" s="4">
+        <f>(S46/S45)*100</f>
+        <v>91.371045062320235</v>
+      </c>
+      <c r="T47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48">
-        <f>(B5/D45)/((1/(B46+B47))+(1/D45))</f>
-        <v>1.2500000000000209</v>
+        <v>55</v>
+      </c>
+      <c r="B48" s="8">
+        <f>6*B47</f>
+        <v>2.4363207338599E-8</v>
       </c>
       <c r="C48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="13">
+        <f>B48*10^9</f>
+        <v>24.363207338599</v>
+      </c>
+      <c r="E48" t="s">
+        <v>54</v>
+      </c>
+      <c r="R48" t="s">
+        <v>102</v>
+      </c>
+      <c r="S48">
+        <v>1.6E-2</v>
+      </c>
+      <c r="T48" t="s">
         <v>10</v>
       </c>
-      <c r="D48" t="s">
-        <v>61</v>
-      </c>
-      <c r="E48">
-        <f>(B6/D45)/((1/(B46+B47))+(1/D45))</f>
-        <v>3.423913043478318</v>
-      </c>
-      <c r="F48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="7">
-        <f>(D12/(0.725*((B9/1000)/300)*(1.25/B48)))*51.1*10^3</f>
-        <v>148013.79310345076</v>
-      </c>
-      <c r="C49" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="7">
-        <f>B49*10^-3</f>
-        <v>148.01379310345078</v>
-      </c>
-      <c r="E49" t="s">
-        <v>62</v>
-      </c>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" s="6">
-        <f>(B3/B6)*B17</f>
-        <v>0.20931449502878077</v>
-      </c>
-      <c r="F51" t="s">
-        <v>111</v>
-      </c>
-      <c r="G51">
-        <f>(B6*B51)/(B19*10^-6*B9)</f>
-        <v>0.33812341504649202</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="B49" s="11">
+        <f>(B3/B5)*B19</f>
+        <v>0.5733397037744864</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="10">
+        <f>(1/(1-B49))*SQRT(B21*10^-6/B47)</f>
+        <v>2296.9866312323384</v>
+      </c>
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52">
-        <f>(10*(1-B51)^2)/(B19*(2*PI()*(B9/1000))^2)</f>
-        <v>4.0605345564331669E-9</v>
-      </c>
-      <c r="C52" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52">
-        <f>B52*10^9</f>
-        <v>4.0605345564331667</v>
-      </c>
-      <c r="E52" t="s">
-        <v>65</v>
-      </c>
-      <c r="F52" t="s">
-        <v>63</v>
-      </c>
-      <c r="G52">
-        <f>(G51*(1-B51)^2)/(1.6*B6*B9)</f>
-        <v>2.0971151087884987E-9</v>
-      </c>
-      <c r="H52">
-        <f>G52*10^9</f>
-        <v>2.0971151087884987</v>
-      </c>
-      <c r="I52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53">
-        <f>6*B52</f>
-        <v>2.4363207338599E-8</v>
-      </c>
-      <c r="C53" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53">
-        <f>B53*10^9</f>
-        <v>24.363207338599</v>
-      </c>
-      <c r="E53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54">
-        <f>(B3/B5)*B17</f>
-        <v>0.5733397037744864</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55">
-        <f>(1/(1-B54))*SQRT(B19*10^-6/B52)</f>
-        <v>2296.9866312323384</v>
-      </c>
-      <c r="C55" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57">
+        <v>71</v>
+      </c>
+      <c r="B52" s="6">
         <f>(1.2/(B9/B10))*22.1*10^6</f>
         <v>530.40000000000009</v>
       </c>
-      <c r="C57" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A54" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="6">
+        <f>B6*(1/B19)*2</f>
+        <v>229.32</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="25">
+        <f>D58*10^-3</f>
+        <v>4.0999999999999995E-3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>93</v>
-      </c>
-      <c r="B59">
-        <f>B6*(1/B17)*2</f>
-        <v>229.32</v>
+        <v>72</v>
+      </c>
+      <c r="B59" s="7">
+        <f>B56*B58</f>
+        <v>1.8449999999999998E-2</v>
       </c>
       <c r="C59" t="s">
         <v>10</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="6">
+        <f>B59*10^3</f>
+        <v>18.45</v>
+      </c>
+      <c r="E59" t="s">
+        <v>75</v>
+      </c>
+      <c r="F59" t="s">
+        <v>83</v>
+      </c>
+      <c r="G59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" s="6">
+        <f>D59*1.2</f>
+        <v>22.139999999999997</v>
+      </c>
+      <c r="C60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G61" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="14">
+        <v>2000</v>
+      </c>
+      <c r="C62" t="s">
+        <v>79</v>
+      </c>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="14">
+        <v>300</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="R63" t="s">
+        <v>93</v>
+      </c>
+      <c r="S63">
+        <v>31.3</v>
+      </c>
+      <c r="T63" t="s">
+        <v>23</v>
+      </c>
+      <c r="U63" t="s">
+        <v>98</v>
+      </c>
+      <c r="V63" t="s">
+        <v>92</v>
+      </c>
+      <c r="W63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="11">
+        <f>B58*SQRT(2*B62*10^-3*((1.3*B63-B3)/(1.3*B63*B32*10^-6)))</f>
+        <v>1.0255255063149642</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ref="D64" si="0">B64*10^3</f>
+        <v>1025.5255063149641</v>
+      </c>
+      <c r="E64" t="s">
+        <v>75</v>
+      </c>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="R64" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>85</v>
-      </c>
-      <c r="B62">
-        <v>4.5</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="S64">
+        <v>2.84</v>
+      </c>
+      <c r="T64" t="s">
         <v>23</v>
       </c>
-      <c r="D62" t="s">
+      <c r="V64" t="s">
+        <v>100</v>
+      </c>
+      <c r="W64">
+        <v>39.85</v>
+      </c>
+      <c r="X64" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="11">
+        <f>B64/B58</f>
+        <v>250.12817227194253</v>
+      </c>
+      <c r="C65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65">
+        <v>60</v>
+      </c>
+      <c r="E65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" t="s">
+        <v>142</v>
+      </c>
+      <c r="R65" t="s">
+        <v>95</v>
+      </c>
+      <c r="S65">
+        <v>1001</v>
+      </c>
+      <c r="T65" t="s">
+        <v>20</v>
+      </c>
+      <c r="V65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R66" t="s">
+        <v>96</v>
+      </c>
+      <c r="S66">
+        <v>953</v>
+      </c>
+      <c r="T66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="14">
+        <v>1000</v>
+      </c>
+      <c r="C67" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" t="s">
         <v>86</v>
       </c>
-      <c r="B64">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="C64" t="s">
-        <v>53</v>
-      </c>
-      <c r="D64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="R67" t="s">
+        <v>97</v>
+      </c>
+      <c r="S67" s="4">
+        <f>(S66/S65)*100</f>
+        <v>95.204795204795204</v>
+      </c>
+      <c r="T67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>84</v>
       </c>
-      <c r="B65">
-        <f>B62*B64</f>
-        <v>7.8750000000000014E-2</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B68" s="12">
+        <f>((B67*40*10^-6)+66*10^-3)/D65</f>
+        <v>1.7666666666666668E-3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" s="11">
+        <f>B68*10^3</f>
+        <v>1.7666666666666668</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="G68" t="s">
+        <v>90</v>
+      </c>
+      <c r="H68" t="s">
+        <v>91</v>
+      </c>
+      <c r="R68" t="s">
+        <v>102</v>
+      </c>
+      <c r="S68">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T68" t="s">
         <v>10</v>
       </c>
-      <c r="D65">
-        <f>B65*10^3</f>
-        <v>78.750000000000014</v>
-      </c>
-      <c r="E65" t="s">
-        <v>87</v>
-      </c>
-      <c r="F65" t="s">
-        <v>96</v>
-      </c>
-      <c r="G65" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>100</v>
-      </c>
-      <c r="B66">
-        <f>D65*1.2</f>
-        <v>94.500000000000014</v>
-      </c>
-      <c r="C66" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>89</v>
-      </c>
-      <c r="B68">
-        <v>320</v>
-      </c>
-      <c r="C68" t="s">
-        <v>91</v>
-      </c>
-      <c r="D68" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>90</v>
-      </c>
-      <c r="B69">
-        <v>250</v>
-      </c>
-      <c r="C69" t="s">
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D69" s="27"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="23">
+        <f>SQRT((1-B46)*(B7^2+(B29^2/12)))</f>
+        <v>35.579936442775363</v>
+      </c>
+      <c r="C70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="27"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" s="28">
+        <f>D71*10^-9</f>
+        <v>3.4500000000000003E-7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>125</v>
+      </c>
+      <c r="D71" s="24">
+        <v>345</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F71" s="20"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="22">
+        <f>(B70^2*B58)+(B11*B9*B71)</f>
+        <v>5.5353206968149298</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="27"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A74" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>114</v>
+      </c>
+      <c r="B75" s="23">
+        <f>0.5*B19*(B3/(B21*10^-6))*(1/B9)*2</f>
+        <v>0.33812341504649202</v>
+      </c>
+      <c r="C75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="G75" s="30"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" s="23">
+        <f>B79</f>
+        <v>956.13236267372599</v>
+      </c>
+      <c r="D76" t="s">
+        <v>117</v>
+      </c>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" s="23">
+        <f>(1/B19)*(B7+(B29/2))</f>
+        <v>7.6039599999999998</v>
+      </c>
+      <c r="C77" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A78" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="4">
+        <f>((B6^2)/(B6-(B3*B19)))*1.2</f>
+        <v>956.13236267372599</v>
+      </c>
+      <c r="C79" t="s">
         <v>10</v>
       </c>
-      <c r="D69" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>88</v>
-      </c>
-      <c r="B70">
-        <f>B64*SQRT(2*B68*10^-3*((1.3*B69-B3)/(1.3*B69*B30*10^-6)))</f>
-        <v>1.7393780202807836</v>
-      </c>
-      <c r="C70" t="s">
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>119</v>
+      </c>
+      <c r="B80" s="4">
+        <f>SQRT(B85/B81)</f>
+        <v>5.5123576586177476</v>
+      </c>
+      <c r="C80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>74</v>
+      </c>
+      <c r="B81">
+        <v>0.2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>42</v>
+      </c>
+      <c r="F81" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="G81" s="30"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" s="1">
+        <f>D82*10^-9</f>
+        <v>3.0000000000000004E-8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>125</v>
+      </c>
+      <c r="D82" s="14">
+        <v>30</v>
+      </c>
+      <c r="E82" t="s">
+        <v>124</v>
+      </c>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>128</v>
+      </c>
+      <c r="B83" s="1">
+        <f>D83*10^-9</f>
+        <v>6.0000000000000008E-9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>125</v>
+      </c>
+      <c r="D83">
+        <v>6</v>
+      </c>
+      <c r="E83" t="s">
+        <v>124</v>
+      </c>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85" s="4">
+        <f>B19*(B3/B5)*((1/B19)*B7)^2*B81</f>
+        <v>6.0772173913043472</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>121</v>
+      </c>
+      <c r="B86">
+        <f>B82*B11*B9</f>
+        <v>3.0000000000000002E-2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>126</v>
+      </c>
+      <c r="B87" s="4">
+        <f>0.5*B7*D19*(B6/(1-B49))*(B83/2)*B9</f>
+        <v>1.6124303247480403</v>
+      </c>
+      <c r="C87" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>127</v>
+      </c>
+      <c r="B88" s="4">
+        <f>0.5*B7*D19*B6*(B83/2)*B9</f>
+        <v>0.68796000000000002</v>
+      </c>
+      <c r="C88" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>129</v>
+      </c>
+      <c r="B89" s="4">
+        <f>B85+B86+B87+B88</f>
+        <v>8.4076077160523877</v>
+      </c>
+      <c r="C89" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31"/>
+      <c r="I90" s="31"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>135</v>
+      </c>
+      <c r="B91" s="4">
+        <f>(B3/(1-(B3/(B5*D19))))*1.2</f>
+        <v>67.501007838745792</v>
+      </c>
+      <c r="C91" t="s">
         <v>10</v>
       </c>
-      <c r="D70">
-        <f t="shared" ref="D70" si="0">B70*10^3</f>
-        <v>1739.3780202807836</v>
-      </c>
-      <c r="E70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>102</v>
-      </c>
-      <c r="B71">
-        <f>B70/B64</f>
-        <v>99.393029730330483</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="D91" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>135</v>
+      </c>
+      <c r="B92" s="4">
+        <f>(B3/(B9*2*SQRT(B21*10^-6*B47)))</f>
+        <v>30.154861431004125</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>138</v>
+      </c>
+      <c r="B93">
+        <f>SQRT(B49*(B7^2+(B29^2/12)))</f>
+        <v>30.297673990121055</v>
+      </c>
+      <c r="C93" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>92</v>
-      </c>
-      <c r="B73">
-        <v>1000</v>
-      </c>
-      <c r="C73" t="s">
-        <v>53</v>
-      </c>
-      <c r="D73" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>97</v>
-      </c>
-      <c r="B74">
-        <f>((B73*40*10^-6)+66*10^-3)/B71</f>
-        <v>1.0664731751068995E-3</v>
-      </c>
-      <c r="C74" t="s">
-        <v>53</v>
-      </c>
-      <c r="D74">
-        <f>B74*10^3</f>
-        <v>1.0664731751068994</v>
-      </c>
-      <c r="E74" t="s">
-        <v>54</v>
-      </c>
-      <c r="F74">
-        <v>1.2</v>
-      </c>
-      <c r="G74" t="s">
-        <v>103</v>
-      </c>
-      <c r="H74" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>105</v>
-      </c>
-      <c r="B76">
-        <v>395</v>
-      </c>
-      <c r="C76" t="s">
-        <v>106</v>
-      </c>
-      <c r="D76" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>107</v>
-      </c>
-      <c r="B78">
-        <f>2*B76</f>
-        <v>790</v>
-      </c>
-      <c r="C78" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>108</v>
-      </c>
-      <c r="B79">
-        <f>B59/B71</f>
-        <v>2.3072040425991904</v>
-      </c>
-      <c r="C79" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>109</v>
-      </c>
-      <c r="B80">
-        <f>B78*10^-9*B59^2*B9</f>
-        <v>4154.4253295999997</v>
-      </c>
-      <c r="C80" t="s">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F94" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="G94" s="30"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>74</v>
+      </c>
+      <c r="B95" s="21">
+        <f>D95*10^-3</f>
+        <v>1.9E-3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>42</v>
+      </c>
+      <c r="D95">
+        <v>1.9</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>122</v>
+      </c>
+      <c r="B96" s="1">
+        <f>D96*10^-9</f>
+        <v>1.24E-7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>125</v>
+      </c>
+      <c r="D96">
+        <v>124</v>
+      </c>
+      <c r="E96" t="s">
+        <v>124</v>
+      </c>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>139</v>
+      </c>
+      <c r="B98" s="4">
+        <f>(B93^2*B95)+(B11*B96*B9)</f>
+        <v>1.8681031935021499</v>
+      </c>
+      <c r="C98" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>112</v>
-      </c>
-      <c r="B127">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="C127" t="s">
-        <v>23</v>
-      </c>
-      <c r="D127" t="s">
-        <v>117</v>
-      </c>
-      <c r="E127" t="s">
-        <v>110</v>
-      </c>
-      <c r="F127" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>113</v>
-      </c>
-      <c r="B128">
-        <v>3</v>
-      </c>
-      <c r="C128" t="s">
-        <v>23</v>
-      </c>
-      <c r="E128" t="s">
-        <v>119</v>
-      </c>
-      <c r="F128">
-        <v>39.85</v>
-      </c>
-      <c r="G128" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>114</v>
-      </c>
-      <c r="B129">
-        <v>1043</v>
-      </c>
-      <c r="C129" t="s">
-        <v>20</v>
-      </c>
-      <c r="E129" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>115</v>
-      </c>
-      <c r="B130">
-        <v>953</v>
-      </c>
-      <c r="C130" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>116</v>
-      </c>
-      <c r="B131" s="6">
-        <f>(B130/B129)*100</f>
-        <v>91.371045062320235</v>
-      </c>
-      <c r="C131" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>121</v>
-      </c>
-      <c r="B132">
-        <v>1.6E-2</v>
-      </c>
-      <c r="C132" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>112</v>
-      </c>
-      <c r="B166">
-        <v>31.3</v>
-      </c>
-      <c r="C166" t="s">
-        <v>23</v>
-      </c>
-      <c r="D166" t="s">
-        <v>117</v>
-      </c>
-      <c r="E166" t="s">
-        <v>110</v>
-      </c>
-      <c r="F166" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>113</v>
-      </c>
-      <c r="B167">
-        <v>2.84</v>
-      </c>
-      <c r="C167" t="s">
-        <v>23</v>
-      </c>
-      <c r="E167" t="s">
-        <v>119</v>
-      </c>
-      <c r="F167">
-        <v>39.85</v>
-      </c>
-      <c r="G167" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>114</v>
-      </c>
-      <c r="B168">
-        <v>1001</v>
-      </c>
-      <c r="C168" t="s">
-        <v>20</v>
-      </c>
-      <c r="E168" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>115</v>
-      </c>
-      <c r="B169">
-        <v>953</v>
-      </c>
-      <c r="C169" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>116</v>
-      </c>
-      <c r="B170" s="6">
-        <f>(B169/B168)*100</f>
-        <v>95.204795204795204</v>
-      </c>
-      <c r="C170" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>121</v>
-      </c>
-      <c r="B171">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="C171" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="G61:I64"/>
+    <mergeCell ref="A90:I90"/>
+    <mergeCell ref="F94:G96"/>
+    <mergeCell ref="A74:I74"/>
+    <mergeCell ref="A78:I78"/>
+    <mergeCell ref="F81:G83"/>
+    <mergeCell ref="F75:G77"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DC_Converter_Calc.xlsx
+++ b/DC_Converter_Calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Technik\Technik 2022\05 - Electronics\02 - HV\01 - HV Accumulator\02 - ECAD\02 - PCB Files\03 - HV_DCDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0401D9BB-A695-478B-8190-8551263D0252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC7B285-3175-4BB5-9AF1-325C01EA9841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,8 +463,7 @@
     <t>Gewählt</t>
   </si>
   <si>
-    <t xml:space="preserve">
-IXFK240N25X3 </t>
+    <t xml:space="preserve">IXFK240N25X3 </t>
   </si>
 </sst>
 </file>
@@ -571,14 +570,14 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1552,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61:I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,17 +1564,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
       <c r="J1" t="s">
         <v>58</v>
       </c>
@@ -1706,17 +1705,17 @@
       <c r="B12" s="20"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1897,17 +1896,17 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -2183,17 +2182,17 @@
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
       <c r="R45" t="s">
         <v>95</v>
       </c>
@@ -2320,17 +2319,17 @@
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -2417,11 +2416,11 @@
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G61" s="29" t="s">
+      <c r="G61" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -2433,9 +2432,9 @@
       <c r="C62" t="s">
         <v>79</v>
       </c>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -2447,9 +2446,9 @@
       <c r="C63" t="s">
         <v>10</v>
       </c>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
       <c r="R63" t="s">
         <v>93</v>
       </c>
@@ -2487,9 +2486,9 @@
       <c r="E64" t="s">
         <v>75</v>
       </c>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
       <c r="R64" t="s">
         <v>94</v>
       </c>
@@ -2669,17 +2668,17 @@
       <c r="F72" s="20"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -2692,10 +2691,10 @@
       <c r="C75" t="s">
         <v>23</v>
       </c>
-      <c r="F75" s="30" t="s">
+      <c r="F75" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="G75" s="30"/>
+      <c r="G75" s="31"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -2708,8 +2707,8 @@
       <c r="D76" t="s">
         <v>117</v>
       </c>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -2722,21 +2721,21 @@
       <c r="C77" t="s">
         <v>23</v>
       </c>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -2772,10 +2771,10 @@
       <c r="C81" t="s">
         <v>42</v>
       </c>
-      <c r="F81" s="30" t="s">
+      <c r="F81" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="G81" s="30"/>
+      <c r="G81" s="31"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -2794,8 +2793,8 @@
       <c r="E82" t="s">
         <v>124</v>
       </c>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -2814,8 +2813,8 @@
       <c r="E83" t="s">
         <v>124</v>
       </c>
-      <c r="F83" s="30"/>
-      <c r="G83" s="30"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -2878,17 +2877,17 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="31" t="s">
+      <c r="A90" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B90" s="31"/>
-      <c r="C90" s="31"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="31"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="31"/>
-      <c r="I90" s="31"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -2933,10 +2932,10 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F94" s="30" t="s">
+      <c r="F94" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="G94" s="30"/>
+      <c r="G94" s="31"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -2955,8 +2954,8 @@
       <c r="E95" t="s">
         <v>43</v>
       </c>
-      <c r="F95" s="30"/>
-      <c r="G95" s="30"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="31"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -2975,8 +2974,8 @@
       <c r="E96" t="s">
         <v>124</v>
       </c>
-      <c r="F96" s="30"/>
-      <c r="G96" s="30"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -2992,11 +2991,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="A1:I1"/>
     <mergeCell ref="G61:I64"/>
     <mergeCell ref="A90:I90"/>
     <mergeCell ref="F94:G96"/>
@@ -3004,6 +2998,11 @@
     <mergeCell ref="A78:I78"/>
     <mergeCell ref="F81:G83"/>
     <mergeCell ref="F75:G77"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DC_Converter_Calc.xlsx
+++ b/DC_Converter_Calc.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Technik\Technik 2022\05 - Electronics\02 - HV\01 - HV Accumulator\02 - ECAD\02 - PCB Files\03 - HV_DCDC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BR\GIT\HV_DCDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC7B285-3175-4BB5-9AF1-325C01EA9841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35094DE7-FDC1-452C-B9B4-5B58EE2715B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="26760" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="154">
   <si>
     <t>Eingangsparameter</t>
   </si>
@@ -464,6 +466,36 @@
   </si>
   <si>
     <t xml:space="preserve">IXFK240N25X3 </t>
+  </si>
+  <si>
+    <t>Housekeeping Mosfet</t>
+  </si>
+  <si>
+    <t>Based on refernece design BSP300</t>
+  </si>
+  <si>
+    <t>190mA</t>
+  </si>
+  <si>
+    <t>R_ds_on</t>
+  </si>
+  <si>
+    <t>N_channel</t>
+  </si>
+  <si>
+    <t>V_DS</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>I_cont</t>
+  </si>
+  <si>
+    <t>1,85A</t>
+  </si>
+  <si>
+    <t>N_Channel</t>
   </si>
 </sst>
 </file>
@@ -570,14 +602,14 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -744,9 +776,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>512444</xdr:colOff>
+      <xdr:colOff>516254</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>91749</xdr:rowOff>
+      <xdr:rowOff>95559</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -790,7 +822,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>170421</xdr:rowOff>
+      <xdr:rowOff>174231</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -832,9 +864,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>554903</xdr:colOff>
+      <xdr:colOff>551093</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -876,9 +908,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>14911</xdr:colOff>
+      <xdr:colOff>18721</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>160864</xdr:rowOff>
+      <xdr:rowOff>168484</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -922,7 +954,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>610916</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>178426</xdr:rowOff>
+      <xdr:rowOff>174616</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -964,9 +996,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>139328</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>186384</xdr:rowOff>
+      <xdr:colOff>135518</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>548</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1008,9 +1040,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>242126</xdr:colOff>
+      <xdr:colOff>245936</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>144517</xdr:rowOff>
+      <xdr:rowOff>136897</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1052,9 +1084,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>772707</xdr:colOff>
+      <xdr:colOff>782232</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>169839</xdr:rowOff>
+      <xdr:rowOff>173649</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1096,9 +1128,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>18197</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>186300</xdr:rowOff>
+      <xdr:colOff>22007</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>464</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1140,9 +1172,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>95248</xdr:colOff>
+      <xdr:colOff>99058</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>167720</xdr:rowOff>
+      <xdr:rowOff>171530</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1549,37 +1581,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X98"/>
+  <dimension ref="A1:X105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61:I64"/>
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
       <c r="J1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1590,7 +1622,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1607,7 +1639,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1621,7 +1653,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1638,7 +1670,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1652,7 +1684,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1664,7 +1696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1679,7 +1711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -1690,7 +1722,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -1701,23 +1733,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="20"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1734,7 +1766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1745,7 +1777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1761,7 +1793,7 @@
         <v>6.708333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1770,7 +1802,7 @@
         <v>10.989010989010989</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1789,7 +1821,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>18</v>
       </c>
@@ -1800,7 +1832,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1831,7 +1863,7 @@
         <v>10.989010989010989</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1858,7 +1890,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>35</v>
       </c>
@@ -1875,7 +1907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1886,7 +1918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1895,20 +1927,20 @@
         <v>0.99923076923076926</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1920,7 +1952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1932,7 +1964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1951,7 +1983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1970,7 +2002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1990,10 +2022,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -2011,7 +2043,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -2020,7 +2052,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:24" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -2042,7 +2074,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -2061,7 +2093,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -2079,7 +2111,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2091,7 +2123,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2103,7 +2135,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2143,7 +2175,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2181,18 +2213,18 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="29" t="s">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A45" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
       <c r="R45" t="s">
         <v>95</v>
       </c>
@@ -2206,7 +2238,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -2226,7 +2258,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -2257,7 +2289,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -2285,7 +2317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -2294,7 +2326,7 @@
         <v>0.5733397037744864</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -2306,7 +2338,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -2318,20 +2350,20 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="s">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A54" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>81</v>
       </c>
@@ -2346,7 +2378,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>73</v>
       </c>
@@ -2360,7 +2392,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>74</v>
       </c>
@@ -2378,7 +2410,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -2403,7 +2435,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>87</v>
       </c>
@@ -2415,14 +2447,14 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G61" s="30" t="s">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G61" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -2432,11 +2464,11 @@
       <c r="C62" t="s">
         <v>79</v>
       </c>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -2446,9 +2478,9 @@
       <c r="C63" t="s">
         <v>10</v>
       </c>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
       <c r="R63" t="s">
         <v>93</v>
       </c>
@@ -2468,7 +2500,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -2486,9 +2518,9 @@
       <c r="E64" t="s">
         <v>75</v>
       </c>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
       <c r="R64" t="s">
         <v>94</v>
       </c>
@@ -2508,7 +2540,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>89</v>
       </c>
@@ -2541,7 +2573,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="R66" t="s">
         <v>96</v>
       </c>
@@ -2552,7 +2584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -2576,7 +2608,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -2613,12 +2645,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D69" s="27"/>
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>138</v>
       </c>
@@ -2633,7 +2665,7 @@
       <c r="E70" s="20"/>
       <c r="F70" s="20"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>122</v>
       </c>
@@ -2652,7 +2684,7 @@
       </c>
       <c r="F71" s="20"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>140</v>
       </c>
@@ -2667,20 +2699,20 @@
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A74" s="29" t="s">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A74" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>114</v>
       </c>
@@ -2691,12 +2723,12 @@
       <c r="C75" t="s">
         <v>23</v>
       </c>
-      <c r="F75" s="31" t="s">
+      <c r="F75" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="G75" s="31"/>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G75" s="30"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>116</v>
       </c>
@@ -2707,10 +2739,10 @@
       <c r="D76" t="s">
         <v>117</v>
       </c>
-      <c r="F76" s="31"/>
-      <c r="G76" s="31"/>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>115</v>
       </c>
@@ -2721,23 +2753,23 @@
       <c r="C77" t="s">
         <v>23</v>
       </c>
-      <c r="F77" s="31"/>
-      <c r="G77" s="31"/>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A78" s="29" t="s">
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A78" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29"/>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>118</v>
       </c>
@@ -2749,7 +2781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>119</v>
       </c>
@@ -2761,7 +2793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>74</v>
       </c>
@@ -2771,12 +2803,12 @@
       <c r="C81" t="s">
         <v>42</v>
       </c>
-      <c r="F81" s="31" t="s">
+      <c r="F81" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="G81" s="31"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G81" s="30"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>122</v>
       </c>
@@ -2793,10 +2825,10 @@
       <c r="E82" t="s">
         <v>124</v>
       </c>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>128</v>
       </c>
@@ -2813,10 +2845,10 @@
       <c r="E83" t="s">
         <v>124</v>
       </c>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>120</v>
       </c>
@@ -2828,7 +2860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>121</v>
       </c>
@@ -2840,7 +2872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>126</v>
       </c>
@@ -2852,7 +2884,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>127</v>
       </c>
@@ -2864,7 +2896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>129</v>
       </c>
@@ -2876,20 +2908,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="29" t="s">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="29"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31"/>
+      <c r="I90" s="31"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>135</v>
       </c>
@@ -2904,7 +2936,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>135</v>
       </c>
@@ -2919,7 +2951,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>138</v>
       </c>
@@ -2931,13 +2963,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F94" s="31" t="s">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F94" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="G94" s="31"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G94" s="30"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>74</v>
       </c>
@@ -2954,10 +2986,10 @@
       <c r="E95" t="s">
         <v>43</v>
       </c>
-      <c r="F95" s="31"/>
-      <c r="G95" s="31"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>122</v>
       </c>
@@ -2974,10 +3006,10 @@
       <c r="E96" t="s">
         <v>124</v>
       </c>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>139</v>
       </c>
@@ -2989,8 +3021,76 @@
         <v>20</v>
       </c>
     </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B100" s="31"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="31"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="31"/>
+      <c r="I100" s="31"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>151</v>
+      </c>
+      <c r="B102" t="s">
+        <v>146</v>
+      </c>
+      <c r="C102" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>147</v>
+      </c>
+      <c r="B103">
+        <v>15</v>
+      </c>
+      <c r="C103">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>150</v>
+      </c>
+      <c r="B104" t="s">
+        <v>148</v>
+      </c>
+      <c r="C104" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>149</v>
+      </c>
+      <c r="B105">
+        <v>800</v>
+      </c>
+      <c r="C105">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A100:I100"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A1:I1"/>
     <mergeCell ref="G61:I64"/>
     <mergeCell ref="A90:I90"/>
     <mergeCell ref="F94:G96"/>
@@ -2998,11 +3098,6 @@
     <mergeCell ref="A78:I78"/>
     <mergeCell ref="F81:G83"/>
     <mergeCell ref="F75:G77"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DC_Converter_Calc.xlsx
+++ b/DC_Converter_Calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BR\GIT\HV_DCDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35094DE7-FDC1-452C-B9B4-5B58EE2715B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C4E90E-DF52-4E4A-8FE7-9B1E811BEC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="26760" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,14 +602,14 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1583,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1596,17 +1596,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
       <c r="J1" t="s">
         <v>58</v>
       </c>
@@ -1737,17 +1737,17 @@
       <c r="B12" s="20"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1928,17 +1928,17 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -2214,17 +2214,17 @@
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
       <c r="R45" t="s">
         <v>95</v>
       </c>
@@ -2351,17 +2351,17 @@
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
@@ -2448,11 +2448,11 @@
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="G61" s="29" t="s">
+      <c r="G61" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -2464,9 +2464,9 @@
       <c r="C62" t="s">
         <v>79</v>
       </c>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
@@ -2478,9 +2478,9 @@
       <c r="C63" t="s">
         <v>10</v>
       </c>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
       <c r="R63" t="s">
         <v>93</v>
       </c>
@@ -2518,9 +2518,9 @@
       <c r="E64" t="s">
         <v>75</v>
       </c>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
       <c r="R64" t="s">
         <v>94</v>
       </c>
@@ -2700,17 +2700,17 @@
       <c r="F72" s="20"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
@@ -2723,10 +2723,10 @@
       <c r="C75" t="s">
         <v>23</v>
       </c>
-      <c r="F75" s="30" t="s">
+      <c r="F75" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="G75" s="30"/>
+      <c r="G75" s="31"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
@@ -2739,8 +2739,8 @@
       <c r="D76" t="s">
         <v>117</v>
       </c>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
@@ -2753,21 +2753,21 @@
       <c r="C77" t="s">
         <v>23</v>
       </c>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
@@ -2803,10 +2803,10 @@
       <c r="C81" t="s">
         <v>42</v>
       </c>
-      <c r="F81" s="30" t="s">
+      <c r="F81" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="G81" s="30"/>
+      <c r="G81" s="31"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
@@ -2825,8 +2825,8 @@
       <c r="E82" t="s">
         <v>124</v>
       </c>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
@@ -2845,8 +2845,8 @@
       <c r="E83" t="s">
         <v>124</v>
       </c>
-      <c r="F83" s="30"/>
-      <c r="G83" s="30"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
@@ -2909,17 +2909,17 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="31" t="s">
+      <c r="A90" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B90" s="31"/>
-      <c r="C90" s="31"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="31"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="31"/>
-      <c r="I90" s="31"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
@@ -2964,10 +2964,10 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F94" s="30" t="s">
+      <c r="F94" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="G94" s="30"/>
+      <c r="G94" s="31"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
@@ -2986,8 +2986,8 @@
       <c r="E95" t="s">
         <v>43</v>
       </c>
-      <c r="F95" s="30"/>
-      <c r="G95" s="30"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="31"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
@@ -3006,8 +3006,8 @@
       <c r="E96" t="s">
         <v>124</v>
       </c>
-      <c r="F96" s="30"/>
-      <c r="G96" s="30"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
@@ -3022,17 +3022,17 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="31" t="s">
+      <c r="A100" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="B100" s="31"/>
-      <c r="C100" s="31"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="31"/>
-      <c r="F100" s="31"/>
-      <c r="G100" s="31"/>
-      <c r="H100" s="31"/>
-      <c r="I100" s="31"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="29"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
@@ -3085,11 +3085,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A100:I100"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A54:I54"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="G61:I64"/>
     <mergeCell ref="A90:I90"/>
@@ -3098,6 +3093,11 @@
     <mergeCell ref="A78:I78"/>
     <mergeCell ref="F81:G83"/>
     <mergeCell ref="F75:G77"/>
+    <mergeCell ref="A100:I100"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A54:I54"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DC_Converter_Calc.xlsx
+++ b/DC_Converter_Calc.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BR\GIT\HV_DCDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C4E90E-DF52-4E4A-8FE7-9B1E811BEC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DFC759-2B1E-4942-BAD1-72414FB0CBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="26760" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="26760" windowHeight="14520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="157">
   <si>
     <t>Eingangsparameter</t>
   </si>
@@ -496,6 +497,15 @@
   </si>
   <si>
     <t>N_Channel</t>
+  </si>
+  <si>
+    <t>Total losses</t>
+  </si>
+  <si>
+    <t>ohm</t>
+  </si>
+  <si>
+    <t>AGM2222-562</t>
   </si>
 </sst>
 </file>
@@ -507,7 +517,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,8 +537,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -559,6 +577,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -569,10 +599,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -602,6 +633,21 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -612,7 +658,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -626,6 +673,1317 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle2!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L_o (Vmax) &gt;</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle2!$K$9:$AO$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>260000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>270000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>280000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>290000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>330000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>340000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>360000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>370000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>380000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>390000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>400000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$K$31:$AO$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>11.86028257456829</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.782075067789352</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8835688121402399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1232942881294523</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4716304104059201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9068550497121919</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4126766091051799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9766368085695811</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5890458747601608</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.2422539866148883</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.9301412872841448</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6477536069372798</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.3910375338946759</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.1566445976383868</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9417844060701199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7441130298273153</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5616471440647262</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.3926972498401069</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.2358152052029601</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.0897526119200993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.9534275248560959</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8258976046994477</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.7063383045525899</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.5940250225964512</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4883184042847906</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.3886521641623681</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.2945229373800804</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.2054817769103483</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.1211269933074441</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.0410980960431506</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.9650706436420724</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6ED6-400E-940B-39846E9D6D10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="10189344"/>
+        <c:axId val="14695552"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle2!$I$106</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total losses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle2!$K$9:$AO$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>260000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>270000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>280000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>290000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>330000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>340000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>360000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>370000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>380000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>390000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>400000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$K$106:$AO$106</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>15.898855322965833</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.178794355440637</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.458733387915437</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.738672420390245</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.018611452865049</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.298550485339852</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.578489517814653</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.85842855028946</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.138367582764268</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.418306615239068</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.698245647713872</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.978184680188676</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.258123712663483</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.538062745138284</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.818001777613087</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.097940810087895</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.377879842562699</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.657818875037499</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.937757907512303</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.217696939987107</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.497635972461914</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.777575004936715</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.057514037411519</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.337453069886323</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22.61739210236113</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22.89733113483593</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23.177270167310738</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23.457209199785545</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23.737148232260346</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24.017087264735149</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24.29702629720995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6ED6-400E-940B-39846E9D6D10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2037159264"/>
+        <c:axId val="2037158432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10189344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14695552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="14695552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10189344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2037158432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2037159264"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="2037159264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2037158432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -776,9 +2134,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>516254</xdr:colOff>
+      <xdr:colOff>512444</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>95559</xdr:rowOff>
+      <xdr:rowOff>91749</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -822,7 +2180,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>174231</xdr:rowOff>
+      <xdr:rowOff>170421</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -864,9 +2222,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>551093</xdr:colOff>
+      <xdr:colOff>554903</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -908,9 +2266,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>18721</xdr:colOff>
+      <xdr:colOff>22531</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>168484</xdr:rowOff>
+      <xdr:rowOff>172294</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -954,7 +2312,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>610916</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>174616</xdr:rowOff>
+      <xdr:rowOff>170806</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -996,7 +2354,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>135518</xdr:colOff>
+      <xdr:colOff>131708</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>548</xdr:rowOff>
     </xdr:to>
@@ -1040,9 +2398,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>245936</xdr:colOff>
+      <xdr:colOff>249746</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>136897</xdr:rowOff>
+      <xdr:rowOff>133087</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1084,9 +2442,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>782232</xdr:colOff>
+      <xdr:colOff>778422</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>173649</xdr:rowOff>
+      <xdr:rowOff>169839</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1128,7 +2486,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>22007</xdr:colOff>
+      <xdr:colOff>18197</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>464</xdr:rowOff>
     </xdr:to>
@@ -1172,9 +2530,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>99058</xdr:colOff>
+      <xdr:colOff>95248</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>171530</xdr:rowOff>
+      <xdr:rowOff>167720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1313,6 +2671,135 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>162340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371061</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>122583</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Diagramm 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E898BA84-9639-4CE0-82ED-6A41FB7526A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>129210</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>439466</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>174616</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD37977E-FA6D-4984-9635-A58CC765665B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2163750" y="8252460"/>
+          <a:ext cx="1091306" cy="151756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>406200</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>174061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>593637</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>173649</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{553B0951-5D62-44F8-BDDC-0C1E96D6AF8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3873300" y="11329741"/>
+          <a:ext cx="985632" cy="365348"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1583,8 +3070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1596,17 +3083,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
       <c r="J1" t="s">
         <v>58</v>
       </c>
@@ -1737,17 +3224,17 @@
       <c r="B12" s="20"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1928,17 +3415,17 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -2021,6 +3508,9 @@
       <c r="F32" t="s">
         <v>38</v>
       </c>
+      <c r="G32" s="43" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D33" s="2"/>
@@ -2214,17 +3704,17 @@
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
       <c r="R45" t="s">
         <v>95</v>
       </c>
@@ -2351,17 +3841,17 @@
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
@@ -2448,11 +3938,11 @@
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="G61" s="30" t="s">
+      <c r="G61" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -2464,9 +3954,9 @@
       <c r="C62" t="s">
         <v>79</v>
       </c>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
@@ -2478,9 +3968,9 @@
       <c r="C63" t="s">
         <v>10</v>
       </c>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
       <c r="R63" t="s">
         <v>93</v>
       </c>
@@ -2518,9 +4008,9 @@
       <c r="E64" t="s">
         <v>75</v>
       </c>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
       <c r="R64" t="s">
         <v>94</v>
       </c>
@@ -2700,17 +4190,17 @@
       <c r="F72" s="20"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A74" s="29" t="s">
+      <c r="A74" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
@@ -2723,10 +4213,10 @@
       <c r="C75" t="s">
         <v>23</v>
       </c>
-      <c r="F75" s="31" t="s">
+      <c r="F75" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="G75" s="31"/>
+      <c r="G75" s="46"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
@@ -2739,8 +4229,8 @@
       <c r="D76" t="s">
         <v>117</v>
       </c>
-      <c r="F76" s="31"/>
-      <c r="G76" s="31"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="46"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
@@ -2753,21 +4243,21 @@
       <c r="C77" t="s">
         <v>23</v>
       </c>
-      <c r="F77" s="31"/>
-      <c r="G77" s="31"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A78" s="29" t="s">
+      <c r="A78" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="44"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
@@ -2803,10 +4293,10 @@
       <c r="C81" t="s">
         <v>42</v>
       </c>
-      <c r="F81" s="31" t="s">
+      <c r="F81" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="G81" s="31"/>
+      <c r="G81" s="46"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
@@ -2825,8 +4315,8 @@
       <c r="E82" t="s">
         <v>124</v>
       </c>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="46"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
@@ -2845,8 +4335,8 @@
       <c r="E83" t="s">
         <v>124</v>
       </c>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="46"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
@@ -2909,17 +4399,17 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="29" t="s">
+      <c r="A90" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="29"/>
+      <c r="B90" s="44"/>
+      <c r="C90" s="44"/>
+      <c r="D90" s="44"/>
+      <c r="E90" s="44"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="44"/>
+      <c r="I90" s="44"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
@@ -2964,10 +4454,10 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F94" s="31" t="s">
+      <c r="F94" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="G94" s="31"/>
+      <c r="G94" s="46"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
@@ -2986,8 +4476,8 @@
       <c r="E95" t="s">
         <v>43</v>
       </c>
-      <c r="F95" s="31"/>
-      <c r="G95" s="31"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="46"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
@@ -3006,8 +4496,8 @@
       <c r="E96" t="s">
         <v>124</v>
       </c>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
+      <c r="F96" s="46"/>
+      <c r="G96" s="46"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
@@ -3022,17 +4512,17 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="29" t="s">
+      <c r="A100" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="29"/>
-      <c r="H100" s="29"/>
-      <c r="I100" s="29"/>
+      <c r="B100" s="44"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="44"/>
+      <c r="E100" s="44"/>
+      <c r="F100" s="44"/>
+      <c r="G100" s="44"/>
+      <c r="H100" s="44"/>
+      <c r="I100" s="44"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
@@ -3100,8 +4590,3520 @@
     <mergeCell ref="A54:I54"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G32" r:id="rId1" display="https://www.coilcraft.com/en-us/products/power/shielded-inductors/high-current-flat-wire/agp-ver/agm2222/?skuId=30439" xr:uid="{65A06BCB-7F4F-4354-B81C-D2D05E16C3B9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D3A2CA-5251-4135-8185-F29704CC83A6}">
+  <dimension ref="A1:AP106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O22" sqref="O1:O1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="16" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.5546875" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="14">
+        <v>960</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="14">
+        <v>230</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="14">
+        <v>630</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="14">
+        <f>B4/B3</f>
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="14">
+        <f>100*10^3</f>
+        <v>100000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="14">
+        <v>100000</v>
+      </c>
+      <c r="L9">
+        <v>110000</v>
+      </c>
+      <c r="M9" s="14">
+        <v>120000</v>
+      </c>
+      <c r="N9">
+        <v>130000</v>
+      </c>
+      <c r="O9" s="14">
+        <v>140000</v>
+      </c>
+      <c r="P9">
+        <v>150000</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>160000</v>
+      </c>
+      <c r="R9">
+        <v>170000</v>
+      </c>
+      <c r="S9" s="14">
+        <v>180000</v>
+      </c>
+      <c r="T9">
+        <v>190000</v>
+      </c>
+      <c r="U9" s="14">
+        <v>200000</v>
+      </c>
+      <c r="V9" s="14">
+        <v>210000</v>
+      </c>
+      <c r="W9">
+        <v>220000</v>
+      </c>
+      <c r="X9" s="14">
+        <v>230000</v>
+      </c>
+      <c r="Y9">
+        <v>240000</v>
+      </c>
+      <c r="Z9" s="14">
+        <v>250000</v>
+      </c>
+      <c r="AA9">
+        <v>260000</v>
+      </c>
+      <c r="AB9" s="14">
+        <v>270000</v>
+      </c>
+      <c r="AC9">
+        <v>280000</v>
+      </c>
+      <c r="AD9" s="14">
+        <v>290000</v>
+      </c>
+      <c r="AE9">
+        <v>300000</v>
+      </c>
+      <c r="AF9" s="14">
+        <v>310000</v>
+      </c>
+      <c r="AG9">
+        <v>320000</v>
+      </c>
+      <c r="AH9" s="14">
+        <v>330000</v>
+      </c>
+      <c r="AI9">
+        <v>340000</v>
+      </c>
+      <c r="AJ9" s="14">
+        <v>350000</v>
+      </c>
+      <c r="AK9" s="36">
+        <v>360000</v>
+      </c>
+      <c r="AL9" s="14">
+        <v>370000</v>
+      </c>
+      <c r="AM9">
+        <v>380000</v>
+      </c>
+      <c r="AN9" s="14">
+        <v>390000</v>
+      </c>
+      <c r="AO9">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="14">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="14">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B12" s="20"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A13" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="15">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6">
+        <f>(B5/B3)*B14</f>
+        <v>5.75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11">
+        <f>(B5/B3)*D14</f>
+        <v>6.708333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16">
+        <f>I21</f>
+        <v>10.989010989010989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="7">
+        <f>I21/I23</f>
+        <v>5.4945054945054945</v>
+      </c>
+      <c r="C19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="19">
+        <f>1/B19</f>
+        <v>0.182</v>
+      </c>
+      <c r="E19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="14">
+        <f>I22</f>
+        <v>3900</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="14">
+        <f>1/0.083</f>
+        <v>12.048192771084336</v>
+      </c>
+      <c r="G21" s="14">
+        <f>1/0.182</f>
+        <v>5.4945054945054945</v>
+      </c>
+      <c r="H21" s="14">
+        <f>1/0.363</f>
+        <v>2.7548209366391188</v>
+      </c>
+      <c r="I21" s="14">
+        <f>1/0.091</f>
+        <v>10.989010989010989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="7">
+        <f>B21/(B18^2)</f>
+        <v>32.295899999999996</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="14">
+        <v>3100</v>
+      </c>
+      <c r="G22" s="14">
+        <v>2600</v>
+      </c>
+      <c r="H22" s="14">
+        <v>2600</v>
+      </c>
+      <c r="I22" s="14">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="14">
+        <v>2</v>
+      </c>
+      <c r="G23" s="14">
+        <v>1</v>
+      </c>
+      <c r="H23" s="14">
+        <v>1</v>
+      </c>
+      <c r="I23" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="14">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="7">
+        <f>1-(B24/B21)</f>
+        <v>0.99923076923076926</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A27" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="6">
+        <f>B7*0.2</f>
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="6">
+        <f>B28*2</f>
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="29">
+        <f>(1-((1/$B$5)*$B$19*$B$3))*1/$B$29*$B$3*1/B9</f>
+        <v>6.3999044433827044E-6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="23">
+        <f>B30*10^6</f>
+        <v>6.3999044433827041</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="32">
+        <f>((1-((1/$B$5)*$B$19*$B$3))*1/$B$29*$B$3*1/K9)*10^6</f>
+        <v>6.3999044433827041</v>
+      </c>
+      <c r="L30" s="32">
+        <f t="shared" ref="L30:U30" si="0">((1-((1/$B$5)*$B$19*$B$3))*1/$B$29*$B$3*1/L9)*10^6</f>
+        <v>5.8180949485297315</v>
+      </c>
+      <c r="M30" s="32">
+        <f t="shared" si="0"/>
+        <v>5.3332537028189204</v>
+      </c>
+      <c r="N30" s="32">
+        <f t="shared" si="0"/>
+        <v>4.9230034179866964</v>
+      </c>
+      <c r="O30" s="32">
+        <f t="shared" si="0"/>
+        <v>4.5713603167019317</v>
+      </c>
+      <c r="P30" s="32">
+        <f t="shared" si="0"/>
+        <v>4.2666029622551367</v>
+      </c>
+      <c r="Q30" s="32">
+        <f t="shared" si="0"/>
+        <v>3.9999402771141903</v>
+      </c>
+      <c r="R30" s="32">
+        <f t="shared" si="0"/>
+        <v>3.7646496725780616</v>
+      </c>
+      <c r="S30" s="32">
+        <f t="shared" si="0"/>
+        <v>3.5555024685459471</v>
+      </c>
+      <c r="T30" s="32">
+        <f t="shared" si="0"/>
+        <v>3.3683707596751078</v>
+      </c>
+      <c r="U30" s="32">
+        <f t="shared" si="0"/>
+        <v>3.1999522216913521</v>
+      </c>
+      <c r="V30" s="32">
+        <f t="shared" ref="V30:AE30" si="1">((1-((1/$B$5)*$B$19*$B$3))*1/$B$29*$B$3*1/V9)*10^6</f>
+        <v>3.0475735444679546</v>
+      </c>
+      <c r="W30" s="32">
+        <f t="shared" si="1"/>
+        <v>2.9090474742648658</v>
+      </c>
+      <c r="X30" s="32">
+        <f t="shared" si="1"/>
+        <v>2.7825671492968285</v>
+      </c>
+      <c r="Y30" s="32">
+        <f t="shared" si="1"/>
+        <v>2.6666268514094602</v>
+      </c>
+      <c r="Z30" s="32">
+        <f t="shared" si="1"/>
+        <v>2.5599617773530818</v>
+      </c>
+      <c r="AA30" s="32">
+        <f t="shared" si="1"/>
+        <v>2.4615017089933482</v>
+      </c>
+      <c r="AB30" s="32">
+        <f t="shared" si="1"/>
+        <v>2.3703349790306314</v>
+      </c>
+      <c r="AC30" s="32">
+        <f t="shared" si="1"/>
+        <v>2.2856801583509658</v>
+      </c>
+      <c r="AD30" s="32">
+        <f t="shared" si="1"/>
+        <v>2.2068636011664502</v>
+      </c>
+      <c r="AE30" s="32">
+        <f t="shared" si="1"/>
+        <v>2.1333014811275683</v>
+      </c>
+      <c r="AF30" s="32">
+        <f t="shared" ref="AF30:AO30" si="2">((1-((1/$B$5)*$B$19*$B$3))*1/$B$29*$B$3*1/AF9)*10^6</f>
+        <v>2.0644853043170017</v>
+      </c>
+      <c r="AG30" s="32">
+        <f t="shared" si="2"/>
+        <v>1.9999701385570952</v>
+      </c>
+      <c r="AH30" s="32">
+        <f t="shared" si="2"/>
+        <v>1.939364982843244</v>
+      </c>
+      <c r="AI30" s="32">
+        <f t="shared" si="2"/>
+        <v>1.8823248362890308</v>
+      </c>
+      <c r="AJ30" s="32">
+        <f t="shared" si="2"/>
+        <v>1.8285441266807727</v>
+      </c>
+      <c r="AK30" s="37">
+        <f t="shared" si="2"/>
+        <v>1.7777512342729735</v>
+      </c>
+      <c r="AL30" s="32">
+        <f t="shared" si="2"/>
+        <v>1.7297039036169473</v>
+      </c>
+      <c r="AM30" s="32">
+        <f t="shared" si="2"/>
+        <v>1.6841853798375539</v>
+      </c>
+      <c r="AN30" s="32">
+        <f t="shared" si="2"/>
+        <v>1.6410011393288988</v>
+      </c>
+      <c r="AO30" s="32">
+        <f t="shared" si="2"/>
+        <v>1.599976110845676</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="29">
+        <f>(1-((1/$B$6)*$B$19*$B$3))*1/$B$29*$B$3*1/B9</f>
+        <v>1.1860282574568289E-5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="23">
+        <f>B31*10^6</f>
+        <v>11.86028257456829</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="32">
+        <f>((1-((1/$B$6)*$B$19*$B$3))*1/$B$29*$B$3*1/K9)*10^6</f>
+        <v>11.86028257456829</v>
+      </c>
+      <c r="L31" s="32">
+        <f t="shared" ref="L31:U31" si="3">((1-((1/$B$6)*$B$19*$B$3))*1/$B$29*$B$3*1/L9)*10^6</f>
+        <v>10.782075067789352</v>
+      </c>
+      <c r="M31" s="32">
+        <f t="shared" si="3"/>
+        <v>9.8835688121402399</v>
+      </c>
+      <c r="N31" s="32">
+        <f t="shared" si="3"/>
+        <v>9.1232942881294523</v>
+      </c>
+      <c r="O31" s="32">
+        <f t="shared" si="3"/>
+        <v>8.4716304104059201</v>
+      </c>
+      <c r="P31" s="32">
+        <f t="shared" si="3"/>
+        <v>7.9068550497121919</v>
+      </c>
+      <c r="Q31" s="32">
+        <f t="shared" si="3"/>
+        <v>7.4126766091051799</v>
+      </c>
+      <c r="R31" s="32">
+        <f t="shared" si="3"/>
+        <v>6.9766368085695811</v>
+      </c>
+      <c r="S31" s="32">
+        <f t="shared" si="3"/>
+        <v>6.5890458747601608</v>
+      </c>
+      <c r="T31" s="32">
+        <f t="shared" si="3"/>
+        <v>6.2422539866148883</v>
+      </c>
+      <c r="U31" s="32">
+        <f t="shared" si="3"/>
+        <v>5.9301412872841448</v>
+      </c>
+      <c r="V31" s="32">
+        <f t="shared" ref="V31:AE31" si="4">((1-((1/$B$6)*$B$19*$B$3))*1/$B$29*$B$3*1/V9)*10^6</f>
+        <v>5.6477536069372798</v>
+      </c>
+      <c r="W31" s="32">
+        <f t="shared" si="4"/>
+        <v>5.3910375338946759</v>
+      </c>
+      <c r="X31" s="32">
+        <f t="shared" si="4"/>
+        <v>5.1566445976383868</v>
+      </c>
+      <c r="Y31" s="32">
+        <f t="shared" si="4"/>
+        <v>4.9417844060701199</v>
+      </c>
+      <c r="Z31" s="32">
+        <f t="shared" si="4"/>
+        <v>4.7441130298273153</v>
+      </c>
+      <c r="AA31" s="32">
+        <f t="shared" si="4"/>
+        <v>4.5616471440647262</v>
+      </c>
+      <c r="AB31" s="32">
+        <f t="shared" si="4"/>
+        <v>4.3926972498401069</v>
+      </c>
+      <c r="AC31" s="32">
+        <f t="shared" si="4"/>
+        <v>4.2358152052029601</v>
+      </c>
+      <c r="AD31" s="32">
+        <f t="shared" si="4"/>
+        <v>4.0897526119200993</v>
+      </c>
+      <c r="AE31" s="32">
+        <f t="shared" si="4"/>
+        <v>3.9534275248560959</v>
+      </c>
+      <c r="AF31" s="32">
+        <f t="shared" ref="AF31:AO31" si="5">((1-((1/$B$6)*$B$19*$B$3))*1/$B$29*$B$3*1/AF9)*10^6</f>
+        <v>3.8258976046994477</v>
+      </c>
+      <c r="AG31" s="32">
+        <f t="shared" si="5"/>
+        <v>3.7063383045525899</v>
+      </c>
+      <c r="AH31" s="32">
+        <f t="shared" si="5"/>
+        <v>3.5940250225964512</v>
+      </c>
+      <c r="AI31" s="32">
+        <f t="shared" si="5"/>
+        <v>3.4883184042847906</v>
+      </c>
+      <c r="AJ31" s="32">
+        <f t="shared" si="5"/>
+        <v>3.3886521641623681</v>
+      </c>
+      <c r="AK31" s="37">
+        <f t="shared" si="5"/>
+        <v>3.2945229373800804</v>
+      </c>
+      <c r="AL31" s="32">
+        <f t="shared" si="5"/>
+        <v>3.2054817769103483</v>
+      </c>
+      <c r="AM31" s="32">
+        <f t="shared" si="5"/>
+        <v>3.1211269933074441</v>
+      </c>
+      <c r="AN31" s="32">
+        <f t="shared" si="5"/>
+        <v>3.0410980960431506</v>
+      </c>
+      <c r="AO31" s="32">
+        <f t="shared" si="5"/>
+        <v>2.9650706436420724</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="14">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="9">
+        <f>B3*B34</f>
+        <v>0.24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="29">
+        <f>$B$29/(8*B9*($D$34-$B$29*$B$35))</f>
+        <v>-6.7567567567567567E-6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="18">
+        <f>-B36*10^6</f>
+        <v>6.756756756756757</v>
+      </c>
+      <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
+        <v>67</v>
+      </c>
+      <c r="J36" t="s">
+        <v>66</v>
+      </c>
+      <c r="K36" s="32">
+        <f>($B$29/(8*K9*($D$34-$B$29*$B$35)))*10^6</f>
+        <v>-6.756756756756757</v>
+      </c>
+      <c r="L36" s="32">
+        <f t="shared" ref="L36:U36" si="6">($B$29/(8*L9*($D$34-$B$29*$B$35)))*10^6</f>
+        <v>-6.1425061425061429</v>
+      </c>
+      <c r="M36" s="32">
+        <f t="shared" si="6"/>
+        <v>-5.6306306306306304</v>
+      </c>
+      <c r="N36" s="32">
+        <f t="shared" si="6"/>
+        <v>-5.1975051975051976</v>
+      </c>
+      <c r="O36" s="32">
+        <f t="shared" si="6"/>
+        <v>-4.8262548262548268</v>
+      </c>
+      <c r="P36" s="32">
+        <f t="shared" si="6"/>
+        <v>-4.5045045045045047</v>
+      </c>
+      <c r="Q36" s="32">
+        <f t="shared" si="6"/>
+        <v>-4.2229729729729728</v>
+      </c>
+      <c r="R36" s="32">
+        <f t="shared" si="6"/>
+        <v>-3.9745627980922098</v>
+      </c>
+      <c r="S36" s="32">
+        <f t="shared" si="6"/>
+        <v>-3.7537537537537538</v>
+      </c>
+      <c r="T36" s="32">
+        <f t="shared" si="6"/>
+        <v>-3.5561877667140824</v>
+      </c>
+      <c r="U36" s="32">
+        <f t="shared" si="6"/>
+        <v>-3.3783783783783785</v>
+      </c>
+      <c r="V36" s="32">
+        <f t="shared" ref="V36:AE36" si="7">($B$29/(8*V9*($D$34-$B$29*$B$35)))*10^6</f>
+        <v>-3.2175032175032174</v>
+      </c>
+      <c r="W36" s="32">
+        <f t="shared" si="7"/>
+        <v>-3.0712530712530715</v>
+      </c>
+      <c r="X36" s="32">
+        <f t="shared" si="7"/>
+        <v>-2.9377203290246769</v>
+      </c>
+      <c r="Y36" s="32">
+        <f t="shared" si="7"/>
+        <v>-2.8153153153153152</v>
+      </c>
+      <c r="Z36" s="32">
+        <f t="shared" si="7"/>
+        <v>-2.7027027027027026</v>
+      </c>
+      <c r="AA36" s="32">
+        <f t="shared" si="7"/>
+        <v>-2.5987525987525988</v>
+      </c>
+      <c r="AB36" s="32">
+        <f t="shared" si="7"/>
+        <v>-2.5025025025025025</v>
+      </c>
+      <c r="AC36" s="32">
+        <f t="shared" si="7"/>
+        <v>-2.4131274131274134</v>
+      </c>
+      <c r="AD36" s="32">
+        <f t="shared" si="7"/>
+        <v>-2.3299161230195713</v>
+      </c>
+      <c r="AE36" s="32">
+        <f t="shared" si="7"/>
+        <v>-2.2522522522522523</v>
+      </c>
+      <c r="AF36" s="32">
+        <f t="shared" ref="AF36:AO36" si="8">($B$29/(8*AF9*($D$34-$B$29*$B$35)))*10^6</f>
+        <v>-2.1795989537925018</v>
+      </c>
+      <c r="AG36" s="32">
+        <f t="shared" si="8"/>
+        <v>-2.1114864864864864</v>
+      </c>
+      <c r="AH36" s="32">
+        <f t="shared" si="8"/>
+        <v>-2.0475020475020478</v>
+      </c>
+      <c r="AI36" s="32">
+        <f t="shared" si="8"/>
+        <v>-1.9872813990461049</v>
+      </c>
+      <c r="AJ36" s="32">
+        <f t="shared" si="8"/>
+        <v>-1.9305019305019306</v>
+      </c>
+      <c r="AK36" s="37">
+        <f t="shared" si="8"/>
+        <v>-1.8768768768768769</v>
+      </c>
+      <c r="AL36" s="32">
+        <f t="shared" si="8"/>
+        <v>-1.8261504747991233</v>
+      </c>
+      <c r="AM36" s="32">
+        <f t="shared" si="8"/>
+        <v>-1.7780938833570412</v>
+      </c>
+      <c r="AN36" s="32">
+        <f t="shared" si="8"/>
+        <v>-1.7325017325017324</v>
+      </c>
+      <c r="AO36" s="32">
+        <f t="shared" si="8"/>
+        <v>-1.6891891891891893</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="12">
+        <f>(B19*96*10^-3)/(0.5*B29*B7*1.3)</f>
+        <v>1.2679628064243447E-3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="11">
+        <f>B38*10^3</f>
+        <v>1.2679628064243447</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="14">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="6">
+        <f>B40*10^6</f>
+        <v>1000000</v>
+      </c>
+      <c r="E40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="10">
+        <f>(D40*((1/((B5/1.25)-1))+1))/(B6/1.25)</f>
+        <v>1994.9692080839623</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="10">
+        <f>B41*((B6/1.25)-1)-D40</f>
+        <v>3469.5116662330693</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="6">
+        <f>(B5/D40)/((1/(B41+B42))+(1/D40))</f>
+        <v>1.2500000000000209</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="11">
+        <f>(B6/D40)/((1/(B41+B42))+(1/D40))</f>
+        <v>3.423913043478318</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="31">
+        <f>($D$14/(0.725*((B9/1000)/300)*(1.25/$B$43)))*51.1*10^3</f>
+        <v>148013.79310345076</v>
+      </c>
+      <c r="C44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="31">
+        <f>B44*10^-3</f>
+        <v>148.01379310345078</v>
+      </c>
+      <c r="E44" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="J44" t="s">
+        <v>51</v>
+      </c>
+      <c r="K44" s="31">
+        <f>($D$14/(0.725*((K9/1000)/300)*(1.25/$B$43)))*51.1</f>
+        <v>148.01379310345075</v>
+      </c>
+      <c r="L44" s="31">
+        <f t="shared" ref="L44:U44" si="9">($D$14/(0.725*((L9/1000)/300)*(1.25/$B$43)))*51.1</f>
+        <v>134.55799373040978</v>
+      </c>
+      <c r="M44" s="31">
+        <f t="shared" si="9"/>
+        <v>123.34482758620896</v>
+      </c>
+      <c r="N44" s="31">
+        <f t="shared" si="9"/>
+        <v>113.85676392573133</v>
+      </c>
+      <c r="O44" s="31">
+        <f t="shared" si="9"/>
+        <v>105.72413793103624</v>
+      </c>
+      <c r="P44" s="31">
+        <f t="shared" si="9"/>
+        <v>98.675862068967163</v>
+      </c>
+      <c r="Q44" s="31">
+        <f t="shared" si="9"/>
+        <v>92.508620689656709</v>
+      </c>
+      <c r="R44" s="31">
+        <f t="shared" si="9"/>
+        <v>87.066937119676908</v>
+      </c>
+      <c r="S44" s="31">
+        <f t="shared" si="9"/>
+        <v>82.229885057472643</v>
+      </c>
+      <c r="T44" s="31">
+        <f t="shared" si="9"/>
+        <v>77.901996370237242</v>
+      </c>
+      <c r="U44" s="31">
+        <f t="shared" si="9"/>
+        <v>74.006896551725376</v>
+      </c>
+      <c r="V44" s="31">
+        <f t="shared" ref="V44:AE44" si="10">($D$14/(0.725*((V9/1000)/300)*(1.25/$B$43)))*51.1</f>
+        <v>70.482758620690831</v>
+      </c>
+      <c r="W44" s="31">
+        <f t="shared" si="10"/>
+        <v>67.278996865204888</v>
+      </c>
+      <c r="X44" s="31">
+        <f t="shared" si="10"/>
+        <v>64.353823088456835</v>
+      </c>
+      <c r="Y44" s="31">
+        <f t="shared" si="10"/>
+        <v>61.672413793104482</v>
+      </c>
+      <c r="Z44" s="31">
+        <f t="shared" si="10"/>
+        <v>59.205517241380306</v>
+      </c>
+      <c r="AA44" s="31">
+        <f t="shared" si="10"/>
+        <v>56.928381962865664</v>
+      </c>
+      <c r="AB44" s="31">
+        <f t="shared" si="10"/>
+        <v>54.819923371648429</v>
+      </c>
+      <c r="AC44" s="31">
+        <f t="shared" si="10"/>
+        <v>52.86206896551812</v>
+      </c>
+      <c r="AD44" s="31">
+        <f t="shared" si="10"/>
+        <v>51.039239001189912</v>
+      </c>
+      <c r="AE44" s="31">
+        <f t="shared" si="10"/>
+        <v>49.337931034483582</v>
+      </c>
+      <c r="AF44" s="31">
+        <f t="shared" ref="AF44:AO44" si="11">($D$14/(0.725*((AF9/1000)/300)*(1.25/$B$43)))*51.1</f>
+        <v>47.746384872080874</v>
+      </c>
+      <c r="AG44" s="31">
+        <f t="shared" si="11"/>
+        <v>46.254310344828355</v>
+      </c>
+      <c r="AH44" s="31">
+        <f t="shared" si="11"/>
+        <v>44.852664576803257</v>
+      </c>
+      <c r="AI44" s="31">
+        <f t="shared" si="11"/>
+        <v>43.533468559838454</v>
+      </c>
+      <c r="AJ44" s="31">
+        <f t="shared" si="11"/>
+        <v>42.289655172414498</v>
+      </c>
+      <c r="AK44" s="38">
+        <f t="shared" si="11"/>
+        <v>41.114942528736321</v>
+      </c>
+      <c r="AL44" s="31">
+        <f t="shared" si="11"/>
+        <v>40.003727865797501</v>
+      </c>
+      <c r="AM44" s="31">
+        <f t="shared" si="11"/>
+        <v>38.950998185118621</v>
+      </c>
+      <c r="AN44" s="31">
+        <f t="shared" si="11"/>
+        <v>37.952254641910443</v>
+      </c>
+      <c r="AO44" s="31">
+        <f t="shared" si="11"/>
+        <v>37.003448275862688</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A45" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="11">
+        <f>(B3/B6)*B19</f>
+        <v>0.20931449502878077</v>
+      </c>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+    </row>
+    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="29">
+        <f>(10*(1-$B$46)^2)/($B$21*(2*PI()*(B9/1000))^2)</f>
+        <v>4.0605345564331669E-9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="32">
+        <f>B47*10^9</f>
+        <v>4.0605345564331667</v>
+      </c>
+      <c r="E47" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="26"/>
+      <c r="H47" s="20"/>
+      <c r="J47" t="s">
+        <v>54</v>
+      </c>
+      <c r="K47" s="32">
+        <f>((10*(1-$B$46)^2)/($B$21*(2*PI()*(K9/1000))^2))*10^9</f>
+        <v>4.0605345564331667</v>
+      </c>
+      <c r="L47" s="32">
+        <f t="shared" ref="L47:U47" si="12">((10*(1-$B$46)^2)/($B$21*(2*PI()*(L9/1000))^2))*10^9</f>
+        <v>3.3558136830026171</v>
+      </c>
+      <c r="M47" s="32">
+        <f t="shared" si="12"/>
+        <v>2.8198156641896999</v>
+      </c>
+      <c r="N47" s="32">
+        <f t="shared" si="12"/>
+        <v>2.4026831694870809</v>
+      </c>
+      <c r="O47" s="32">
+        <f t="shared" si="12"/>
+        <v>2.0717013043026364</v>
+      </c>
+      <c r="P47" s="32">
+        <f t="shared" si="12"/>
+        <v>1.8046820250814077</v>
+      </c>
+      <c r="Q47" s="32">
+        <f t="shared" si="12"/>
+        <v>1.5861463111067056</v>
+      </c>
+      <c r="R47" s="32">
+        <f t="shared" si="12"/>
+        <v>1.4050292582813726</v>
+      </c>
+      <c r="S47" s="32">
+        <f t="shared" si="12"/>
+        <v>1.2532514063065332</v>
+      </c>
+      <c r="T47" s="32">
+        <f t="shared" si="12"/>
+        <v>1.124801816186473</v>
+      </c>
+      <c r="U47" s="32">
+        <f t="shared" si="12"/>
+        <v>1.0151336391082917</v>
+      </c>
+      <c r="V47" s="32">
+        <f t="shared" ref="V47:AE47" si="13">((10*(1-$B$46)^2)/($B$21*(2*PI()*(V9/1000))^2))*10^9</f>
+        <v>0.92075613524561595</v>
+      </c>
+      <c r="W47" s="32">
+        <f t="shared" si="13"/>
+        <v>0.83895342075065427</v>
+      </c>
+      <c r="X47" s="32">
+        <f t="shared" si="13"/>
+        <v>0.76758687267167602</v>
+      </c>
+      <c r="Y47" s="32">
+        <f t="shared" si="13"/>
+        <v>0.70495391604742497</v>
+      </c>
+      <c r="Z47" s="32">
+        <f t="shared" si="13"/>
+        <v>0.64968552902930687</v>
+      </c>
+      <c r="AA47" s="32">
+        <f t="shared" si="13"/>
+        <v>0.60067079237177023</v>
+      </c>
+      <c r="AB47" s="32">
+        <f t="shared" si="13"/>
+        <v>0.55700062502512582</v>
+      </c>
+      <c r="AC47" s="32">
+        <f t="shared" si="13"/>
+        <v>0.51792532607565911</v>
+      </c>
+      <c r="AD47" s="32">
+        <f t="shared" si="13"/>
+        <v>0.48282218269122085</v>
+      </c>
+      <c r="AE47" s="32">
+        <f t="shared" si="13"/>
+        <v>0.45117050627035193</v>
+      </c>
+      <c r="AF47" s="32">
+        <f t="shared" ref="AF47:AO47" si="14">((10*(1-$B$46)^2)/($B$21*(2*PI()*(AF9/1000))^2))*10^9</f>
+        <v>0.42253221190771773</v>
+      </c>
+      <c r="AG47" s="32">
+        <f t="shared" si="14"/>
+        <v>0.39653657777667639</v>
+      </c>
+      <c r="AH47" s="32">
+        <f t="shared" si="14"/>
+        <v>0.37286818700029095</v>
+      </c>
+      <c r="AI47" s="32">
+        <f t="shared" si="14"/>
+        <v>0.35125731457034315</v>
+      </c>
+      <c r="AJ47" s="32">
+        <f t="shared" si="14"/>
+        <v>0.33147220868842187</v>
+      </c>
+      <c r="AK47" s="37">
+        <f t="shared" si="14"/>
+        <v>0.3133128515766333</v>
+      </c>
+      <c r="AL47" s="32">
+        <f t="shared" si="14"/>
+        <v>0.29660588432674712</v>
+      </c>
+      <c r="AM47" s="32">
+        <f t="shared" si="14"/>
+        <v>0.28120045404661825</v>
+      </c>
+      <c r="AN47" s="32">
+        <f t="shared" si="14"/>
+        <v>0.26696479660967565</v>
+      </c>
+      <c r="AO47" s="32">
+        <f t="shared" si="14"/>
+        <v>0.25378340977707292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="29">
+        <f>6*B47</f>
+        <v>2.4363207338599E-8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="32">
+        <f>B48*10^9</f>
+        <v>24.363207338599</v>
+      </c>
+      <c r="E48" t="s">
+        <v>54</v>
+      </c>
+      <c r="J48" t="s">
+        <v>54</v>
+      </c>
+      <c r="K48" s="32">
+        <f>6*K47</f>
+        <v>24.363207338599</v>
+      </c>
+      <c r="L48" s="32">
+        <f t="shared" ref="L48:U48" si="15">6*L47</f>
+        <v>20.134882098015702</v>
+      </c>
+      <c r="M48" s="32">
+        <f t="shared" si="15"/>
+        <v>16.918893985138197</v>
+      </c>
+      <c r="N48" s="32">
+        <f t="shared" si="15"/>
+        <v>14.416099016922486</v>
+      </c>
+      <c r="O48" s="32">
+        <f t="shared" si="15"/>
+        <v>12.430207825815819</v>
+      </c>
+      <c r="P48" s="32">
+        <f t="shared" si="15"/>
+        <v>10.828092150488446</v>
+      </c>
+      <c r="Q48" s="32">
+        <f t="shared" si="15"/>
+        <v>9.5168778666402325</v>
+      </c>
+      <c r="R48" s="32">
+        <f t="shared" si="15"/>
+        <v>8.4301755496882365</v>
+      </c>
+      <c r="S48" s="32">
+        <f t="shared" si="15"/>
+        <v>7.5195084378391996</v>
+      </c>
+      <c r="T48" s="32">
+        <f t="shared" si="15"/>
+        <v>6.7488108971188385</v>
+      </c>
+      <c r="U48" s="32">
+        <f t="shared" si="15"/>
+        <v>6.0908018346497501</v>
+      </c>
+      <c r="V48" s="32">
+        <f t="shared" ref="V48" si="16">6*V47</f>
+        <v>5.5245368114736957</v>
+      </c>
+      <c r="W48" s="32">
+        <f t="shared" ref="W48" si="17">6*W47</f>
+        <v>5.0337205245039254</v>
+      </c>
+      <c r="X48" s="32">
+        <f t="shared" ref="X48" si="18">6*X47</f>
+        <v>4.6055212360300564</v>
+      </c>
+      <c r="Y48" s="32">
+        <f t="shared" ref="Y48" si="19">6*Y47</f>
+        <v>4.2297234962845494</v>
+      </c>
+      <c r="Z48" s="32">
+        <f t="shared" ref="Z48" si="20">6*Z47</f>
+        <v>3.8981131741758412</v>
+      </c>
+      <c r="AA48" s="32">
+        <f t="shared" ref="AA48" si="21">6*AA47</f>
+        <v>3.6040247542306214</v>
+      </c>
+      <c r="AB48" s="32">
+        <f t="shared" ref="AB48" si="22">6*AB47</f>
+        <v>3.3420037501507549</v>
+      </c>
+      <c r="AC48" s="32">
+        <f t="shared" ref="AC48" si="23">6*AC47</f>
+        <v>3.1075519564539547</v>
+      </c>
+      <c r="AD48" s="32">
+        <f t="shared" ref="AD48" si="24">6*AD47</f>
+        <v>2.896933096147325</v>
+      </c>
+      <c r="AE48" s="32">
+        <f t="shared" ref="AE48" si="25">6*AE47</f>
+        <v>2.7070230376221116</v>
+      </c>
+      <c r="AF48" s="32">
+        <f t="shared" ref="AF48" si="26">6*AF47</f>
+        <v>2.5351932714463064</v>
+      </c>
+      <c r="AG48" s="32">
+        <f t="shared" ref="AG48" si="27">6*AG47</f>
+        <v>2.3792194666600581</v>
+      </c>
+      <c r="AH48" s="32">
+        <f t="shared" ref="AH48" si="28">6*AH47</f>
+        <v>2.2372091220017456</v>
+      </c>
+      <c r="AI48" s="32">
+        <f t="shared" ref="AI48" si="29">6*AI47</f>
+        <v>2.1075438874220591</v>
+      </c>
+      <c r="AJ48" s="32">
+        <f t="shared" ref="AJ48" si="30">6*AJ47</f>
+        <v>1.9888332521305312</v>
+      </c>
+      <c r="AK48" s="37">
+        <f t="shared" ref="AK48" si="31">6*AK47</f>
+        <v>1.8798771094597999</v>
+      </c>
+      <c r="AL48" s="32">
+        <f t="shared" ref="AL48" si="32">6*AL47</f>
+        <v>1.7796353059604826</v>
+      </c>
+      <c r="AM48" s="32">
+        <f t="shared" ref="AM48" si="33">6*AM47</f>
+        <v>1.6872027242797096</v>
+      </c>
+      <c r="AN48" s="32">
+        <f t="shared" ref="AN48" si="34">6*AN47</f>
+        <v>1.6017887796580539</v>
+      </c>
+      <c r="AO48" s="32">
+        <f t="shared" ref="AO48" si="35">6*AO47</f>
+        <v>1.5227004586624375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="11">
+        <f>(B3/B5)*B19</f>
+        <v>0.5733397037744864</v>
+      </c>
+    </row>
+    <row r="50" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="31">
+        <f>(1/(1-$B$49))*SQRT($B$21*10^-6/B47)</f>
+        <v>2296.9866312323384</v>
+      </c>
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+      <c r="J50" t="s">
+        <v>155</v>
+      </c>
+      <c r="K50" s="31">
+        <f>(1/(1-$B$49))*SQRT($B$21*10^-6/(K47*10^-9))</f>
+        <v>2296.9866312323384</v>
+      </c>
+      <c r="L50" s="31">
+        <f t="shared" ref="L50:U50" si="36">(1/(1-$B$49))*SQRT($B$21*10^-6/(L47*10^-9))</f>
+        <v>2526.6852943555723</v>
+      </c>
+      <c r="M50" s="31">
+        <f t="shared" si="36"/>
+        <v>2756.3839574788058</v>
+      </c>
+      <c r="N50" s="31">
+        <f t="shared" si="36"/>
+        <v>2986.0826206020397</v>
+      </c>
+      <c r="O50" s="31">
+        <f t="shared" si="36"/>
+        <v>3215.7812837252732</v>
+      </c>
+      <c r="P50" s="31">
+        <f t="shared" si="36"/>
+        <v>3445.4799468485071</v>
+      </c>
+      <c r="Q50" s="31">
+        <f t="shared" si="36"/>
+        <v>3675.178609971741</v>
+      </c>
+      <c r="R50" s="31">
+        <f t="shared" si="36"/>
+        <v>3904.877273094975</v>
+      </c>
+      <c r="S50" s="31">
+        <f t="shared" si="36"/>
+        <v>4134.575936218208</v>
+      </c>
+      <c r="T50" s="31">
+        <f t="shared" si="36"/>
+        <v>4364.2745993414419</v>
+      </c>
+      <c r="U50" s="31">
+        <f t="shared" si="36"/>
+        <v>4593.9732624646767</v>
+      </c>
+      <c r="V50" s="31">
+        <f t="shared" ref="V50:AE50" si="37">(1/(1-$B$49))*SQRT($B$21*10^-6/(V47*10^-9))</f>
+        <v>4823.6719255879107</v>
+      </c>
+      <c r="W50" s="31">
+        <f t="shared" si="37"/>
+        <v>5053.3705887111446</v>
+      </c>
+      <c r="X50" s="31">
+        <f t="shared" si="37"/>
+        <v>5283.0692518343785</v>
+      </c>
+      <c r="Y50" s="31">
+        <f t="shared" si="37"/>
+        <v>5512.7679149576115</v>
+      </c>
+      <c r="Z50" s="31">
+        <f t="shared" si="37"/>
+        <v>5742.4665780808436</v>
+      </c>
+      <c r="AA50" s="31">
+        <f t="shared" si="37"/>
+        <v>5972.1652412040794</v>
+      </c>
+      <c r="AB50" s="31">
+        <f t="shared" si="37"/>
+        <v>6201.8639043273133</v>
+      </c>
+      <c r="AC50" s="31">
+        <f t="shared" si="37"/>
+        <v>6431.5625674505463</v>
+      </c>
+      <c r="AD50" s="31">
+        <f t="shared" si="37"/>
+        <v>6661.2612305737803</v>
+      </c>
+      <c r="AE50" s="31">
+        <f t="shared" si="37"/>
+        <v>6890.9598936970142</v>
+      </c>
+      <c r="AF50" s="31">
+        <f t="shared" ref="AF50:AO50" si="38">(1/(1-$B$49))*SQRT($B$21*10^-6/(AF47*10^-9))</f>
+        <v>7120.6585568202472</v>
+      </c>
+      <c r="AG50" s="31">
+        <f t="shared" si="38"/>
+        <v>7350.3572199434821</v>
+      </c>
+      <c r="AH50" s="31">
+        <f t="shared" si="38"/>
+        <v>7580.0558830667142</v>
+      </c>
+      <c r="AI50" s="31">
+        <f t="shared" si="38"/>
+        <v>7809.7545461899499</v>
+      </c>
+      <c r="AJ50" s="31">
+        <f t="shared" si="38"/>
+        <v>8039.4532093131829</v>
+      </c>
+      <c r="AK50" s="38">
+        <f t="shared" si="38"/>
+        <v>8269.1518724364159</v>
+      </c>
+      <c r="AL50" s="31">
+        <f t="shared" si="38"/>
+        <v>8498.8505355596499</v>
+      </c>
+      <c r="AM50" s="31">
+        <f t="shared" si="38"/>
+        <v>8728.5491986828838</v>
+      </c>
+      <c r="AN50" s="31">
+        <f t="shared" si="38"/>
+        <v>8958.2478618061177</v>
+      </c>
+      <c r="AO50" s="31">
+        <f t="shared" si="38"/>
+        <v>9187.9465249293535</v>
+      </c>
+    </row>
+    <row r="52" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="19">
+        <f>(1.2/(B9/$B$10))*22.1*10^6</f>
+        <v>530.40000000000009</v>
+      </c>
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+      <c r="J52" s="20"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="42"/>
+      <c r="V52" s="42"/>
+      <c r="W52" s="42"/>
+      <c r="X52" s="42"/>
+      <c r="Y52" s="42"/>
+      <c r="Z52" s="42"/>
+      <c r="AA52" s="42"/>
+      <c r="AB52" s="42"/>
+      <c r="AC52" s="42"/>
+      <c r="AD52" s="42"/>
+      <c r="AE52" s="42"/>
+      <c r="AF52" s="42"/>
+      <c r="AG52" s="42"/>
+      <c r="AH52" s="42"/>
+      <c r="AI52" s="42"/>
+      <c r="AJ52" s="42"/>
+      <c r="AK52" s="42"/>
+      <c r="AL52" s="42"/>
+      <c r="AM52" s="42"/>
+      <c r="AN52" s="42"/>
+      <c r="AO52" s="42"/>
+      <c r="AP52" s="20"/>
+    </row>
+    <row r="54" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A54" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+    </row>
+    <row r="55" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="6">
+        <f>B6*(1/B19)*2</f>
+        <v>229.32</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="25">
+        <f>D58*10^-3</f>
+        <v>4.0999999999999995E-3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="7">
+        <f>B56*B58</f>
+        <v>1.8449999999999998E-2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="6">
+        <f>B59*10^3</f>
+        <v>18.45</v>
+      </c>
+      <c r="E59" t="s">
+        <v>75</v>
+      </c>
+      <c r="F59" t="s">
+        <v>83</v>
+      </c>
+      <c r="G59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" s="6">
+        <f>D59*1.2</f>
+        <v>22.139999999999997</v>
+      </c>
+      <c r="C60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="G61" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+    </row>
+    <row r="62" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="14">
+        <v>2000</v>
+      </c>
+      <c r="C62" t="s">
+        <v>79</v>
+      </c>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+    </row>
+    <row r="63" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="14">
+        <v>300</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
+    </row>
+    <row r="64" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="11">
+        <f>B58*SQRT(2*B62*10^-3*((1.3*B63-B3)/(1.3*B63*B32*10^-6)))</f>
+        <v>1.0255255063149642</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ref="D64" si="39">B64*10^3</f>
+        <v>1025.5255063149641</v>
+      </c>
+      <c r="E64" t="s">
+        <v>75</v>
+      </c>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+    </row>
+    <row r="65" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="11">
+        <f>B64/B58</f>
+        <v>250.12817227194253</v>
+      </c>
+      <c r="C65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65">
+        <v>60</v>
+      </c>
+      <c r="E65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="14">
+        <v>1000</v>
+      </c>
+      <c r="C67" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="12">
+        <f>((B67*40*10^-6)+66*10^-3)/D65</f>
+        <v>1.7666666666666668E-3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" s="11">
+        <f>B68*10^3</f>
+        <v>1.7666666666666668</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="G68" t="s">
+        <v>90</v>
+      </c>
+      <c r="H68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="D69" s="27"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+    </row>
+    <row r="70" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="23">
+        <f>SQRT((1-B46)*(B7^2+(B29^2/12)))</f>
+        <v>35.804535542209408</v>
+      </c>
+      <c r="C70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="27"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+    </row>
+    <row r="71" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" s="28">
+        <f>D71*10^-9</f>
+        <v>3.4500000000000003E-7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>125</v>
+      </c>
+      <c r="D71" s="24">
+        <v>345</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F71" s="20"/>
+    </row>
+    <row r="72" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="33">
+        <f>($B$70^2*$B$58)+($B$11*B9*$B$71)</f>
+        <v>5.6010555381126794</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="27"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="J72" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" s="33">
+        <f>($B$70^2*$B$58)+($B$11*K9*$B$71)</f>
+        <v>5.6010555381126794</v>
+      </c>
+      <c r="L72" s="33">
+        <f t="shared" ref="L72:U72" si="40">($B$70^2*$B$58)+($B$11*L9*$B$71)</f>
+        <v>5.6355555381126798</v>
+      </c>
+      <c r="M72" s="33">
+        <f t="shared" si="40"/>
+        <v>5.6700555381126794</v>
+      </c>
+      <c r="N72" s="33">
+        <f t="shared" si="40"/>
+        <v>5.7045555381126798</v>
+      </c>
+      <c r="O72" s="33">
+        <f t="shared" si="40"/>
+        <v>5.7390555381126793</v>
+      </c>
+      <c r="P72" s="33">
+        <f t="shared" si="40"/>
+        <v>5.7735555381126797</v>
+      </c>
+      <c r="Q72" s="33">
+        <f t="shared" si="40"/>
+        <v>5.8080555381126793</v>
+      </c>
+      <c r="R72" s="33">
+        <f t="shared" si="40"/>
+        <v>5.8425555381126797</v>
+      </c>
+      <c r="S72" s="33">
+        <f t="shared" si="40"/>
+        <v>5.8770555381126801</v>
+      </c>
+      <c r="T72" s="33">
+        <f t="shared" si="40"/>
+        <v>5.9115555381126796</v>
+      </c>
+      <c r="U72" s="33">
+        <f t="shared" si="40"/>
+        <v>5.9460555381126801</v>
+      </c>
+      <c r="V72" s="33">
+        <f t="shared" ref="V72:AE72" si="41">($B$70^2*$B$58)+($B$11*V9*$B$71)</f>
+        <v>5.9805555381126796</v>
+      </c>
+      <c r="W72" s="33">
+        <f t="shared" si="41"/>
+        <v>6.01505553811268</v>
+      </c>
+      <c r="X72" s="33">
+        <f t="shared" si="41"/>
+        <v>6.0495555381126795</v>
+      </c>
+      <c r="Y72" s="33">
+        <f t="shared" si="41"/>
+        <v>6.08405553811268</v>
+      </c>
+      <c r="Z72" s="33">
+        <f t="shared" si="41"/>
+        <v>6.1185555381126795</v>
+      </c>
+      <c r="AA72" s="33">
+        <f t="shared" si="41"/>
+        <v>6.1530555381126799</v>
+      </c>
+      <c r="AB72" s="33">
+        <f t="shared" si="41"/>
+        <v>6.1875555381126794</v>
+      </c>
+      <c r="AC72" s="33">
+        <f t="shared" si="41"/>
+        <v>6.2220555381126799</v>
+      </c>
+      <c r="AD72" s="33">
+        <f t="shared" si="41"/>
+        <v>6.2565555381126803</v>
+      </c>
+      <c r="AE72" s="33">
+        <f t="shared" si="41"/>
+        <v>6.2910555381126798</v>
+      </c>
+      <c r="AF72" s="33">
+        <f t="shared" ref="AF72:AO72" si="42">($B$70^2*$B$58)+($B$11*AF9*$B$71)</f>
+        <v>6.3255555381126793</v>
+      </c>
+      <c r="AG72" s="33">
+        <f t="shared" si="42"/>
+        <v>6.3600555381126798</v>
+      </c>
+      <c r="AH72" s="33">
+        <f t="shared" si="42"/>
+        <v>6.3945555381126802</v>
+      </c>
+      <c r="AI72" s="33">
+        <f t="shared" si="42"/>
+        <v>6.4290555381126797</v>
+      </c>
+      <c r="AJ72" s="33">
+        <f t="shared" si="42"/>
+        <v>6.4635555381126792</v>
+      </c>
+      <c r="AK72" s="39">
+        <f t="shared" si="42"/>
+        <v>6.4980555381126797</v>
+      </c>
+      <c r="AL72" s="33">
+        <f t="shared" si="42"/>
+        <v>6.5325555381126801</v>
+      </c>
+      <c r="AM72" s="33">
+        <f t="shared" si="42"/>
+        <v>6.5670555381126796</v>
+      </c>
+      <c r="AN72" s="33">
+        <f t="shared" si="42"/>
+        <v>6.60155553811268</v>
+      </c>
+      <c r="AO72" s="33">
+        <f t="shared" si="42"/>
+        <v>6.6360555381126796</v>
+      </c>
+    </row>
+    <row r="74" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A74" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+    </row>
+    <row r="75" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>114</v>
+      </c>
+      <c r="B75" s="30">
+        <f>0.5*$B$19*($B$3/($B$21*10^-6))*(1/B9)*2</f>
+        <v>0.33812341504649202</v>
+      </c>
+      <c r="C75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="G75" s="46"/>
+      <c r="J75" t="s">
+        <v>23</v>
+      </c>
+      <c r="K75" s="30">
+        <f>0.5*$B$19*($B$3/($B$21*10^-6))*(1/K9)*2</f>
+        <v>0.33812341504649202</v>
+      </c>
+      <c r="L75" s="30">
+        <f t="shared" ref="L75:U75" si="43">0.5*$B$19*($B$3/($B$21*10^-6))*(1/L9)*2</f>
+        <v>0.30738492276953822</v>
+      </c>
+      <c r="M75" s="30">
+        <f t="shared" si="43"/>
+        <v>0.28176951253874333</v>
+      </c>
+      <c r="N75" s="30">
+        <f t="shared" si="43"/>
+        <v>0.26009493465114769</v>
+      </c>
+      <c r="O75" s="30">
+        <f t="shared" si="43"/>
+        <v>0.24151672503320856</v>
+      </c>
+      <c r="P75" s="30">
+        <f t="shared" si="43"/>
+        <v>0.22541561003099467</v>
+      </c>
+      <c r="Q75" s="30">
+        <f t="shared" si="43"/>
+        <v>0.21132713440405751</v>
+      </c>
+      <c r="R75" s="30">
+        <f t="shared" si="43"/>
+        <v>0.19889612649793648</v>
+      </c>
+      <c r="S75" s="30">
+        <f t="shared" si="43"/>
+        <v>0.18784634169249556</v>
+      </c>
+      <c r="T75" s="30">
+        <f t="shared" si="43"/>
+        <v>0.17795969212973264</v>
+      </c>
+      <c r="U75" s="30">
+        <f t="shared" si="43"/>
+        <v>0.16906170752324601</v>
+      </c>
+      <c r="V75" s="30">
+        <f t="shared" ref="V75:AE75" si="44">0.5*$B$19*($B$3/($B$21*10^-6))*(1/V9)*2</f>
+        <v>0.16101115002213903</v>
+      </c>
+      <c r="W75" s="30">
+        <f t="shared" si="44"/>
+        <v>0.15369246138476911</v>
+      </c>
+      <c r="X75" s="30">
+        <f t="shared" si="44"/>
+        <v>0.1470101804549965</v>
+      </c>
+      <c r="Y75" s="30">
+        <f t="shared" si="44"/>
+        <v>0.14088475626937166</v>
+      </c>
+      <c r="Z75" s="30">
+        <f t="shared" si="44"/>
+        <v>0.1352493660185968</v>
+      </c>
+      <c r="AA75" s="30">
+        <f t="shared" si="44"/>
+        <v>0.13004746732557385</v>
+      </c>
+      <c r="AB75" s="30">
+        <f t="shared" si="44"/>
+        <v>0.12523089446166372</v>
+      </c>
+      <c r="AC75" s="30">
+        <f t="shared" si="44"/>
+        <v>0.12075836251660428</v>
+      </c>
+      <c r="AD75" s="30">
+        <f t="shared" si="44"/>
+        <v>0.11659428105051448</v>
+      </c>
+      <c r="AE75" s="30">
+        <f t="shared" si="44"/>
+        <v>0.11270780501549733</v>
+      </c>
+      <c r="AF75" s="30">
+        <f t="shared" ref="AF75:AO75" si="45">0.5*$B$19*($B$3/($B$21*10^-6))*(1/AF9)*2</f>
+        <v>0.10907206936983613</v>
+      </c>
+      <c r="AG75" s="30">
+        <f t="shared" si="45"/>
+        <v>0.10566356720202875</v>
+      </c>
+      <c r="AH75" s="30">
+        <f t="shared" si="45"/>
+        <v>0.1024616409231794</v>
+      </c>
+      <c r="AI75" s="30">
+        <f t="shared" si="45"/>
+        <v>9.9448063248968238E-2</v>
+      </c>
+      <c r="AJ75" s="30">
+        <f t="shared" si="45"/>
+        <v>9.6606690013283439E-2</v>
+      </c>
+      <c r="AK75" s="40">
+        <f t="shared" si="45"/>
+        <v>9.392317084624778E-2</v>
+      </c>
+      <c r="AL75" s="30">
+        <f t="shared" si="45"/>
+        <v>9.1384706769322158E-2</v>
+      </c>
+      <c r="AM75" s="30">
+        <f t="shared" si="45"/>
+        <v>8.8979846064866322E-2</v>
+      </c>
+      <c r="AN75" s="30">
+        <f t="shared" si="45"/>
+        <v>8.6698311550382559E-2</v>
+      </c>
+      <c r="AO75" s="30">
+        <f t="shared" si="45"/>
+        <v>8.4530853761623004E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" s="23">
+        <f>B79</f>
+        <v>956.13236267372599</v>
+      </c>
+      <c r="D76" t="s">
+        <v>117</v>
+      </c>
+      <c r="F76" s="46"/>
+      <c r="G76" s="46"/>
+    </row>
+    <row r="77" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" s="23">
+        <f>(1/B19)*(B7+(B29/2))</f>
+        <v>8.7360000000000007</v>
+      </c>
+      <c r="C77" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+    </row>
+    <row r="78" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A78" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78" s="44"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="44"/>
+    </row>
+    <row r="79" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="4">
+        <f>((B6^2)/(B6-(B3*B19)))*1.2</f>
+        <v>956.13236267372599</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>119</v>
+      </c>
+      <c r="B80" s="4">
+        <f>SQRT(B85/B81)</f>
+        <v>5.5123576586177476</v>
+      </c>
+      <c r="C80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>74</v>
+      </c>
+      <c r="B81">
+        <v>0.2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>42</v>
+      </c>
+      <c r="F81" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="G81" s="46"/>
+    </row>
+    <row r="82" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" s="1">
+        <f>D82*10^-9</f>
+        <v>3.0000000000000004E-8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>125</v>
+      </c>
+      <c r="D82" s="14">
+        <v>30</v>
+      </c>
+      <c r="E82" t="s">
+        <v>124</v>
+      </c>
+      <c r="F82" s="46"/>
+      <c r="G82" s="46"/>
+    </row>
+    <row r="83" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>128</v>
+      </c>
+      <c r="B83" s="1">
+        <f>D83*10^-9</f>
+        <v>6.0000000000000008E-9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>125</v>
+      </c>
+      <c r="D83">
+        <v>6</v>
+      </c>
+      <c r="E83" t="s">
+        <v>124</v>
+      </c>
+      <c r="F83" s="46"/>
+      <c r="G83" s="46"/>
+    </row>
+    <row r="85" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85" s="4">
+        <f>B19*(B3/B5)*((1/B19)*B7)^2*B81</f>
+        <v>6.0772173913043472</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>121</v>
+      </c>
+      <c r="B86" s="29">
+        <f>$B$82*$B$11*B9</f>
+        <v>3.0000000000000002E-2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>20</v>
+      </c>
+      <c r="K86" s="34">
+        <f>$B$82*$B$11*K9</f>
+        <v>3.0000000000000002E-2</v>
+      </c>
+      <c r="L86" s="34">
+        <f t="shared" ref="L86:U86" si="46">$B$82*$B$11*L9</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="M86" s="34">
+        <f t="shared" si="46"/>
+        <v>3.6000000000000004E-2</v>
+      </c>
+      <c r="N86" s="34">
+        <f t="shared" si="46"/>
+        <v>3.9000000000000007E-2</v>
+      </c>
+      <c r="O86" s="34">
+        <f t="shared" si="46"/>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="P86" s="34">
+        <f t="shared" si="46"/>
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="Q86" s="34">
+        <f t="shared" si="46"/>
+        <v>4.8000000000000008E-2</v>
+      </c>
+      <c r="R86" s="34">
+        <f t="shared" si="46"/>
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="S86" s="34">
+        <f t="shared" si="46"/>
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="T86" s="34">
+        <f t="shared" si="46"/>
+        <v>5.7000000000000009E-2</v>
+      </c>
+      <c r="U86" s="34">
+        <f t="shared" si="46"/>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="V86" s="34">
+        <f t="shared" ref="V86:AE86" si="47">$B$82*$B$11*V9</f>
+        <v>6.3000000000000014E-2</v>
+      </c>
+      <c r="W86" s="34">
+        <f t="shared" si="47"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="X86" s="34">
+        <f t="shared" si="47"/>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="Y86" s="34">
+        <f t="shared" si="47"/>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="Z86" s="34">
+        <f t="shared" si="47"/>
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="AA86" s="34">
+        <f t="shared" si="47"/>
+        <v>7.8000000000000014E-2</v>
+      </c>
+      <c r="AB86" s="34">
+        <f t="shared" si="47"/>
+        <v>8.1000000000000016E-2</v>
+      </c>
+      <c r="AC86" s="34">
+        <f t="shared" si="47"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AD86" s="34">
+        <f t="shared" si="47"/>
+        <v>8.7000000000000008E-2</v>
+      </c>
+      <c r="AE86" s="34">
+        <f t="shared" si="47"/>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="AF86" s="34">
+        <f t="shared" ref="AF86:AO86" si="48">$B$82*$B$11*AF9</f>
+        <v>9.3000000000000013E-2</v>
+      </c>
+      <c r="AG86" s="34">
+        <f t="shared" si="48"/>
+        <v>9.6000000000000016E-2</v>
+      </c>
+      <c r="AH86" s="34">
+        <f t="shared" si="48"/>
+        <v>9.9000000000000019E-2</v>
+      </c>
+      <c r="AI86" s="34">
+        <f t="shared" si="48"/>
+        <v>0.10200000000000001</v>
+      </c>
+      <c r="AJ86" s="34">
+        <f t="shared" si="48"/>
+        <v>0.10500000000000001</v>
+      </c>
+      <c r="AK86" s="41">
+        <f t="shared" si="48"/>
+        <v>0.10800000000000001</v>
+      </c>
+      <c r="AL86" s="34">
+        <f t="shared" si="48"/>
+        <v>0.11100000000000002</v>
+      </c>
+      <c r="AM86" s="34">
+        <f t="shared" si="48"/>
+        <v>0.11400000000000002</v>
+      </c>
+      <c r="AN86" s="34">
+        <f t="shared" si="48"/>
+        <v>0.11700000000000002</v>
+      </c>
+      <c r="AO86" s="34">
+        <f t="shared" si="48"/>
+        <v>0.12000000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>126</v>
+      </c>
+      <c r="B87" s="30">
+        <f>0.5*$B$7*$D$19*($B$6/(1-$B$49))*($B$83/2)*B9</f>
+        <v>1.6124303247480403</v>
+      </c>
+      <c r="C87" t="s">
+        <v>20</v>
+      </c>
+      <c r="K87" s="30">
+        <f>0.5*$B$7*$D$19*($B$6/(1-$B$49))*($B$83/2)*K9</f>
+        <v>1.6124303247480403</v>
+      </c>
+      <c r="L87" s="30">
+        <f t="shared" ref="L87:U87" si="49">0.5*$B$7*$D$19*($B$6/(1-$B$49))*($B$83/2)*L9</f>
+        <v>1.7736733572228445</v>
+      </c>
+      <c r="M87" s="30">
+        <f t="shared" si="49"/>
+        <v>1.9349163896976485</v>
+      </c>
+      <c r="N87" s="30">
+        <f t="shared" si="49"/>
+        <v>2.0961594221724527</v>
+      </c>
+      <c r="O87" s="30">
+        <f t="shared" si="49"/>
+        <v>2.2574024546472566</v>
+      </c>
+      <c r="P87" s="30">
+        <f t="shared" si="49"/>
+        <v>2.4186454871220606</v>
+      </c>
+      <c r="Q87" s="30">
+        <f t="shared" si="49"/>
+        <v>2.5798885195968646</v>
+      </c>
+      <c r="R87" s="30">
+        <f t="shared" si="49"/>
+        <v>2.7411315520716686</v>
+      </c>
+      <c r="S87" s="30">
+        <f t="shared" si="49"/>
+        <v>2.9023745845464726</v>
+      </c>
+      <c r="T87" s="30">
+        <f t="shared" si="49"/>
+        <v>3.0636176170212766</v>
+      </c>
+      <c r="U87" s="30">
+        <f t="shared" si="49"/>
+        <v>3.2248606494960805</v>
+      </c>
+      <c r="V87" s="30">
+        <f t="shared" ref="V87:AE87" si="50">0.5*$B$7*$D$19*($B$6/(1-$B$49))*($B$83/2)*V9</f>
+        <v>3.386103681970885</v>
+      </c>
+      <c r="W87" s="30">
+        <f t="shared" si="50"/>
+        <v>3.5473467144456889</v>
+      </c>
+      <c r="X87" s="30">
+        <f t="shared" si="50"/>
+        <v>3.7085897469204929</v>
+      </c>
+      <c r="Y87" s="30">
+        <f t="shared" si="50"/>
+        <v>3.8698327793952969</v>
+      </c>
+      <c r="Z87" s="30">
+        <f t="shared" si="50"/>
+        <v>4.0310758118701013</v>
+      </c>
+      <c r="AA87" s="30">
+        <f t="shared" si="50"/>
+        <v>4.1923188443449053</v>
+      </c>
+      <c r="AB87" s="30">
+        <f t="shared" si="50"/>
+        <v>4.3535618768197093</v>
+      </c>
+      <c r="AC87" s="30">
+        <f t="shared" si="50"/>
+        <v>4.5148049092945133</v>
+      </c>
+      <c r="AD87" s="30">
+        <f t="shared" si="50"/>
+        <v>4.6760479417693173</v>
+      </c>
+      <c r="AE87" s="30">
+        <f t="shared" si="50"/>
+        <v>4.8372909742441212</v>
+      </c>
+      <c r="AF87" s="30">
+        <f t="shared" ref="AF87:AO87" si="51">0.5*$B$7*$D$19*($B$6/(1-$B$49))*($B$83/2)*AF9</f>
+        <v>4.9985340067189252</v>
+      </c>
+      <c r="AG87" s="30">
+        <f t="shared" si="51"/>
+        <v>5.1597770391937292</v>
+      </c>
+      <c r="AH87" s="30">
+        <f t="shared" si="51"/>
+        <v>5.3210200716685332</v>
+      </c>
+      <c r="AI87" s="30">
+        <f t="shared" si="51"/>
+        <v>5.4822631041433372</v>
+      </c>
+      <c r="AJ87" s="30">
+        <f t="shared" si="51"/>
+        <v>5.6435061366181412</v>
+      </c>
+      <c r="AK87" s="40">
+        <f t="shared" si="51"/>
+        <v>5.8047491690929451</v>
+      </c>
+      <c r="AL87" s="30">
+        <f t="shared" si="51"/>
+        <v>5.9659922015677491</v>
+      </c>
+      <c r="AM87" s="30">
+        <f t="shared" si="51"/>
+        <v>6.1272352340425531</v>
+      </c>
+      <c r="AN87" s="30">
+        <f t="shared" si="51"/>
+        <v>6.2884782665173571</v>
+      </c>
+      <c r="AO87" s="30">
+        <f t="shared" si="51"/>
+        <v>6.4497212989921611</v>
+      </c>
+    </row>
+    <row r="88" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>127</v>
+      </c>
+      <c r="B88" s="30">
+        <f>0.5*$B$7*$D$19*$B$6*($B$83/2)*B9</f>
+        <v>0.68796000000000002</v>
+      </c>
+      <c r="C88" t="s">
+        <v>20</v>
+      </c>
+      <c r="K88" s="30">
+        <f>0.5*$B$7*$D$19*$B$6*($B$83/2)*K9</f>
+        <v>0.68796000000000002</v>
+      </c>
+      <c r="L88" s="30">
+        <f t="shared" ref="L88:U88" si="52">0.5*$B$7*$D$19*$B$6*($B$83/2)*L9</f>
+        <v>0.75675599999999998</v>
+      </c>
+      <c r="M88" s="30">
+        <f t="shared" si="52"/>
+        <v>0.82555200000000006</v>
+      </c>
+      <c r="N88" s="30">
+        <f t="shared" si="52"/>
+        <v>0.89434800000000003</v>
+      </c>
+      <c r="O88" s="30">
+        <f t="shared" si="52"/>
+        <v>0.963144</v>
+      </c>
+      <c r="P88" s="30">
+        <f t="shared" si="52"/>
+        <v>1.0319400000000001</v>
+      </c>
+      <c r="Q88" s="30">
+        <f t="shared" si="52"/>
+        <v>1.1007359999999999</v>
+      </c>
+      <c r="R88" s="30">
+        <f t="shared" si="52"/>
+        <v>1.169532</v>
+      </c>
+      <c r="S88" s="30">
+        <f t="shared" si="52"/>
+        <v>1.2383280000000001</v>
+      </c>
+      <c r="T88" s="30">
+        <f t="shared" si="52"/>
+        <v>1.307124</v>
+      </c>
+      <c r="U88" s="30">
+        <f t="shared" si="52"/>
+        <v>1.37592</v>
+      </c>
+      <c r="V88" s="30">
+        <f t="shared" ref="V88:AE88" si="53">0.5*$B$7*$D$19*$B$6*($B$83/2)*V9</f>
+        <v>1.4447160000000001</v>
+      </c>
+      <c r="W88" s="30">
+        <f t="shared" si="53"/>
+        <v>1.513512</v>
+      </c>
+      <c r="X88" s="30">
+        <f t="shared" si="53"/>
+        <v>1.582308</v>
+      </c>
+      <c r="Y88" s="30">
+        <f t="shared" si="53"/>
+        <v>1.6511040000000001</v>
+      </c>
+      <c r="Z88" s="30">
+        <f t="shared" si="53"/>
+        <v>1.7199</v>
+      </c>
+      <c r="AA88" s="30">
+        <f t="shared" si="53"/>
+        <v>1.7886960000000001</v>
+      </c>
+      <c r="AB88" s="30">
+        <f t="shared" si="53"/>
+        <v>1.8574920000000001</v>
+      </c>
+      <c r="AC88" s="30">
+        <f t="shared" si="53"/>
+        <v>1.926288</v>
+      </c>
+      <c r="AD88" s="30">
+        <f t="shared" si="53"/>
+        <v>1.9950840000000001</v>
+      </c>
+      <c r="AE88" s="30">
+        <f t="shared" si="53"/>
+        <v>2.0638800000000002</v>
+      </c>
+      <c r="AF88" s="30">
+        <f t="shared" ref="AF88:AO88" si="54">0.5*$B$7*$D$19*$B$6*($B$83/2)*AF9</f>
+        <v>2.132676</v>
+      </c>
+      <c r="AG88" s="30">
+        <f t="shared" si="54"/>
+        <v>2.2014719999999999</v>
+      </c>
+      <c r="AH88" s="30">
+        <f t="shared" si="54"/>
+        <v>2.2702680000000002</v>
+      </c>
+      <c r="AI88" s="30">
+        <f t="shared" si="54"/>
+        <v>2.339064</v>
+      </c>
+      <c r="AJ88" s="30">
+        <f t="shared" si="54"/>
+        <v>2.4078599999999999</v>
+      </c>
+      <c r="AK88" s="40">
+        <f t="shared" si="54"/>
+        <v>2.4766560000000002</v>
+      </c>
+      <c r="AL88" s="30">
+        <f t="shared" si="54"/>
+        <v>2.545452</v>
+      </c>
+      <c r="AM88" s="30">
+        <f t="shared" si="54"/>
+        <v>2.6142479999999999</v>
+      </c>
+      <c r="AN88" s="30">
+        <f t="shared" si="54"/>
+        <v>2.6830440000000002</v>
+      </c>
+      <c r="AO88" s="30">
+        <f t="shared" si="54"/>
+        <v>2.7518400000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>129</v>
+      </c>
+      <c r="B89" s="30">
+        <f>$B$85+B86+B87+B88</f>
+        <v>8.4076077160523877</v>
+      </c>
+      <c r="C89" t="s">
+        <v>20</v>
+      </c>
+      <c r="K89" s="30">
+        <f>$B$85+K86+K87+K88</f>
+        <v>8.4076077160523877</v>
+      </c>
+      <c r="L89" s="30">
+        <f t="shared" ref="L89:U89" si="55">$B$85+L86+L87+L88</f>
+        <v>8.6406467485271925</v>
+      </c>
+      <c r="M89" s="30">
+        <f t="shared" si="55"/>
+        <v>8.8736857810019956</v>
+      </c>
+      <c r="N89" s="30">
+        <f t="shared" si="55"/>
+        <v>9.1067248134768004</v>
+      </c>
+      <c r="O89" s="30">
+        <f t="shared" si="55"/>
+        <v>9.3397638459516035</v>
+      </c>
+      <c r="P89" s="30">
+        <f t="shared" si="55"/>
+        <v>9.5728028784264083</v>
+      </c>
+      <c r="Q89" s="30">
+        <f t="shared" si="55"/>
+        <v>9.8058419109012114</v>
+      </c>
+      <c r="R89" s="30">
+        <f t="shared" si="55"/>
+        <v>10.038880943376016</v>
+      </c>
+      <c r="S89" s="30">
+        <f t="shared" si="55"/>
+        <v>10.271919975850821</v>
+      </c>
+      <c r="T89" s="30">
+        <f t="shared" si="55"/>
+        <v>10.504959008325624</v>
+      </c>
+      <c r="U89" s="30">
+        <f t="shared" si="55"/>
+        <v>10.737998040800427</v>
+      </c>
+      <c r="V89" s="30">
+        <f t="shared" ref="V89" si="56">$B$85+V86+V87+V88</f>
+        <v>10.971037073275232</v>
+      </c>
+      <c r="W89" s="30">
+        <f t="shared" ref="W89" si="57">$B$85+W86+W87+W88</f>
+        <v>11.204076105750037</v>
+      </c>
+      <c r="X89" s="30">
+        <f t="shared" ref="X89" si="58">$B$85+X86+X87+X88</f>
+        <v>11.43711513822484</v>
+      </c>
+      <c r="Y89" s="30">
+        <f t="shared" ref="Y89" si="59">$B$85+Y86+Y87+Y88</f>
+        <v>11.670154170699645</v>
+      </c>
+      <c r="Z89" s="30">
+        <f t="shared" ref="Z89" si="60">$B$85+Z86+Z87+Z88</f>
+        <v>11.90319320317445</v>
+      </c>
+      <c r="AA89" s="30">
+        <f t="shared" ref="AA89" si="61">$B$85+AA86+AA87+AA88</f>
+        <v>12.136232235649253</v>
+      </c>
+      <c r="AB89" s="30">
+        <f t="shared" ref="AB89" si="62">$B$85+AB86+AB87+AB88</f>
+        <v>12.369271268124058</v>
+      </c>
+      <c r="AC89" s="30">
+        <f t="shared" ref="AC89" si="63">$B$85+AC86+AC87+AC88</f>
+        <v>12.602310300598859</v>
+      </c>
+      <c r="AD89" s="30">
+        <f t="shared" ref="AD89" si="64">$B$85+AD86+AD87+AD88</f>
+        <v>12.835349333073664</v>
+      </c>
+      <c r="AE89" s="30">
+        <f t="shared" ref="AE89" si="65">$B$85+AE86+AE87+AE88</f>
+        <v>13.068388365548468</v>
+      </c>
+      <c r="AF89" s="30">
+        <f t="shared" ref="AF89" si="66">$B$85+AF86+AF87+AF88</f>
+        <v>13.301427398023272</v>
+      </c>
+      <c r="AG89" s="30">
+        <f t="shared" ref="AG89" si="67">$B$85+AG86+AG87+AG88</f>
+        <v>13.534466430498075</v>
+      </c>
+      <c r="AH89" s="30">
+        <f t="shared" ref="AH89" si="68">$B$85+AH86+AH87+AH88</f>
+        <v>13.767505462972879</v>
+      </c>
+      <c r="AI89" s="30">
+        <f t="shared" ref="AI89" si="69">$B$85+AI86+AI87+AI88</f>
+        <v>14.000544495447684</v>
+      </c>
+      <c r="AJ89" s="30">
+        <f t="shared" ref="AJ89" si="70">$B$85+AJ86+AJ87+AJ88</f>
+        <v>14.233583527922487</v>
+      </c>
+      <c r="AK89" s="40">
+        <f t="shared" ref="AK89" si="71">$B$85+AK86+AK87+AK88</f>
+        <v>14.466622560397292</v>
+      </c>
+      <c r="AL89" s="30">
+        <f t="shared" ref="AL89" si="72">$B$85+AL86+AL87+AL88</f>
+        <v>14.699661592872097</v>
+      </c>
+      <c r="AM89" s="30">
+        <f t="shared" ref="AM89" si="73">$B$85+AM86+AM87+AM88</f>
+        <v>14.9327006253469</v>
+      </c>
+      <c r="AN89" s="30">
+        <f t="shared" ref="AN89" si="74">$B$85+AN86+AN87+AN88</f>
+        <v>15.165739657821705</v>
+      </c>
+      <c r="AO89" s="30">
+        <f t="shared" ref="AO89" si="75">$B$85+AO86+AO87+AO88</f>
+        <v>15.398778690296508</v>
+      </c>
+    </row>
+    <row r="90" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A90" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="B90" s="44"/>
+      <c r="C90" s="44"/>
+      <c r="D90" s="44"/>
+      <c r="E90" s="44"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="44"/>
+      <c r="I90" s="44"/>
+    </row>
+    <row r="91" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>135</v>
+      </c>
+      <c r="B91" s="4">
+        <f>(B3/(1-(B3/(B5*D19))))*1.2</f>
+        <v>67.501007838745792</v>
+      </c>
+      <c r="C91" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>135</v>
+      </c>
+      <c r="B92" s="30">
+        <f>($B$3/(B9*2*SQRT($B$21*10^-6*B47)))</f>
+        <v>30.154861431004125</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" t="s">
+        <v>136</v>
+      </c>
+      <c r="J92" t="s">
+        <v>10</v>
+      </c>
+      <c r="K92" s="30">
+        <f>($B$3/(K9*2*SQRT($B$21*10^-6*(K47*10^-9))))</f>
+        <v>30.154861431004125</v>
+      </c>
+      <c r="L92" s="30">
+        <f t="shared" ref="L92:U92" si="76">($B$3/(L9*2*SQRT($B$21*10^-6*(L47*10^-9))))</f>
+        <v>30.154861431004129</v>
+      </c>
+      <c r="M92" s="30">
+        <f t="shared" si="76"/>
+        <v>30.154861431004125</v>
+      </c>
+      <c r="N92" s="30">
+        <f t="shared" si="76"/>
+        <v>30.154861431004125</v>
+      </c>
+      <c r="O92" s="30">
+        <f t="shared" si="76"/>
+        <v>30.154861431004125</v>
+      </c>
+      <c r="P92" s="30">
+        <f t="shared" si="76"/>
+        <v>30.154861431004125</v>
+      </c>
+      <c r="Q92" s="30">
+        <f t="shared" si="76"/>
+        <v>30.154861431004129</v>
+      </c>
+      <c r="R92" s="30">
+        <f t="shared" si="76"/>
+        <v>30.154861431004125</v>
+      </c>
+      <c r="S92" s="30">
+        <f t="shared" si="76"/>
+        <v>30.154861431004125</v>
+      </c>
+      <c r="T92" s="30">
+        <f t="shared" si="76"/>
+        <v>30.154861431004122</v>
+      </c>
+      <c r="U92" s="30">
+        <f t="shared" si="76"/>
+        <v>30.154861431004125</v>
+      </c>
+      <c r="V92" s="30">
+        <f t="shared" ref="V92:AE92" si="77">($B$3/(V9*2*SQRT($B$21*10^-6*(V47*10^-9))))</f>
+        <v>30.154861431004129</v>
+      </c>
+      <c r="W92" s="30">
+        <f t="shared" si="77"/>
+        <v>30.154861431004129</v>
+      </c>
+      <c r="X92" s="30">
+        <f t="shared" si="77"/>
+        <v>30.154861431004129</v>
+      </c>
+      <c r="Y92" s="30">
+        <f t="shared" si="77"/>
+        <v>30.154861431004125</v>
+      </c>
+      <c r="Z92" s="30">
+        <f t="shared" si="77"/>
+        <v>30.154861431004122</v>
+      </c>
+      <c r="AA92" s="30">
+        <f t="shared" si="77"/>
+        <v>30.154861431004125</v>
+      </c>
+      <c r="AB92" s="30">
+        <f t="shared" si="77"/>
+        <v>30.154861431004125</v>
+      </c>
+      <c r="AC92" s="30">
+        <f t="shared" si="77"/>
+        <v>30.154861431004125</v>
+      </c>
+      <c r="AD92" s="30">
+        <f t="shared" si="77"/>
+        <v>30.154861431004125</v>
+      </c>
+      <c r="AE92" s="30">
+        <f t="shared" si="77"/>
+        <v>30.154861431004125</v>
+      </c>
+      <c r="AF92" s="30">
+        <f t="shared" ref="AF92:AO92" si="78">($B$3/(AF9*2*SQRT($B$21*10^-6*(AF47*10^-9))))</f>
+        <v>30.154861431004125</v>
+      </c>
+      <c r="AG92" s="30">
+        <f t="shared" si="78"/>
+        <v>30.154861431004129</v>
+      </c>
+      <c r="AH92" s="30">
+        <f t="shared" si="78"/>
+        <v>30.154861431004122</v>
+      </c>
+      <c r="AI92" s="30">
+        <f t="shared" si="78"/>
+        <v>30.154861431004125</v>
+      </c>
+      <c r="AJ92" s="30">
+        <f t="shared" si="78"/>
+        <v>30.154861431004125</v>
+      </c>
+      <c r="AK92" s="40">
+        <f t="shared" si="78"/>
+        <v>30.154861431004125</v>
+      </c>
+      <c r="AL92" s="30">
+        <f t="shared" si="78"/>
+        <v>30.154861431004122</v>
+      </c>
+      <c r="AM92" s="30">
+        <f t="shared" si="78"/>
+        <v>30.154861431004122</v>
+      </c>
+      <c r="AN92" s="30">
+        <f t="shared" si="78"/>
+        <v>30.154861431004125</v>
+      </c>
+      <c r="AO92" s="30">
+        <f t="shared" si="78"/>
+        <v>30.154861431004125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>138</v>
+      </c>
+      <c r="B93">
+        <f>SQRT(B49*(B7^2+(B29^2/12)))</f>
+        <v>30.488928696381478</v>
+      </c>
+      <c r="C93" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="F94" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G94" s="46"/>
+    </row>
+    <row r="95" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>74</v>
+      </c>
+      <c r="B95" s="21">
+        <f>D95*10^-3</f>
+        <v>1.9E-3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>42</v>
+      </c>
+      <c r="D95">
+        <v>1.9</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" s="46"/>
+      <c r="G95" s="46"/>
+    </row>
+    <row r="96" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>122</v>
+      </c>
+      <c r="B96" s="1">
+        <f>D96*10^-9</f>
+        <v>1.24E-7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>125</v>
+      </c>
+      <c r="D96">
+        <v>124</v>
+      </c>
+      <c r="E96" t="s">
+        <v>124</v>
+      </c>
+      <c r="F96" s="46"/>
+      <c r="G96" s="46"/>
+    </row>
+    <row r="98" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>139</v>
+      </c>
+      <c r="B98" s="30">
+        <f>($B$93^2*$B$95)+($B$11*$B$96*B9)</f>
+        <v>1.8901920688007645</v>
+      </c>
+      <c r="C98" t="s">
+        <v>20</v>
+      </c>
+      <c r="J98" t="s">
+        <v>20</v>
+      </c>
+      <c r="K98" s="30">
+        <f>($B$93^2*$B$95)+($B$11*$B$96*K9)</f>
+        <v>1.8901920688007645</v>
+      </c>
+      <c r="L98" s="30">
+        <f t="shared" ref="L98:U98" si="79">($B$93^2*$B$95)+($B$11*$B$96*L9)</f>
+        <v>1.9025920688007645</v>
+      </c>
+      <c r="M98" s="30">
+        <f t="shared" si="79"/>
+        <v>1.9149920688007644</v>
+      </c>
+      <c r="N98" s="30">
+        <f t="shared" si="79"/>
+        <v>1.9273920688007644</v>
+      </c>
+      <c r="O98" s="30">
+        <f t="shared" si="79"/>
+        <v>1.9397920688007644</v>
+      </c>
+      <c r="P98" s="30">
+        <f t="shared" si="79"/>
+        <v>1.9521920688007643</v>
+      </c>
+      <c r="Q98" s="30">
+        <f t="shared" si="79"/>
+        <v>1.9645920688007643</v>
+      </c>
+      <c r="R98" s="30">
+        <f t="shared" si="79"/>
+        <v>1.9769920688007643</v>
+      </c>
+      <c r="S98" s="30">
+        <f t="shared" si="79"/>
+        <v>1.9893920688007645</v>
+      </c>
+      <c r="T98" s="30">
+        <f t="shared" si="79"/>
+        <v>2.0017920688007642</v>
+      </c>
+      <c r="U98" s="30">
+        <f t="shared" si="79"/>
+        <v>2.0141920688007646</v>
+      </c>
+      <c r="V98" s="30">
+        <f t="shared" ref="V98:AE98" si="80">($B$93^2*$B$95)+($B$11*$B$96*V9)</f>
+        <v>2.0265920688007646</v>
+      </c>
+      <c r="W98" s="30">
+        <f t="shared" si="80"/>
+        <v>2.0389920688007646</v>
+      </c>
+      <c r="X98" s="30">
+        <f t="shared" si="80"/>
+        <v>2.0513920688007645</v>
+      </c>
+      <c r="Y98" s="30">
+        <f t="shared" si="80"/>
+        <v>2.0637920688007645</v>
+      </c>
+      <c r="Z98" s="30">
+        <f t="shared" si="80"/>
+        <v>2.0761920688007645</v>
+      </c>
+      <c r="AA98" s="30">
+        <f t="shared" si="80"/>
+        <v>2.0885920688007644</v>
+      </c>
+      <c r="AB98" s="30">
+        <f t="shared" si="80"/>
+        <v>2.1009920688007644</v>
+      </c>
+      <c r="AC98" s="30">
+        <f t="shared" si="80"/>
+        <v>2.1133920688007644</v>
+      </c>
+      <c r="AD98" s="30">
+        <f t="shared" si="80"/>
+        <v>2.1257920688007643</v>
+      </c>
+      <c r="AE98" s="30">
+        <f t="shared" si="80"/>
+        <v>2.1381920688007643</v>
+      </c>
+      <c r="AF98" s="30">
+        <f t="shared" ref="AF98:AO98" si="81">($B$93^2*$B$95)+($B$11*$B$96*AF9)</f>
+        <v>2.1505920688007643</v>
+      </c>
+      <c r="AG98" s="30">
+        <f t="shared" si="81"/>
+        <v>2.1629920688007642</v>
+      </c>
+      <c r="AH98" s="30">
+        <f t="shared" si="81"/>
+        <v>2.1753920688007646</v>
+      </c>
+      <c r="AI98" s="30">
+        <f t="shared" si="81"/>
+        <v>2.1877920688007642</v>
+      </c>
+      <c r="AJ98" s="30">
+        <f t="shared" si="81"/>
+        <v>2.2001920688007646</v>
+      </c>
+      <c r="AK98" s="40">
+        <f t="shared" si="81"/>
+        <v>2.2125920688007645</v>
+      </c>
+      <c r="AL98" s="30">
+        <f t="shared" si="81"/>
+        <v>2.2249920688007645</v>
+      </c>
+      <c r="AM98" s="30">
+        <f t="shared" si="81"/>
+        <v>2.2373920688007645</v>
+      </c>
+      <c r="AN98" s="30">
+        <f t="shared" si="81"/>
+        <v>2.2497920688007644</v>
+      </c>
+      <c r="AO98" s="30">
+        <f t="shared" si="81"/>
+        <v>2.2621920688007644</v>
+      </c>
+    </row>
+    <row r="100" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A100" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="B100" s="44"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="44"/>
+      <c r="E100" s="44"/>
+      <c r="F100" s="44"/>
+      <c r="G100" s="44"/>
+      <c r="H100" s="44"/>
+      <c r="I100" s="44"/>
+    </row>
+    <row r="101" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>151</v>
+      </c>
+      <c r="B102" t="s">
+        <v>146</v>
+      </c>
+      <c r="C102" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>147</v>
+      </c>
+      <c r="B103">
+        <v>15</v>
+      </c>
+      <c r="C103">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>150</v>
+      </c>
+      <c r="B104" t="s">
+        <v>148</v>
+      </c>
+      <c r="C104" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>149</v>
+      </c>
+      <c r="B105">
+        <v>800</v>
+      </c>
+      <c r="C105">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="I106" t="s">
+        <v>154</v>
+      </c>
+      <c r="J106" t="s">
+        <v>20</v>
+      </c>
+      <c r="K106" s="35">
+        <f>K98+K89+K72</f>
+        <v>15.898855322965833</v>
+      </c>
+      <c r="L106" s="35">
+        <f t="shared" ref="L106:T106" si="82">L98+L89+L72</f>
+        <v>16.178794355440637</v>
+      </c>
+      <c r="M106" s="35">
+        <f t="shared" si="82"/>
+        <v>16.458733387915437</v>
+      </c>
+      <c r="N106" s="35">
+        <f t="shared" si="82"/>
+        <v>16.738672420390245</v>
+      </c>
+      <c r="O106" s="35">
+        <f t="shared" si="82"/>
+        <v>17.018611452865049</v>
+      </c>
+      <c r="P106" s="35">
+        <f t="shared" si="82"/>
+        <v>17.298550485339852</v>
+      </c>
+      <c r="Q106" s="35">
+        <f t="shared" si="82"/>
+        <v>17.578489517814653</v>
+      </c>
+      <c r="R106" s="35">
+        <f t="shared" si="82"/>
+        <v>17.85842855028946</v>
+      </c>
+      <c r="S106" s="35">
+        <f t="shared" si="82"/>
+        <v>18.138367582764268</v>
+      </c>
+      <c r="T106" s="35">
+        <f t="shared" si="82"/>
+        <v>18.418306615239068</v>
+      </c>
+      <c r="U106" s="35">
+        <f>U98+U89+U72</f>
+        <v>18.698245647713872</v>
+      </c>
+      <c r="V106" s="35">
+        <f t="shared" ref="V106:AE106" si="83">V98+V89+V72</f>
+        <v>18.978184680188676</v>
+      </c>
+      <c r="W106" s="35">
+        <f t="shared" si="83"/>
+        <v>19.258123712663483</v>
+      </c>
+      <c r="X106" s="35">
+        <f t="shared" si="83"/>
+        <v>19.538062745138284</v>
+      </c>
+      <c r="Y106" s="35">
+        <f t="shared" si="83"/>
+        <v>19.818001777613087</v>
+      </c>
+      <c r="Z106" s="35">
+        <f t="shared" si="83"/>
+        <v>20.097940810087895</v>
+      </c>
+      <c r="AA106" s="35">
+        <f t="shared" si="83"/>
+        <v>20.377879842562699</v>
+      </c>
+      <c r="AB106" s="35">
+        <f t="shared" si="83"/>
+        <v>20.657818875037499</v>
+      </c>
+      <c r="AC106" s="35">
+        <f t="shared" si="83"/>
+        <v>20.937757907512303</v>
+      </c>
+      <c r="AD106" s="35">
+        <f t="shared" si="83"/>
+        <v>21.217696939987107</v>
+      </c>
+      <c r="AE106" s="35">
+        <f t="shared" si="83"/>
+        <v>21.497635972461914</v>
+      </c>
+      <c r="AF106" s="35">
+        <f t="shared" ref="AF106:AO106" si="84">AF98+AF89+AF72</f>
+        <v>21.777575004936715</v>
+      </c>
+      <c r="AG106" s="35">
+        <f t="shared" si="84"/>
+        <v>22.057514037411519</v>
+      </c>
+      <c r="AH106" s="35">
+        <f t="shared" si="84"/>
+        <v>22.337453069886323</v>
+      </c>
+      <c r="AI106" s="35">
+        <f t="shared" si="84"/>
+        <v>22.61739210236113</v>
+      </c>
+      <c r="AJ106" s="35">
+        <f t="shared" si="84"/>
+        <v>22.89733113483593</v>
+      </c>
+      <c r="AK106" s="37">
+        <f t="shared" si="84"/>
+        <v>23.177270167310738</v>
+      </c>
+      <c r="AL106" s="35">
+        <f t="shared" si="84"/>
+        <v>23.457209199785545</v>
+      </c>
+      <c r="AM106" s="35">
+        <f t="shared" si="84"/>
+        <v>23.737148232260346</v>
+      </c>
+      <c r="AN106" s="35">
+        <f t="shared" si="84"/>
+        <v>24.017087264735149</v>
+      </c>
+      <c r="AO106" s="35">
+        <f t="shared" si="84"/>
+        <v>24.29702629720995</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="G61:I64"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A100:I100"/>
+    <mergeCell ref="A74:I74"/>
+    <mergeCell ref="F75:G77"/>
+    <mergeCell ref="A78:I78"/>
+    <mergeCell ref="F81:G83"/>
+    <mergeCell ref="A90:I90"/>
+    <mergeCell ref="F94:G96"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/DC_Converter_Calc.xlsx
+++ b/DC_Converter_Calc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BR\GIT\HV_DCDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DFC759-2B1E-4942-BAD1-72414FB0CBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C04A78E-BEF6-4E8A-B0AA-1C49B896F308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="26760" windowHeight="14520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="178">
   <si>
     <t>Eingangsparameter</t>
   </si>
@@ -506,6 +506,69 @@
   </si>
   <si>
     <t>AGM2222-562</t>
+  </si>
+  <si>
+    <t>t_amb</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>R_t_max</t>
+  </si>
+  <si>
+    <t>t_max_mos</t>
+  </si>
+  <si>
+    <t>K/W</t>
+  </si>
+  <si>
+    <t>R_thJC</t>
+  </si>
+  <si>
+    <t>R_thCS</t>
+  </si>
+  <si>
+    <t>A-sink</t>
+  </si>
+  <si>
+    <t>mm^2</t>
+  </si>
+  <si>
+    <t>R_thSC</t>
+  </si>
+  <si>
+    <t>R_thCA_max</t>
+  </si>
+  <si>
+    <t>Arctivc Silver 5</t>
+  </si>
+  <si>
+    <t>W/mm^2*K</t>
+  </si>
+  <si>
+    <t>W/K</t>
+  </si>
+  <si>
+    <t>WA-T264-101E</t>
+  </si>
+  <si>
+    <t>geschätzt</t>
+  </si>
+  <si>
+    <t>TO247-3</t>
+  </si>
+  <si>
+    <t>RA-T2X-38E</t>
+  </si>
+  <si>
+    <t>TO264-3</t>
+  </si>
+  <si>
+    <t>TO220-3</t>
+  </si>
+  <si>
+    <t>WA-T220-101E</t>
   </si>
 </sst>
 </file>
@@ -603,7 +666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -648,6 +711,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -656,6 +722,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1998,7 +2067,7 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2129,14 +2198,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>512444</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>91749</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>91750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2173,14 +2242,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>518161</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>170421</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>170422</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2217,13 +2286,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>487681</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>554903</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2261,13 +2330,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>82505</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>119029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>22531</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>172294</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2305,13 +2374,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>129210</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>610916</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>170806</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2349,13 +2418,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>343164</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>127437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>131708</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>548</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2393,14 +2462,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>445836</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>37931</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>249746</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>133087</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>133088</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2437,14 +2506,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>406200</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>174061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>778422</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>169839</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>169838</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2481,13 +2550,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>20508</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>140818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>18197</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>464</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2525,13 +2594,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>2930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>95248</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>167720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2569,13 +2638,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2677,13 +2746,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>66261</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>162340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>371061</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>122583</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3068,10 +3137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X105"/>
+  <dimension ref="A1:X145"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3083,17 +3152,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
       <c r="J1" t="s">
         <v>58</v>
       </c>
@@ -3224,1374 +3293,1906 @@
       <c r="B12" s="20"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+      <c r="A13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="14">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="14">
+        <v>125</v>
+      </c>
+      <c r="C14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B16" s="14">
         <v>0.6</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D16" s="14">
         <v>0.7</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E16" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="15">
-        <v>4.4499999999999998E-2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6">
-        <f>(B5/B3)*B14</f>
-        <v>5.75</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="11">
-        <f>(B5/B3)*D14</f>
-        <v>6.708333333333333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="16">
-        <f>I21</f>
-        <v>10.989010989010989</v>
+        <v>7</v>
+      </c>
+      <c r="B17" s="15">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="7">
-        <f>I21/I23</f>
-        <v>5.4945054945054945</v>
+        <v>16</v>
+      </c>
+      <c r="B19" s="6">
+        <f>(B5/B3)*B16</f>
+        <v>5.75</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="19">
-        <f>1/B19</f>
-        <v>0.182</v>
-      </c>
-      <c r="E19" t="s">
-        <v>131</v>
+        <v>2</v>
+      </c>
+      <c r="D19" s="11">
+        <f>(B5/B3)*D16</f>
+        <v>6.708333333333333</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>34</v>
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="16">
+        <f>I23</f>
+        <v>10.989010989010989</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="7">
+        <f>I23/I25</f>
+        <v>5.4945054945054945</v>
+      </c>
+      <c r="C21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="19">
+        <f>1/B21</f>
+        <v>0.182</v>
+      </c>
+      <c r="E21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="14">
-        <f>I22</f>
+      <c r="B23" s="14">
+        <f>I24</f>
         <v>3900</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>15</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E23" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F23" s="14">
         <f>1/0.083</f>
         <v>12.048192771084336</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G23" s="14">
         <f>1/0.182</f>
         <v>5.4945054945054945</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H23" s="14">
         <f>1/0.363</f>
         <v>2.7548209366391188</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I23" s="14">
         <f>1/0.091</f>
         <v>10.989010989010989</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="7">
-        <f>B21/(B18^2)</f>
-        <v>32.295899999999996</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="14">
-        <v>3100</v>
-      </c>
-      <c r="G22" s="14">
-        <v>2600</v>
-      </c>
-      <c r="H22" s="14">
-        <v>2600</v>
-      </c>
-      <c r="I22" s="14">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="14">
-        <v>2</v>
-      </c>
-      <c r="G23" s="14">
-        <v>1</v>
-      </c>
-      <c r="H23" s="14">
-        <v>1</v>
-      </c>
-      <c r="I23" s="14">
-        <v>2</v>
-      </c>
-    </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="14">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="B24" s="7">
+        <f>B23/(B20^2)</f>
+        <v>32.295899999999996</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="14">
+        <v>3100</v>
+      </c>
+      <c r="G24" s="14">
+        <v>2600</v>
+      </c>
+      <c r="H24" s="14">
+        <v>2600</v>
+      </c>
+      <c r="I24" s="14">
+        <v>3900</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="14">
+        <v>2</v>
+      </c>
+      <c r="G25" s="14">
+        <v>1</v>
+      </c>
+      <c r="H25" s="14">
+        <v>1</v>
+      </c>
+      <c r="I25" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="14">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="7">
-        <f>1-(B24/B21)</f>
+      <c r="B27" s="7">
+        <f>1-(B26/B23)</f>
         <v>0.99923076923076926</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="44" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="6">
-        <f>B15*B7</f>
-        <v>1.7799999999999998</v>
-      </c>
-      <c r="C28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="6">
-        <f>B28*2</f>
-        <v>3.5599999999999996</v>
-      </c>
-      <c r="C29" t="s">
-        <v>23</v>
-      </c>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="8">
-        <f>(1-((1/B5)*B19*B3))*1/B29*B3*1/B9</f>
-        <v>2.8763615475877321E-5</v>
+        <v>22</v>
+      </c>
+      <c r="B30" s="6">
+        <f>B17*B7</f>
+        <v>1.7799999999999998</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="11">
-        <f>B30*10^6</f>
-        <v>28.763615475877319</v>
-      </c>
-      <c r="E30" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="8">
-        <f>(1-((1/B6)*B19*B3))*1/B29*B3*1/B9</f>
-        <v>5.330464078457658E-5</v>
+        <v>24</v>
+      </c>
+      <c r="B31" s="6">
+        <f>B30*2</f>
+        <v>3.5599999999999996</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="11">
-        <f>B31*10^6</f>
-        <v>53.304640784576577</v>
-      </c>
-      <c r="E31" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="14">
-        <v>60</v>
+        <v>28</v>
+      </c>
+      <c r="B32" s="8">
+        <f>(1-((1/B5)*B21*B3))*1/B31*B3*1/B9</f>
+        <v>2.8763615475877321E-5</v>
       </c>
       <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="11">
+        <f>B32*10^6</f>
+        <v>28.763615475877319</v>
+      </c>
+      <c r="E32" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="43" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="D33" s="2"/>
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="8">
+        <f>(1-((1/B6)*B21*B3))*1/B31*B3*1/B9</f>
+        <v>5.330464078457658E-5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="11">
+        <f>B33*10^6</f>
+        <v>53.304640784576577</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="17">
-        <v>0.01</v>
+        <v>25</v>
+      </c>
+      <c r="B34" s="14">
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="9">
-        <f>B3*B34</f>
-        <v>0.24</v>
+        <v>15</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>33</v>
+      </c>
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="43" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="14">
-        <v>0.2</v>
-      </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="8">
-        <f>B29/(8*B9*(D34-B29*B35))</f>
-        <v>-9.4279661016949134E-6</v>
+        <v>61</v>
+      </c>
+      <c r="B36" s="17">
+        <v>0.01</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="18">
-        <f>-B36*10^6</f>
-        <v>9.4279661016949134</v>
+        <v>62</v>
+      </c>
+      <c r="D36" s="9">
+        <f>B3*B36</f>
+        <v>0.24</v>
       </c>
       <c r="E36" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" t="s">
-        <v>67</v>
-      </c>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="12">
-        <f>(B19*96*10^-3)/(0.5*B29*B7*1.3)</f>
-        <v>5.6987092423566059E-3</v>
+        <v>65</v>
+      </c>
+      <c r="B38" s="8">
+        <f>B31/(8*B9*(D36-B31*B37))</f>
+        <v>-9.4279661016949134E-6</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="11">
-        <f>B38*10^3</f>
-        <v>5.6987092423566059</v>
+        <v>53</v>
+      </c>
+      <c r="D38" s="18">
+        <f>-B38*10^6</f>
+        <v>9.4279661016949134</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="F38" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="14">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="B40" s="12">
+        <f>(B21*96*10^-3)/(0.5*B31*B7*1.3)</f>
+        <v>5.6987092423566059E-3</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="6">
-        <f>B40*10^6</f>
-        <v>1000000</v>
+        <v>42</v>
+      </c>
+      <c r="D40" s="11">
+        <f>B40*10^3</f>
+        <v>5.6987092423566059</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="10">
-        <f>(D40*((1/((B5/1.25)-1))+1))/(B6/1.25)</f>
-        <v>1994.9692080839623</v>
-      </c>
-      <c r="C41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="10">
-        <f>B41*((B6/1.25)-1)-D40</f>
-        <v>3469.5116662330693</v>
+        <v>45</v>
+      </c>
+      <c r="B42" s="14">
+        <v>1</v>
       </c>
       <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="6">
+        <f>B42*10^6</f>
+        <v>1000000</v>
+      </c>
+      <c r="E42" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="6">
-        <f>(B5/D40)/((1/(B41+B42))+(1/D40))</f>
-        <v>1.2500000000000209</v>
+        <v>47</v>
+      </c>
+      <c r="B43" s="10">
+        <f>(D42*((1/((B5/1.25)-1))+1))/(B6/1.25)</f>
+        <v>1994.9692080839623</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" t="s">
-        <v>50</v>
-      </c>
-      <c r="E43" s="11">
-        <f>(B6/D40)/((1/(B41+B42))+(1/D40))</f>
-        <v>3.423913043478318</v>
-      </c>
-      <c r="F43" t="s">
-        <v>10</v>
-      </c>
-      <c r="R43" t="s">
-        <v>93</v>
-      </c>
-      <c r="S43">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="T43" t="s">
-        <v>23</v>
-      </c>
-      <c r="U43" t="s">
-        <v>98</v>
-      </c>
-      <c r="V43" t="s">
-        <v>92</v>
-      </c>
-      <c r="W43" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44" s="10">
-        <f>(D14/(0.725*((B9/1000)/300)*(1.25/B43)))*51.1*10^3</f>
-        <v>148013.79310345076</v>
+        <f>B43*((B6/1.25)-1)-D42</f>
+        <v>3469.5116662330693</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="10">
-        <f>B44*10^-3</f>
-        <v>148.01379310345078</v>
-      </c>
-      <c r="E44" t="s">
-        <v>51</v>
-      </c>
-      <c r="F44" s="5"/>
-      <c r="R44" t="s">
-        <v>94</v>
-      </c>
-      <c r="S44">
-        <v>3</v>
-      </c>
-      <c r="T44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="6">
+        <f>(B5/D42)/((1/(B43+B44))+(1/D42))</f>
+        <v>1.2500000000000209</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="11">
+        <f>(B6/D42)/((1/(B43+B44))+(1/D42))</f>
+        <v>3.423913043478318</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="R45" t="s">
+        <v>93</v>
+      </c>
+      <c r="S45">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="T45" t="s">
         <v>23</v>
       </c>
-      <c r="V44" t="s">
-        <v>100</v>
-      </c>
-      <c r="W44">
-        <v>39.85</v>
-      </c>
-      <c r="X44" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="R45" t="s">
-        <v>95</v>
-      </c>
-      <c r="S45">
-        <v>1043</v>
-      </c>
-      <c r="T45" t="s">
-        <v>20</v>
+      <c r="U45" t="s">
+        <v>98</v>
       </c>
       <c r="V45" t="s">
-        <v>104</v>
+        <v>92</v>
+      </c>
+      <c r="W45" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="11">
-        <f>(B3/B6)*B19</f>
-        <v>0.20931449502878077</v>
-      </c>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="10">
+        <f>(D16/(0.725*((B9/1000)/300)*(1.25/B45)))*51.1*10^3</f>
+        <v>148013.79310345076</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="10">
+        <f>B46*10^-3</f>
+        <v>148.01379310345078</v>
+      </c>
+      <c r="E46" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="5"/>
       <c r="R46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S46">
-        <v>953</v>
+        <v>3</v>
       </c>
       <c r="T46" t="s">
+        <v>23</v>
+      </c>
+      <c r="V46" t="s">
+        <v>100</v>
+      </c>
+      <c r="W46">
+        <v>39.85</v>
+      </c>
+      <c r="X46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A47" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="R47" t="s">
+        <v>95</v>
+      </c>
+      <c r="S47">
+        <v>1043</v>
+      </c>
+      <c r="T47" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="8">
-        <f>(10*(1-B46)^2)/(B21*(2*PI()*(B9/1000))^2)</f>
-        <v>4.0605345564331669E-9</v>
-      </c>
-      <c r="C47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="13">
-        <f>B47*10^9</f>
-        <v>4.0605345564331667</v>
-      </c>
-      <c r="E47" t="s">
-        <v>54</v>
-      </c>
-      <c r="G47" s="26"/>
-      <c r="H47" s="20"/>
-      <c r="R47" t="s">
-        <v>97</v>
-      </c>
-      <c r="S47" s="4">
-        <f>(S46/S45)*100</f>
-        <v>91.371045062320235</v>
-      </c>
-      <c r="T47" t="s">
-        <v>103</v>
+      <c r="V47" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="11">
+        <f>(B3/B6)*B21</f>
+        <v>0.20931449502878077</v>
+      </c>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="R48" t="s">
+        <v>96</v>
+      </c>
+      <c r="S48">
+        <v>953</v>
+      </c>
+      <c r="T48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="8">
+        <f>(10*(1-B48)^2)/(B23*(2*PI()*(B9/1000))^2)</f>
+        <v>4.0605345564331669E-9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="13">
+        <f>B49*10^9</f>
+        <v>4.0605345564331667</v>
+      </c>
+      <c r="E49" t="s">
+        <v>54</v>
+      </c>
+      <c r="G49" s="26"/>
+      <c r="H49" s="20"/>
+      <c r="R49" t="s">
+        <v>97</v>
+      </c>
+      <c r="S49" s="4">
+        <f>(S48/S47)*100</f>
+        <v>91.371045062320235</v>
+      </c>
+      <c r="T49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="8">
-        <f>6*B47</f>
+      <c r="B50" s="8">
+        <f>6*B49</f>
         <v>2.4363207338599E-8</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C50" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="13">
-        <f>B48*10^9</f>
+      <c r="D50" s="13">
+        <f>B50*10^9</f>
         <v>24.363207338599</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E50" t="s">
         <v>54</v>
       </c>
-      <c r="R48" t="s">
+      <c r="R50" t="s">
         <v>102</v>
       </c>
-      <c r="S48">
+      <c r="S50">
         <v>1.6E-2</v>
       </c>
-      <c r="T48" t="s">
+      <c r="T50" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="11">
-        <f>(B3/B5)*B19</f>
+      <c r="B51" s="11">
+        <f>(B3/B5)*B21</f>
         <v>0.5733397037744864</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="10">
-        <f>(1/(1-B49))*SQRT(B21*10^-6/B47)</f>
+      <c r="B52" s="10">
+        <f>(1/(1-B51))*SQRT(B23*10^-6/B49)</f>
         <v>2296.9866312323384</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C52" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B54" s="6">
         <f>(1.2/(B9/B10))*22.1*10^6</f>
         <v>530.40000000000009</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A54" s="44" t="s">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A56" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="44"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="44"/>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>81</v>
       </c>
-      <c r="B55" s="6">
-        <f>B6*(1/B19)*2</f>
+      <c r="B57" s="6">
+        <f>B6*(1/B21)*2</f>
         <v>229.32</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C57" t="s">
         <v>10</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D57" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="14">
+      <c r="B58" s="14">
         <v>4.5</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C58" t="s">
         <v>23</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D58" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="25">
-        <f>D58*10^-3</f>
+      <c r="B60" s="25">
+        <f>D60*10^-3</f>
         <v>4.0999999999999995E-3</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C60" t="s">
         <v>42</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D60" s="14">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E60" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="7">
-        <f>B56*B58</f>
+      <c r="B61" s="7">
+        <f>B58*B60</f>
         <v>1.8449999999999998E-2</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C61" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="6">
-        <f>B59*10^3</f>
+      <c r="D61" s="6">
+        <f>B61*10^3</f>
         <v>18.45</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E61" t="s">
         <v>75</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F61" t="s">
         <v>83</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G61" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>87</v>
       </c>
-      <c r="B60" s="6">
-        <f>D59*1.2</f>
+      <c r="B62" s="6">
+        <f>D61*1.2</f>
         <v>22.139999999999997</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C62" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="G61" s="45" t="s">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="G63" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>77</v>
       </c>
-      <c r="B62" s="14">
+      <c r="B64" s="14">
         <v>2000</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C64" t="s">
         <v>79</v>
       </c>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="46"/>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="G64" s="47"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>78</v>
       </c>
-      <c r="B63" s="14">
+      <c r="B65" s="14">
         <v>300</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C65" t="s">
         <v>10</v>
       </c>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46"/>
-      <c r="I63" s="46"/>
-      <c r="R63" t="s">
+      <c r="G65" s="47"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="47"/>
+      <c r="J65" t="s">
+        <v>175</v>
+      </c>
+      <c r="R65" t="s">
         <v>93</v>
       </c>
-      <c r="S63">
+      <c r="S65">
         <v>31.3</v>
       </c>
-      <c r="T63" t="s">
+      <c r="T65" t="s">
         <v>23</v>
       </c>
-      <c r="U63" t="s">
+      <c r="U65" t="s">
         <v>98</v>
       </c>
-      <c r="V63" t="s">
+      <c r="V65" t="s">
         <v>92</v>
       </c>
-      <c r="W63" t="s">
+      <c r="W65" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="11">
-        <f>B58*SQRT(2*B62*10^-3*((1.3*B63-B3)/(1.3*B63*B32*10^-6)))</f>
+      <c r="B66" s="11">
+        <f>B60*SQRT(2*B64*10^-3*((1.3*B65-B3)/(1.3*B65*B34*10^-6)))</f>
         <v>1.0255255063149642</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C66" t="s">
         <v>10</v>
       </c>
-      <c r="D64">
-        <f t="shared" ref="D64" si="0">B64*10^3</f>
+      <c r="D66">
+        <f t="shared" ref="D66" si="0">B66*10^3</f>
         <v>1025.5255063149641</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E66" t="s">
         <v>75</v>
       </c>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="46"/>
-      <c r="R64" t="s">
+      <c r="G66" s="47"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
+      <c r="R66" t="s">
         <v>94</v>
       </c>
-      <c r="S64">
+      <c r="S66">
         <v>2.84</v>
       </c>
-      <c r="T64" t="s">
+      <c r="T66" t="s">
         <v>23</v>
       </c>
-      <c r="V64" t="s">
+      <c r="V66" t="s">
         <v>100</v>
       </c>
-      <c r="W64">
+      <c r="W66">
         <v>39.85</v>
       </c>
-      <c r="X64" t="s">
+      <c r="X66" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>89</v>
       </c>
-      <c r="B65" s="11">
-        <f>B64/B58</f>
+      <c r="B67" s="11">
+        <f>B66/B60</f>
         <v>250.12817227194253</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C67" t="s">
         <v>23</v>
       </c>
-      <c r="D65">
+      <c r="D67">
         <v>60</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E67" t="s">
         <v>23</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F67" t="s">
         <v>142</v>
       </c>
-      <c r="R65" t="s">
+      <c r="R67" t="s">
         <v>95</v>
       </c>
-      <c r="S65">
+      <c r="S67">
         <v>1001</v>
       </c>
-      <c r="T65" t="s">
+      <c r="T67" t="s">
         <v>20</v>
       </c>
-      <c r="V65" t="s">
+      <c r="V67" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="R66" t="s">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="R68" t="s">
         <v>96</v>
       </c>
-      <c r="S66">
+      <c r="S68">
         <v>953</v>
       </c>
-      <c r="T66" t="s">
+      <c r="T68" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="14">
+      <c r="B69" s="14">
         <v>1000</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C69" t="s">
         <v>42</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D69" t="s">
         <v>86</v>
       </c>
-      <c r="R67" t="s">
+      <c r="R69" t="s">
         <v>97</v>
       </c>
-      <c r="S67" s="4">
-        <f>(S66/S65)*100</f>
+      <c r="S69" s="4">
+        <f>(S68/S67)*100</f>
         <v>95.204795204795204</v>
       </c>
-      <c r="T67" t="s">
+      <c r="T69" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>84</v>
       </c>
-      <c r="B68" s="12">
-        <f>((B67*40*10^-6)+66*10^-3)/D65</f>
+      <c r="B70" s="12">
+        <f>((B69*40*10^-6)+66*10^-3)/D67</f>
         <v>1.7666666666666668E-3</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C70" t="s">
         <v>42</v>
       </c>
-      <c r="D68" s="11">
-        <f>B68*10^3</f>
+      <c r="D70" s="11">
+        <f>B70*10^3</f>
         <v>1.7666666666666668</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E70" t="s">
         <v>43</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F70" s="14">
         <v>1.8</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G70" t="s">
         <v>90</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H70" t="s">
         <v>91</v>
       </c>
-      <c r="R68" t="s">
+      <c r="R70" t="s">
         <v>102</v>
       </c>
-      <c r="S68">
+      <c r="S70">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T68" t="s">
+      <c r="T70" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D69" s="27"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D71" s="27"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="23">
-        <f>SQRT((1-B46)*(B7^2+(B29^2/12)))</f>
+      <c r="B72" s="23">
+        <f>SQRT((1-B48)*(B7^2+(B31^2/12)))</f>
         <v>35.579936442775363</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C72" t="s">
         <v>23</v>
-      </c>
-      <c r="D70" s="27"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>122</v>
-      </c>
-      <c r="B71" s="28">
-        <f>D71*10^-9</f>
-        <v>3.4500000000000003E-7</v>
-      </c>
-      <c r="C71" t="s">
-        <v>125</v>
-      </c>
-      <c r="D71" s="24">
-        <v>345</v>
-      </c>
-      <c r="E71" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="F71" s="20"/>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>140</v>
-      </c>
-      <c r="B72" s="22">
-        <f>(B70^2*B58)+(B11*B9*B71)</f>
-        <v>5.5353206968149298</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>20</v>
       </c>
       <c r="D72" s="27"/>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A74" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="44"/>
-      <c r="H74" s="44"/>
-      <c r="I74" s="44"/>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>114</v>
-      </c>
-      <c r="B75" s="23">
-        <f>0.5*B19*(B3/(B21*10^-6))*(1/B9)*2</f>
-        <v>0.33812341504649202</v>
-      </c>
-      <c r="C75" t="s">
-        <v>23</v>
-      </c>
-      <c r="F75" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="G75" s="46"/>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>122</v>
+      </c>
+      <c r="B73" s="28">
+        <f>D73*10^-9</f>
+        <v>3.4500000000000003E-7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>125</v>
+      </c>
+      <c r="D73" s="24">
+        <v>345</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F73" s="20"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>140</v>
+      </c>
+      <c r="B74" s="22">
+        <f>(B72^2*B60)+(B11*B9*B73)</f>
+        <v>5.5353206968149298</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="27"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B75" s="22"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="F75" s="48"/>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>116</v>
-      </c>
-      <c r="B76" s="23">
-        <f>B79</f>
-        <v>956.13236267372599</v>
-      </c>
-      <c r="D76" t="s">
-        <v>117</v>
-      </c>
-      <c r="F76" s="46"/>
-      <c r="G76" s="46"/>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="B76" s="22">
+        <f>(B14-B13)/B74</f>
+        <v>13.549350454645859</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D76" s="27"/>
+      <c r="E76" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>115</v>
-      </c>
-      <c r="B77" s="23">
-        <f>(1/B19)*(B7+(B29/2))</f>
-        <v>7.6039599999999998</v>
-      </c>
-      <c r="C77" t="s">
-        <v>23</v>
-      </c>
-      <c r="F77" s="46"/>
-      <c r="G77" s="46"/>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A78" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="B78" s="44"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="44"/>
-      <c r="H78" s="44"/>
-      <c r="I78" s="44"/>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="B77" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D77" s="27"/>
+      <c r="E77" s="20">
+        <f>E76*B79</f>
+        <v>177.20149999999998</v>
+      </c>
+      <c r="F77" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D78" s="27"/>
+      <c r="E78" s="20">
+        <f>1/E77</f>
+        <v>5.6432930872481329E-3</v>
+      </c>
+      <c r="F78" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>118</v>
-      </c>
-      <c r="B79" s="4">
-        <f>((B6^2)/(B6-(B3*B19)))*1.2</f>
-        <v>956.13236267372599</v>
-      </c>
-      <c r="C79" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="B79" s="22">
+        <f>19.7*25.7</f>
+        <v>506.28999999999996</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D79" s="27"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>119</v>
-      </c>
-      <c r="B80" s="4">
-        <f>SQRT(B85/B81)</f>
-        <v>5.5123576586177476</v>
-      </c>
-      <c r="C80" t="s">
-        <v>23</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B80" s="22">
+        <f>E78</f>
+        <v>5.6432930872481329E-3</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D80" s="27"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>74</v>
-      </c>
-      <c r="B81">
-        <v>0.2</v>
-      </c>
-      <c r="C81" t="s">
-        <v>42</v>
-      </c>
-      <c r="F81" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="G81" s="46"/>
+        <v>167</v>
+      </c>
+      <c r="B81" s="22">
+        <f>B76-B77-B78-B80</f>
+        <v>13.293707161558611</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D81" s="27"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>122</v>
-      </c>
-      <c r="B82" s="1">
-        <f>D82*10^-9</f>
-        <v>3.0000000000000004E-8</v>
-      </c>
-      <c r="C82" t="s">
-        <v>125</v>
-      </c>
-      <c r="D82" s="14">
-        <v>30</v>
-      </c>
-      <c r="E82" t="s">
-        <v>124</v>
-      </c>
-      <c r="F82" s="46"/>
-      <c r="G82" s="46"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>128</v>
-      </c>
-      <c r="B83" s="1">
-        <f>D83*10^-9</f>
-        <v>6.0000000000000008E-9</v>
-      </c>
-      <c r="C83" t="s">
-        <v>125</v>
-      </c>
-      <c r="D83">
-        <v>6</v>
-      </c>
-      <c r="E83" t="s">
-        <v>124</v>
-      </c>
-      <c r="F83" s="46"/>
-      <c r="G83" s="46"/>
+        <v>171</v>
+      </c>
+      <c r="B83">
+        <v>11</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" s="45"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="45"/>
+      <c r="F84" s="45"/>
+      <c r="G84" s="45"/>
+      <c r="H84" s="45"/>
+      <c r="I84" s="45"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>120</v>
-      </c>
-      <c r="B85" s="4">
-        <f>B19*(B3/B5)*((1/B19)*B7)^2*B81</f>
-        <v>6.0772173913043472</v>
+        <v>114</v>
+      </c>
+      <c r="B85" s="23">
+        <f>0.5*B21*(B3/(B23*10^-6))*(1/B9)*2</f>
+        <v>0.33812341504649202</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F85" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="G85" s="47"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>121</v>
-      </c>
-      <c r="B86">
-        <f>B82*B11*B9</f>
-        <v>3.0000000000000002E-2</v>
-      </c>
-      <c r="C86" t="s">
-        <v>20</v>
+        <v>116</v>
+      </c>
+      <c r="B86" s="23">
+        <f>B100</f>
+        <v>956.13236267372599</v>
+      </c>
+      <c r="D86" t="s">
+        <v>117</v>
+      </c>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>126</v>
-      </c>
-      <c r="B87" s="4">
-        <f>0.5*B7*D19*(B6/(1-B49))*(B83/2)*B9</f>
-        <v>1.6124303247480403</v>
+        <v>115</v>
+      </c>
+      <c r="B87" s="23">
+        <f>(1/B21)*(B7+(B31/2))</f>
+        <v>7.6039599999999998</v>
       </c>
       <c r="C87" t="s">
-        <v>20</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F87" s="47"/>
+      <c r="G87" s="47"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>127</v>
-      </c>
-      <c r="B88" s="4">
-        <f>0.5*B7*D19*B6*(B83/2)*B9</f>
-        <v>0.68796000000000002</v>
-      </c>
-      <c r="C88" t="s">
-        <v>20</v>
-      </c>
+      <c r="B88" s="23"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>129</v>
-      </c>
-      <c r="B89" s="4">
-        <f>B85+B86+B87+B88</f>
-        <v>8.4076077160523877</v>
+        <v>74</v>
+      </c>
+      <c r="B89" s="23">
+        <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>20</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F89" s="44"/>
+      <c r="G89" s="44"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="B90" s="44"/>
-      <c r="C90" s="44"/>
-      <c r="D90" s="44"/>
-      <c r="E90" s="44"/>
+      <c r="B90" s="23"/>
       <c r="F90" s="44"/>
       <c r="G90" s="44"/>
-      <c r="H90" s="44"/>
-      <c r="I90" s="44"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B91" s="4">
-        <f>(B3/(1-(B3/(B5*D19))))*1.2</f>
-        <v>67.501007838745792</v>
+        <f>B85^2*B89</f>
+        <v>0.22865488760540462</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91" t="s">
-        <v>137</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>135</v>
-      </c>
-      <c r="B92" s="4">
-        <f>(B3/(B9*2*SQRT(B21*10^-6*B47)))</f>
-        <v>30.154861431004125</v>
+        <v>126</v>
+      </c>
+      <c r="B92" s="4" t="e">
+        <f>0.5*#REF!*D6*(#REF!/(1-B36))*(B89/2)*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="C92" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" t="s">
-        <v>136</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F92" s="44"/>
+      <c r="G92" s="44"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>138</v>
-      </c>
-      <c r="B93">
-        <f>SQRT(B49*(B7^2+(B29^2/12)))</f>
-        <v>30.297673990121055</v>
+        <v>127</v>
+      </c>
+      <c r="B93" s="4" t="e">
+        <f>0.5*#REF!*D6*#REF!*(B89/2)*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="C93" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F93" s="44"/>
+      <c r="G93" s="44"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F94" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="G94" s="46"/>
+      <c r="A94" t="s">
+        <v>129</v>
+      </c>
+      <c r="B94" s="4" t="e">
+        <f>B91+#REF!+B92+B93</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C94" t="s">
+        <v>20</v>
+      </c>
+      <c r="F94" s="44"/>
+      <c r="G94" s="44"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>74</v>
-      </c>
-      <c r="B95" s="21">
-        <f>D95*10^-3</f>
-        <v>1.9E-3</v>
-      </c>
-      <c r="C95" t="s">
-        <v>42</v>
-      </c>
-      <c r="D95">
-        <v>1.9</v>
-      </c>
-      <c r="E95" t="s">
-        <v>43</v>
-      </c>
-      <c r="F95" s="46"/>
-      <c r="G95" s="46"/>
+      <c r="F95" s="44"/>
+      <c r="G95" s="44"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>122</v>
-      </c>
-      <c r="B96" s="1">
-        <f>D96*10^-9</f>
-        <v>1.24E-7</v>
-      </c>
-      <c r="C96" t="s">
-        <v>125</v>
-      </c>
-      <c r="D96">
-        <v>124</v>
-      </c>
-      <c r="E96" t="s">
-        <v>124</v>
-      </c>
-      <c r="F96" s="46"/>
-      <c r="G96" s="46"/>
+      <c r="B96" s="23"/>
+      <c r="F96" s="44"/>
+      <c r="G96" s="44"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B97" s="23"/>
+      <c r="F97" s="44"/>
+      <c r="G97" s="44"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>139</v>
-      </c>
-      <c r="B98" s="4">
-        <f>(B93^2*B95)+(B11*B96*B9)</f>
-        <v>1.8681031935021499</v>
-      </c>
-      <c r="C98" t="s">
-        <v>20</v>
-      </c>
+      <c r="B98" s="23"/>
+      <c r="F98" s="44"/>
+      <c r="G98" s="44"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B99" s="45"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="45"/>
+      <c r="E99" s="45"/>
+      <c r="F99" s="45"/>
+      <c r="G99" s="45"/>
+      <c r="H99" s="45"/>
+      <c r="I99" s="45"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="B100" s="44"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="44"/>
-      <c r="E100" s="44"/>
-      <c r="F100" s="44"/>
-      <c r="G100" s="44"/>
-      <c r="H100" s="44"/>
-      <c r="I100" s="44"/>
+      <c r="A100" t="s">
+        <v>118</v>
+      </c>
+      <c r="B100" s="4">
+        <f>((B6^2)/(B6-(B3*B21)))*1.2</f>
+        <v>956.13236267372599</v>
+      </c>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>145</v>
+        <v>119</v>
+      </c>
+      <c r="B101" s="4">
+        <f>SQRT(B106/B102)</f>
+        <v>5.5123576586177476</v>
+      </c>
+      <c r="C101" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>151</v>
-      </c>
-      <c r="B102" t="s">
-        <v>146</v>
+        <v>74</v>
+      </c>
+      <c r="B102">
+        <v>0.2</v>
       </c>
       <c r="C102" t="s">
-        <v>152</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F102" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="G102" s="47"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>147</v>
-      </c>
-      <c r="B103">
-        <v>15</v>
-      </c>
-      <c r="C103">
-        <v>6.25</v>
+        <v>122</v>
+      </c>
+      <c r="B103" s="1">
+        <f>D103*10^-9</f>
+        <v>3.0000000000000004E-8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>125</v>
+      </c>
+      <c r="D103" s="14">
+        <v>30</v>
+      </c>
+      <c r="E103" t="s">
+        <v>124</v>
+      </c>
+      <c r="F103" s="47"/>
+      <c r="G103" s="47"/>
+      <c r="H103" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>128</v>
+      </c>
+      <c r="B104" s="1">
+        <f>D104*10^-9</f>
+        <v>6.0000000000000008E-9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>125</v>
+      </c>
+      <c r="D104">
+        <v>6</v>
+      </c>
+      <c r="E104" t="s">
+        <v>124</v>
+      </c>
+      <c r="F104" s="47"/>
+      <c r="G104" s="47"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>120</v>
+      </c>
+      <c r="B106" s="4">
+        <f>B21*(B3/B5)*((1/B21)*B7)^2*B102</f>
+        <v>6.0772173913043472</v>
+      </c>
+      <c r="C106" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>121</v>
+      </c>
+      <c r="B107">
+        <f>B103*B11*B9</f>
+        <v>3.0000000000000002E-2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>126</v>
+      </c>
+      <c r="B108" s="4">
+        <f>0.5*B7*D21*(B6/(1-B51))*(B104/2)*B9</f>
+        <v>1.6124303247480403</v>
+      </c>
+      <c r="C108" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>127</v>
+      </c>
+      <c r="B109" s="4">
+        <f>0.5*B7*D21*B6*(B104/2)*B9</f>
+        <v>0.68796000000000002</v>
+      </c>
+      <c r="C109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>129</v>
+      </c>
+      <c r="B110" s="4">
+        <f>B106+B107+B108+B109</f>
+        <v>8.4076077160523877</v>
+      </c>
+      <c r="C110" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B111" s="4"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B112" s="22"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="F112" s="48"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>159</v>
+      </c>
+      <c r="B113" s="22">
+        <f>(B14-B13)/B110</f>
+        <v>8.9204923127900937</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D113" s="27"/>
+      <c r="E113" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="F113" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>162</v>
+      </c>
+      <c r="B114" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="C114" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D114" s="27"/>
+      <c r="E114" s="20">
+        <f>E113*B116</f>
+        <v>112.84</v>
+      </c>
+      <c r="F114" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>163</v>
+      </c>
+      <c r="B115" s="25">
+        <v>1</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D115" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="E115" s="20">
+        <f>1/E114</f>
+        <v>8.8621056362991838E-3</v>
+      </c>
+      <c r="F115" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>164</v>
+      </c>
+      <c r="B116" s="22">
+        <f>15.5*20.8</f>
+        <v>322.40000000000003</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D116" s="27"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>166</v>
+      </c>
+      <c r="B117" s="22">
+        <f>E115</f>
+        <v>8.8621056362991838E-3</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D117" s="27"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="20"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>167</v>
+      </c>
+      <c r="B118" s="22">
+        <f>B113-B114-B115-B117</f>
+        <v>7.0116302071537939</v>
+      </c>
+      <c r="C118" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D118" s="27"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="20"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B119" s="22"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="20"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>174</v>
+      </c>
+      <c r="B120">
+        <v>3.9</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B121" s="45"/>
+      <c r="C121" s="45"/>
+      <c r="D121" s="45"/>
+      <c r="E121" s="45"/>
+      <c r="F121" s="45"/>
+      <c r="G121" s="45"/>
+      <c r="H121" s="45"/>
+      <c r="I121" s="45"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>135</v>
+      </c>
+      <c r="B122" s="4">
+        <f>(B3/(1-(B3/(B5*D21))))*1.2</f>
+        <v>67.501007838745792</v>
+      </c>
+      <c r="C122" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>135</v>
+      </c>
+      <c r="B123" s="4">
+        <f>(B3/(B9*2*SQRT(B23*10^-6*B49)))</f>
+        <v>30.154861431004125</v>
+      </c>
+      <c r="C123" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>138</v>
+      </c>
+      <c r="B124">
+        <f>SQRT(B51*(B7^2+(B31^2/12)))</f>
+        <v>30.297673990121055</v>
+      </c>
+      <c r="C124" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F125" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="G125" s="47"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>74</v>
+      </c>
+      <c r="B126" s="21">
+        <f>D126*10^-3</f>
+        <v>1.9E-3</v>
+      </c>
+      <c r="C126" t="s">
+        <v>42</v>
+      </c>
+      <c r="D126">
+        <v>1.9</v>
+      </c>
+      <c r="E126" t="s">
+        <v>43</v>
+      </c>
+      <c r="F126" s="47"/>
+      <c r="G126" s="47"/>
+      <c r="H126" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>122</v>
+      </c>
+      <c r="B127" s="1">
+        <f>D127*10^-9</f>
+        <v>1.24E-7</v>
+      </c>
+      <c r="C127" t="s">
+        <v>125</v>
+      </c>
+      <c r="D127">
+        <v>124</v>
+      </c>
+      <c r="E127" t="s">
+        <v>124</v>
+      </c>
+      <c r="F127" s="47"/>
+      <c r="G127" s="47"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>139</v>
+      </c>
+      <c r="B129" s="4">
+        <f>(B124^2*B126)+(B11*B127*B9)</f>
+        <v>1.8681031935021499</v>
+      </c>
+      <c r="C129" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B130" s="4"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B131" s="22"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="27"/>
+      <c r="E131" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="F131" s="48"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>159</v>
+      </c>
+      <c r="B132" s="22">
+        <f>(B14-B13)/B129</f>
+        <v>40.147675064671787</v>
+      </c>
+      <c r="C132" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D132" s="27"/>
+      <c r="E132" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="F132" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>162</v>
+      </c>
+      <c r="B133" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="C133" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D133" s="27"/>
+      <c r="E133" s="20">
+        <f>E132*B135</f>
+        <v>112.84</v>
+      </c>
+      <c r="F133" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>163</v>
+      </c>
+      <c r="B134" s="25">
+        <v>1</v>
+      </c>
+      <c r="C134" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D134" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="E134" s="20">
+        <f>1/E133</f>
+        <v>8.8621056362991838E-3</v>
+      </c>
+      <c r="F134" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>164</v>
+      </c>
+      <c r="B135" s="22">
+        <f>15.5*20.8</f>
+        <v>322.40000000000003</v>
+      </c>
+      <c r="C135" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D135" s="27"/>
+      <c r="E135" s="20"/>
+      <c r="F135" s="20"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>166</v>
+      </c>
+      <c r="B136" s="22">
+        <f>E134</f>
+        <v>8.8621056362991838E-3</v>
+      </c>
+      <c r="C136" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D136" s="27"/>
+      <c r="E136" s="20"/>
+      <c r="F136" s="20"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>167</v>
+      </c>
+      <c r="B137" s="22">
+        <f>B132-B133-B134-B136</f>
+        <v>38.538812959035489</v>
+      </c>
+      <c r="C137" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D137" s="27"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="20"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B138" s="22"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="27"/>
+      <c r="E138" s="20"/>
+      <c r="F138" s="20"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>177</v>
+      </c>
+      <c r="B139">
+        <v>12</v>
+      </c>
+      <c r="C139" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B140" s="45"/>
+      <c r="C140" s="45"/>
+      <c r="D140" s="45"/>
+      <c r="E140" s="45"/>
+      <c r="F140" s="45"/>
+      <c r="G140" s="45"/>
+      <c r="H140" s="45"/>
+      <c r="I140" s="45"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>151</v>
+      </c>
+      <c r="B142" t="s">
+        <v>146</v>
+      </c>
+      <c r="C142" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>147</v>
+      </c>
+      <c r="B143">
+        <v>15</v>
+      </c>
+      <c r="C143">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>150</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B144" t="s">
         <v>148</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C144" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>149</v>
       </c>
-      <c r="B105">
+      <c r="B145">
         <v>800</v>
       </c>
-      <c r="C105">
+      <c r="C145">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="16">
+    <mergeCell ref="A140:I140"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E131:F131"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="G61:I64"/>
-    <mergeCell ref="A90:I90"/>
-    <mergeCell ref="F94:G96"/>
-    <mergeCell ref="A74:I74"/>
-    <mergeCell ref="A78:I78"/>
-    <mergeCell ref="F81:G83"/>
-    <mergeCell ref="F75:G77"/>
-    <mergeCell ref="A100:I100"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="G63:I66"/>
+    <mergeCell ref="A121:I121"/>
+    <mergeCell ref="F125:G127"/>
+    <mergeCell ref="A84:I84"/>
+    <mergeCell ref="A99:I99"/>
+    <mergeCell ref="F102:G104"/>
+    <mergeCell ref="F85:G87"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G32" r:id="rId1" display="https://www.coilcraft.com/en-us/products/power/shielded-inductors/high-current-flat-wire/agp-ver/agm2222/?skuId=30439" xr:uid="{65A06BCB-7F4F-4354-B81C-D2D05E16C3B9}"/>
+    <hyperlink ref="G34" r:id="rId1" display="https://www.coilcraft.com/en-us/products/power/shielded-inductors/high-current-flat-wire/agp-ver/agm2222/?skuId=30439" xr:uid="{65A06BCB-7F4F-4354-B81C-D2D05E16C3B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -4603,7 +5204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D3A2CA-5251-4135-8185-F29704CC83A6}">
   <dimension ref="A1:AP106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D61" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D52" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O22" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
@@ -4615,17 +5216,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -4837,17 +5438,17 @@
       <c r="B12" s="20"/>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -5028,17 +5629,17 @@
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -5786,17 +6387,17 @@
       </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -6297,17 +6898,17 @@
       <c r="AP52" s="20"/>
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A54" s="44" t="s">
+      <c r="A54" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="44"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="44"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
     </row>
     <row r="55" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
@@ -6394,11 +6995,11 @@
       </c>
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="G61" s="45" t="s">
+      <c r="G61" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47"/>
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -6410,9 +7011,9 @@
       <c r="C62" t="s">
         <v>79</v>
       </c>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="46"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="47"/>
     </row>
     <row r="63" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
@@ -6424,9 +7025,9 @@
       <c r="C63" t="s">
         <v>10</v>
       </c>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46"/>
-      <c r="I63" s="46"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
     </row>
     <row r="64" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
@@ -6446,9 +7047,9 @@
       <c r="E64" t="s">
         <v>75</v>
       </c>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="46"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
@@ -6695,17 +7296,17 @@
       </c>
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A74" s="44" t="s">
+      <c r="A74" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="44"/>
-      <c r="H74" s="44"/>
-      <c r="I74" s="44"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="45"/>
     </row>
     <row r="75" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
@@ -6718,10 +7319,10 @@
       <c r="C75" t="s">
         <v>23</v>
       </c>
-      <c r="F75" s="46" t="s">
+      <c r="F75" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="G75" s="46"/>
+      <c r="G75" s="47"/>
       <c r="J75" t="s">
         <v>23</v>
       </c>
@@ -6861,8 +7462,8 @@
       <c r="D76" t="s">
         <v>117</v>
       </c>
-      <c r="F76" s="46"/>
-      <c r="G76" s="46"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="47"/>
     </row>
     <row r="77" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
@@ -6875,21 +7476,21 @@
       <c r="C77" t="s">
         <v>23</v>
       </c>
-      <c r="F77" s="46"/>
-      <c r="G77" s="46"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
     </row>
     <row r="78" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A78" s="44" t="s">
+      <c r="A78" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="B78" s="44"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="44"/>
-      <c r="H78" s="44"/>
-      <c r="I78" s="44"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="45"/>
     </row>
     <row r="79" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
@@ -6925,10 +7526,10 @@
       <c r="C81" t="s">
         <v>42</v>
       </c>
-      <c r="F81" s="46" t="s">
+      <c r="F81" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="G81" s="46"/>
+      <c r="G81" s="47"/>
     </row>
     <row r="82" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
@@ -6947,8 +7548,8 @@
       <c r="E82" t="s">
         <v>124</v>
       </c>
-      <c r="F82" s="46"/>
-      <c r="G82" s="46"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="47"/>
     </row>
     <row r="83" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
@@ -6967,8 +7568,8 @@
       <c r="E83" t="s">
         <v>124</v>
       </c>
-      <c r="F83" s="46"/>
-      <c r="G83" s="46"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="47"/>
     </row>
     <row r="85" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
@@ -7527,17 +8128,17 @@
       </c>
     </row>
     <row r="90" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A90" s="44" t="s">
+      <c r="A90" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="B90" s="44"/>
-      <c r="C90" s="44"/>
-      <c r="D90" s="44"/>
-      <c r="E90" s="44"/>
-      <c r="F90" s="44"/>
-      <c r="G90" s="44"/>
-      <c r="H90" s="44"/>
-      <c r="I90" s="44"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="45"/>
+      <c r="F90" s="45"/>
+      <c r="G90" s="45"/>
+      <c r="H90" s="45"/>
+      <c r="I90" s="45"/>
     </row>
     <row r="91" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
@@ -7709,10 +8310,10 @@
       </c>
     </row>
     <row r="94" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="F94" s="46" t="s">
+      <c r="F94" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="G94" s="46"/>
+      <c r="G94" s="47"/>
     </row>
     <row r="95" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
@@ -7731,8 +8332,8 @@
       <c r="E95" t="s">
         <v>43</v>
       </c>
-      <c r="F95" s="46"/>
-      <c r="G95" s="46"/>
+      <c r="F95" s="47"/>
+      <c r="G95" s="47"/>
     </row>
     <row r="96" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
@@ -7751,8 +8352,8 @@
       <c r="E96" t="s">
         <v>124</v>
       </c>
-      <c r="F96" s="46"/>
-      <c r="G96" s="46"/>
+      <c r="F96" s="47"/>
+      <c r="G96" s="47"/>
     </row>
     <row r="98" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
@@ -7894,17 +8495,17 @@
       </c>
     </row>
     <row r="100" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A100" s="44" t="s">
+      <c r="A100" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="B100" s="44"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="44"/>
-      <c r="E100" s="44"/>
-      <c r="F100" s="44"/>
-      <c r="G100" s="44"/>
-      <c r="H100" s="44"/>
-      <c r="I100" s="44"/>
+      <c r="B100" s="45"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="45"/>
+      <c r="E100" s="45"/>
+      <c r="F100" s="45"/>
+      <c r="G100" s="45"/>
+      <c r="H100" s="45"/>
+      <c r="I100" s="45"/>
     </row>
     <row r="101" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
@@ -8089,12 +8690,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G61:I64"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="A54:I54"/>
     <mergeCell ref="A100:I100"/>
     <mergeCell ref="A74:I74"/>
     <mergeCell ref="F75:G77"/>
@@ -8102,6 +8697,12 @@
     <mergeCell ref="F81:G83"/>
     <mergeCell ref="A90:I90"/>
     <mergeCell ref="F94:G96"/>
+    <mergeCell ref="G61:I64"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A54:I54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/DC_Converter_Calc.xlsx
+++ b/DC_Converter_Calc.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BR\GIT\HV_DCDC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Technik\Technik 2022\05 - Electronics\02 - HV\01 - HV Accumulator\02 - ECAD\02 - PCB Files\03 - HV_DCDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C04A78E-BEF6-4E8A-B0AA-1C49B896F308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB66EDD-EFD3-4C51-BDBE-4BCD818C69D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="183">
   <si>
     <t>Eingangsparameter</t>
   </si>
@@ -550,9 +548,6 @@
     <t>W/K</t>
   </si>
   <si>
-    <t>WA-T264-101E</t>
-  </si>
-  <si>
     <t>geschätzt</t>
   </si>
   <si>
@@ -569,6 +564,24 @@
   </si>
   <si>
     <t>WA-T220-101E</t>
+  </si>
+  <si>
+    <t>I_D_Max_pulsed</t>
+  </si>
+  <si>
+    <t>P_ACM_Max</t>
+  </si>
+  <si>
+    <t>Safety Factor</t>
+  </si>
+  <si>
+    <t>T_th_gesamt</t>
+  </si>
+  <si>
+    <t>t_max</t>
+  </si>
+  <si>
+    <t>CR101-75</t>
   </si>
 </sst>
 </file>
@@ -666,7 +679,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -714,7 +727,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -722,9 +741,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1332,7 +1348,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="14695552"/>
@@ -1393,7 +1409,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="10189344"/>
@@ -1435,7 +1451,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2037159264"/>
@@ -1501,7 +1517,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2638,13 +2654,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2746,13 +2762,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>66261</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>162340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>371061</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>122583</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3137,37 +3153,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X145"/>
+  <dimension ref="A1:X157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O80" sqref="O80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
       <c r="J1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3178,7 +3194,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3195,7 +3211,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -3209,7 +3225,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -3226,7 +3242,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -3240,7 +3256,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -3252,7 +3268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -3267,7 +3283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -3278,7 +3294,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -3289,10 +3305,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="20"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -3303,7 +3319,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>160</v>
       </c>
@@ -3314,20 +3330,20 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -3344,7 +3360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -3355,7 +3371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3371,7 +3387,7 @@
         <v>6.708333333333333</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3380,7 +3396,7 @@
         <v>10.989010989010989</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -3399,7 +3415,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>18</v>
       </c>
@@ -3410,7 +3426,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -3441,7 +3457,7 @@
         <v>10.989010989010989</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -3468,7 +3484,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>35</v>
       </c>
@@ -3485,7 +3501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -3496,7 +3512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -3505,20 +3521,20 @@
         <v>0.99923076923076926</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="45" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -3530,7 +3546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -3542,7 +3558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -3561,7 +3577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -3580,7 +3596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -3603,10 +3619,10 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -3624,7 +3640,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -3633,7 +3649,7 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -3655,7 +3671,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -3674,7 +3690,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -3692,7 +3708,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -3704,7 +3720,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -3716,7 +3732,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -3756,7 +3772,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3794,18 +3810,18 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A47" s="45" t="s">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
       <c r="R47" t="s">
         <v>95</v>
       </c>
@@ -3819,7 +3835,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -3839,7 +3855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -3870,7 +3886,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -3898,7 +3914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -3907,7 +3923,7 @@
         <v>0.5733397037744864</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -3919,7 +3935,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -3931,20 +3947,20 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A56" s="45" t="s">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="45"/>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>81</v>
       </c>
@@ -3959,7 +3975,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -3973,38 +3989,39 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>74</v>
       </c>
       <c r="B60" s="25">
         <f>D60*10^-3</f>
-        <v>4.0999999999999995E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C60" t="s">
         <v>42</v>
       </c>
       <c r="D60" s="14">
-        <v>4.0999999999999996</v>
+        <f>5*1.6</f>
+        <v>8</v>
       </c>
       <c r="E60" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>72</v>
       </c>
       <c r="B61" s="7">
         <f>B58*B60</f>
-        <v>1.8449999999999998E-2</v>
+        <v>3.6000000000000004E-2</v>
       </c>
       <c r="C61" t="s">
         <v>10</v>
       </c>
       <c r="D61" s="6">
         <f>B61*10^3</f>
-        <v>18.45</v>
+        <v>36.000000000000007</v>
       </c>
       <c r="E61" t="s">
         <v>75</v>
@@ -4016,26 +4033,26 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>87</v>
       </c>
       <c r="B62" s="6">
         <f>D61*1.2</f>
-        <v>22.139999999999997</v>
+        <v>43.20000000000001</v>
       </c>
       <c r="C62" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="G63" s="46" t="s">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G63" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H63" s="49"/>
+      <c r="I63" s="49"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -4045,11 +4062,11 @@
       <c r="C64" t="s">
         <v>79</v>
       </c>
-      <c r="G64" s="47"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="47"/>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -4059,11 +4076,11 @@
       <c r="C65" t="s">
         <v>10</v>
       </c>
-      <c r="G65" s="47"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="49"/>
       <c r="J65" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R65" t="s">
         <v>93</v>
@@ -4084,27 +4101,27 @@
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>76</v>
       </c>
       <c r="B66" s="11">
         <f>B60*SQRT(2*B64*10^-3*((1.3*B65-B3)/(1.3*B65*B34*10^-6)))</f>
-        <v>1.0255255063149642</v>
+        <v>2.0010253781755405</v>
       </c>
       <c r="C66" t="s">
         <v>10</v>
       </c>
       <c r="D66">
         <f t="shared" ref="D66" si="0">B66*10^3</f>
-        <v>1025.5255063149641</v>
+        <v>2001.0253781755405</v>
       </c>
       <c r="E66" t="s">
         <v>75</v>
       </c>
-      <c r="G66" s="47"/>
-      <c r="H66" s="47"/>
-      <c r="I66" s="47"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
       <c r="R66" t="s">
         <v>94</v>
       </c>
@@ -4124,13 +4141,13 @@
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>89</v>
       </c>
       <c r="B67" s="11">
         <f>B66/B60</f>
-        <v>250.12817227194253</v>
+        <v>250.12817227194256</v>
       </c>
       <c r="C67" t="s">
         <v>23</v>
@@ -4157,7 +4174,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="R68" t="s">
         <v>96</v>
       </c>
@@ -4168,7 +4185,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -4192,7 +4209,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>84</v>
       </c>
@@ -4229,12 +4246,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D71" s="27"/>
       <c r="E71" s="20"/>
       <c r="F71" s="20"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>138</v>
       </c>
@@ -4249,7 +4266,7 @@
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>122</v>
       </c>
@@ -4268,13 +4285,13 @@
       </c>
       <c r="F73" s="20"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>140</v>
       </c>
       <c r="B74" s="22">
         <f>(B72^2*B60)+(B11*B9*B73)</f>
-        <v>5.5353206968149298</v>
+        <v>10.472455018175475</v>
       </c>
       <c r="C74" s="20" t="s">
         <v>20</v>
@@ -4283,22 +4300,22 @@
       <c r="E74" s="20"/>
       <c r="F74" s="20"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B75" s="22"/>
       <c r="C75" s="20"/>
       <c r="D75" s="27"/>
-      <c r="E75" s="48" t="s">
+      <c r="E75" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="F75" s="48"/>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="F75" s="47"/>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>159</v>
       </c>
       <c r="B76" s="22">
         <f>(B14-B13)/B74</f>
-        <v>13.549350454645859</v>
+        <v>7.1616445112281415</v>
       </c>
       <c r="C76" s="20" t="s">
         <v>161</v>
@@ -4311,7 +4328,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>162</v>
       </c>
@@ -4330,7 +4347,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>163</v>
       </c>
@@ -4349,7 +4366,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>164</v>
       </c>
@@ -4364,7 +4381,7 @@
       <c r="E79" s="20"/>
       <c r="F79" s="20"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>166</v>
       </c>
@@ -4379,13 +4396,13 @@
       <c r="E80" s="20"/>
       <c r="F80" s="20"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>167</v>
       </c>
       <c r="B81" s="22">
         <f>B76-B77-B78-B80</f>
-        <v>13.293707161558611</v>
+        <v>6.9060012181408936</v>
       </c>
       <c r="C81" s="20" t="s">
         <v>161</v>
@@ -4394,156 +4411,149 @@
       <c r="E81" s="20"/>
       <c r="F81" s="20"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B82" s="22"/>
       <c r="C82" s="20"/>
       <c r="D82" s="27"/>
       <c r="E82" s="20"/>
       <c r="F82" s="20"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B83">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="C83" s="20" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="45" t="s">
+      <c r="D83" s="27"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>180</v>
+      </c>
+      <c r="B84" s="21">
+        <f>B77+B78+B80+B83</f>
+        <v>4.455643293087248</v>
+      </c>
+      <c r="C84" s="20"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C85" s="20"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>181</v>
+      </c>
+      <c r="B86">
+        <f>B13+B74*B84</f>
+        <v>96.661523963891455</v>
+      </c>
+      <c r="C86" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="B84" s="45"/>
-      <c r="C84" s="45"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="45"/>
-      <c r="G84" s="45"/>
-      <c r="H84" s="45"/>
-      <c r="I84" s="45"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="B87" s="46"/>
+      <c r="C87" s="46"/>
+      <c r="D87" s="46"/>
+      <c r="E87" s="46"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="46"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>114</v>
       </c>
-      <c r="B85" s="23">
+      <c r="B88" s="23">
         <f>0.5*B21*(B3/(B23*10^-6))*(1/B9)*2</f>
         <v>0.33812341504649202</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C88" t="s">
         <v>23</v>
       </c>
-      <c r="F85" s="47" t="s">
+      <c r="F88" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="G85" s="47"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="G88" s="49"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>116</v>
       </c>
-      <c r="B86" s="23">
-        <f>B100</f>
+      <c r="B89" s="23">
+        <f>B106</f>
         <v>956.13236267372599</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D89" t="s">
         <v>117</v>
       </c>
-      <c r="F86" s="47"/>
-      <c r="G86" s="47"/>
-      <c r="H86" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>115</v>
-      </c>
-      <c r="B87" s="23">
+      <c r="F89" s="49"/>
+      <c r="G89" s="49"/>
+      <c r="H89" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" s="23">
         <f>(1/B21)*(B7+(B31/2))</f>
         <v>7.6039599999999998</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C90" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="47"/>
-      <c r="G87" s="47"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B88" s="23"/>
-      <c r="F88" s="44"/>
-      <c r="G88" s="44"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>74</v>
-      </c>
-      <c r="B89" s="23">
-        <v>2</v>
-      </c>
-      <c r="C89" t="s">
-        <v>42</v>
-      </c>
-      <c r="F89" s="44"/>
-      <c r="G89" s="44"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B90" s="23"/>
-      <c r="F90" s="44"/>
-      <c r="G90" s="44"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>120</v>
-      </c>
-      <c r="B91" s="4">
-        <f>B85^2*B89</f>
-        <v>0.22865488760540462</v>
-      </c>
-      <c r="C91" t="s">
-        <v>20</v>
-      </c>
+      <c r="F90" s="49"/>
+      <c r="G90" s="49"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="23"/>
       <c r="F91" s="44"/>
       <c r="G91" s="44"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>126</v>
-      </c>
-      <c r="B92" s="4" t="e">
-        <f>0.5*#REF!*D6*(#REF!/(1-B36))*(B89/2)*#REF!</f>
-        <v>#REF!</v>
+        <v>74</v>
+      </c>
+      <c r="B92" s="23">
+        <f>1*1.5</f>
+        <v>1.5</v>
       </c>
       <c r="C92" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="F92" s="44"/>
       <c r="G92" s="44"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>127</v>
-      </c>
-      <c r="B93" s="4" t="e">
-        <f>0.5*#REF!*D6*#REF!*(B89/2)*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C93" t="s">
-        <v>20</v>
-      </c>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="23"/>
       <c r="F93" s="44"/>
       <c r="G93" s="44"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>129</v>
-      </c>
-      <c r="B94" s="4" t="e">
-        <f>B91+#REF!+B92+B93</f>
-        <v>#REF!</v>
+        <v>120</v>
+      </c>
+      <c r="B94" s="4">
+        <f>B88^2*B92</f>
+        <v>0.17149116570405346</v>
       </c>
       <c r="C94" t="s">
         <v>20</v>
@@ -4551,644 +4561,839 @@
       <c r="F94" s="44"/>
       <c r="G94" s="44"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>179</v>
+      </c>
+      <c r="B95" s="4">
+        <v>2</v>
+      </c>
       <c r="F95" s="44"/>
       <c r="G95" s="44"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B96" s="23"/>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>178</v>
+      </c>
+      <c r="B96" s="4">
+        <f>B94*B95</f>
+        <v>0.34298233140810691</v>
+      </c>
+      <c r="C96" t="s">
+        <v>20</v>
+      </c>
       <c r="F96" s="44"/>
       <c r="G96" s="44"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B97" s="23"/>
-      <c r="F97" s="44"/>
-      <c r="G97" s="44"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B98" s="23"/>
-      <c r="F98" s="44"/>
-      <c r="G98" s="44"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="45" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="4"/>
+      <c r="F97" s="45"/>
+      <c r="G97" s="45"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="22"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="F98" s="47"/>
+      <c r="G98" s="45"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>159</v>
+      </c>
+      <c r="B99" s="22">
+        <f>(B14-B13)/B96</f>
+        <v>218.67015624999993</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D99" s="27"/>
+      <c r="E99" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="F99" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G99" s="45"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>162</v>
+      </c>
+      <c r="B100" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D100" s="27"/>
+      <c r="E100" s="20">
+        <f>E99*B102</f>
+        <v>21.91</v>
+      </c>
+      <c r="F100" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G100" s="45"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>163</v>
+      </c>
+      <c r="B101" s="25">
+        <v>62</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D101" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="E101" s="20">
+        <f>1/E100</f>
+        <v>4.5641259698767686E-2</v>
+      </c>
+      <c r="F101" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G101" s="45"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>180</v>
+      </c>
+      <c r="B102" s="22">
+        <f>B100+B101</f>
+        <v>62.6</v>
+      </c>
+      <c r="C102" s="20"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="44"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>181</v>
+      </c>
+      <c r="B103" s="22">
+        <f>(B96*B102)+B13</f>
+        <v>71.470693946147492</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D103" s="27"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="44"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="22"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="44"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="B99" s="45"/>
-      <c r="C99" s="45"/>
-      <c r="D99" s="45"/>
-      <c r="E99" s="45"/>
-      <c r="F99" s="45"/>
-      <c r="G99" s="45"/>
-      <c r="H99" s="45"/>
-      <c r="I99" s="45"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="B105" s="46"/>
+      <c r="C105" s="46"/>
+      <c r="D105" s="46"/>
+      <c r="E105" s="46"/>
+      <c r="F105" s="46"/>
+      <c r="G105" s="46"/>
+      <c r="H105" s="46"/>
+      <c r="I105" s="46"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>118</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B106" s="4">
         <f>((B6^2)/(B6-(B3*B21)))*1.2</f>
         <v>956.13236267372599</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C106" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>119</v>
       </c>
-      <c r="B101" s="4">
-        <f>SQRT(B106/B102)</f>
+      <c r="B107" s="4">
+        <f>SQRT(B112/B108)</f>
         <v>5.5123576586177476</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C107" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>74</v>
       </c>
-      <c r="B102">
-        <v>0.2</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B108">
+        <f>0.15*1.5</f>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="C108" t="s">
         <v>42</v>
       </c>
-      <c r="F102" s="47" t="s">
+      <c r="F108" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="G102" s="47"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+      <c r="G108" s="49"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>122</v>
       </c>
-      <c r="B103" s="1">
-        <f>D103*10^-9</f>
+      <c r="B109" s="1">
+        <f>D109*10^-9</f>
         <v>3.0000000000000004E-8</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C109" t="s">
         <v>125</v>
       </c>
-      <c r="D103" s="14">
+      <c r="D109" s="14">
         <v>30</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E109" t="s">
         <v>124</v>
       </c>
-      <c r="F103" s="47"/>
-      <c r="G103" s="47"/>
-      <c r="H103" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="F109" s="49"/>
+      <c r="G109" s="49"/>
+      <c r="H109" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>128</v>
       </c>
-      <c r="B104" s="1">
-        <f>D104*10^-9</f>
+      <c r="B110" s="1">
+        <f>D110*10^-9</f>
         <v>6.0000000000000008E-9</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C110" t="s">
         <v>125</v>
       </c>
-      <c r="D104">
+      <c r="D110">
         <v>6</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E110" t="s">
         <v>124</v>
       </c>
-      <c r="F104" s="47"/>
-      <c r="G104" s="47"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="F110" s="49"/>
+      <c r="G110" s="49"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>120</v>
       </c>
-      <c r="B106" s="4">
-        <f>B21*(B3/B5)*((1/B21)*B7)^2*B102</f>
-        <v>6.0772173913043472</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B112" s="4">
+        <f>B21*(B3/B5)*((1/B21)*B7)^2*B108</f>
+        <v>6.8368695652173894</v>
+      </c>
+      <c r="C112" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>121</v>
       </c>
-      <c r="B107">
-        <f>B103*B11*B9</f>
+      <c r="B113">
+        <f>B109*B11*B9</f>
         <v>3.0000000000000002E-2</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C113" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>126</v>
       </c>
-      <c r="B108" s="4">
-        <f>0.5*B7*D21*(B6/(1-B51))*(B104/2)*B9</f>
+      <c r="B114" s="4">
+        <f>0.5*B7*D21*(B6/(1-B51))*(B110/2)*B9</f>
         <v>1.6124303247480403</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C114" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>127</v>
       </c>
-      <c r="B109" s="4">
-        <f>0.5*B7*D21*B6*(B104/2)*B9</f>
+      <c r="B115" s="4">
+        <f>0.5*B7*D21*B6*(B110/2)*B9</f>
         <v>0.68796000000000002</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C115" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>129</v>
       </c>
-      <c r="B110" s="4">
-        <f>B106+B107+B108+B109</f>
-        <v>8.4076077160523877</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="B116" s="4">
+        <f>B112+B113+B114+B115</f>
+        <v>9.1672598899654307</v>
+      </c>
+      <c r="C116" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B111" s="4"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B112" s="22"/>
-      <c r="C112" s="20"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="48" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="4"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="22"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="27"/>
+      <c r="E118" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="F112" s="48"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+      <c r="F118" s="47"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>159</v>
       </c>
-      <c r="B113" s="22">
-        <f>(B14-B13)/B110</f>
-        <v>8.9204923127900937</v>
-      </c>
-      <c r="C113" s="20" t="s">
+      <c r="B119" s="22">
+        <f>(B14-B13)/B116</f>
+        <v>8.1812887275177726</v>
+      </c>
+      <c r="C119" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="D113" s="27"/>
-      <c r="E113" s="14">
+      <c r="D119" s="27"/>
+      <c r="E119" s="14">
         <v>0.35</v>
       </c>
-      <c r="F113" s="20" t="s">
+      <c r="F119" s="20" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>162</v>
       </c>
-      <c r="B114" s="25">
+      <c r="B120" s="25">
         <v>0.9</v>
       </c>
-      <c r="C114" s="20" t="s">
+      <c r="C120" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="D114" s="27"/>
-      <c r="E114" s="20">
-        <f>E113*B116</f>
+      <c r="D120" s="27"/>
+      <c r="E120" s="20">
+        <f>E119*B122</f>
         <v>112.84</v>
       </c>
-      <c r="F114" s="20" t="s">
+      <c r="F120" s="20" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>163</v>
       </c>
-      <c r="B115" s="25">
+      <c r="B121" s="25">
         <v>1</v>
       </c>
-      <c r="C115" s="20" t="s">
+      <c r="C121" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="D115" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="E115" s="20">
-        <f>1/E114</f>
+      <c r="D121" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="E121" s="20">
+        <f>1/E120</f>
         <v>8.8621056362991838E-3</v>
       </c>
-      <c r="F115" s="20" t="s">
+      <c r="F121" s="20" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>164</v>
       </c>
-      <c r="B116" s="22">
+      <c r="B122" s="22">
         <f>15.5*20.8</f>
         <v>322.40000000000003</v>
       </c>
-      <c r="C116" s="20" t="s">
+      <c r="C122" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="D116" s="27"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="20"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+      <c r="D122" s="27"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="20"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>166</v>
       </c>
-      <c r="B117" s="22">
-        <f>E115</f>
+      <c r="B123" s="22">
+        <f>E121</f>
         <v>8.8621056362991838E-3</v>
       </c>
-      <c r="C117" s="20" t="s">
+      <c r="C123" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="D117" s="27"/>
-      <c r="E117" s="20"/>
-      <c r="F117" s="20"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+      <c r="D123" s="27"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>167</v>
       </c>
-      <c r="B118" s="22">
-        <f>B113-B114-B115-B117</f>
-        <v>7.0116302071537939</v>
-      </c>
-      <c r="C118" s="20" t="s">
+      <c r="B124" s="22">
+        <f>B119-B120-B121-B123</f>
+        <v>6.2724266218814728</v>
+      </c>
+      <c r="C124" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="D118" s="27"/>
-      <c r="E118" s="20"/>
-      <c r="F118" s="20"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B119" s="22"/>
-      <c r="C119" s="20"/>
-      <c r="D119" s="27"/>
-      <c r="E119" s="20"/>
-      <c r="F119" s="20"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>174</v>
-      </c>
-      <c r="B120">
+      <c r="D124" s="27"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B125" s="22"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="27"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>173</v>
+      </c>
+      <c r="B126">
         <v>3.9</v>
       </c>
-      <c r="C120" s="20" t="s">
+      <c r="C126" s="20" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" s="45" t="s">
+      <c r="D126" s="27"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>180</v>
+      </c>
+      <c r="B127" s="21">
+        <f>B120+B121+B123+B126</f>
+        <v>5.8088621056362992</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D127" s="27"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="20"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C128" s="20"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="20"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>181</v>
+      </c>
+      <c r="B129">
+        <f>B13+B116*B127</f>
+        <v>103.25134858733978</v>
+      </c>
+      <c r="C129" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="B121" s="45"/>
-      <c r="C121" s="45"/>
-      <c r="D121" s="45"/>
-      <c r="E121" s="45"/>
-      <c r="F121" s="45"/>
-      <c r="G121" s="45"/>
-      <c r="H121" s="45"/>
-      <c r="I121" s="45"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+      <c r="B130" s="46"/>
+      <c r="C130" s="46"/>
+      <c r="D130" s="46"/>
+      <c r="E130" s="46"/>
+      <c r="F130" s="46"/>
+      <c r="G130" s="46"/>
+      <c r="H130" s="46"/>
+      <c r="I130" s="46"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>135</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B131" s="4">
         <f>(B3/(1-(B3/(B5*D21))))*1.2</f>
         <v>67.501007838745792</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C131" t="s">
         <v>10</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D131" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>135</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B132" s="4">
         <f>(B3/(B9*2*SQRT(B23*10^-6*B49)))</f>
         <v>30.154861431004125</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C132" t="s">
         <v>10</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D132" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>138</v>
       </c>
-      <c r="B124">
+      <c r="B133">
         <f>SQRT(B51*(B7^2+(B31^2/12)))</f>
         <v>30.297673990121055</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C133" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F125" s="47" t="s">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F134" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="G125" s="47"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+      <c r="G134" s="49"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>74</v>
       </c>
-      <c r="B126" s="21">
-        <f>D126*10^-3</f>
-        <v>1.9E-3</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B135" s="21">
+        <f>D135*10^-3</f>
+        <v>2.0400000000000001E-3</v>
+      </c>
+      <c r="C135" t="s">
         <v>42</v>
       </c>
-      <c r="D126">
-        <v>1.9</v>
-      </c>
-      <c r="E126" t="s">
+      <c r="D135">
+        <f>1.7*1.2</f>
+        <v>2.04</v>
+      </c>
+      <c r="E135" t="s">
         <v>43</v>
       </c>
-      <c r="F126" s="47"/>
-      <c r="G126" s="47"/>
-      <c r="H126" t="s">
+      <c r="F135" s="49"/>
+      <c r="G135" s="49"/>
+      <c r="H135" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>122</v>
+      </c>
+      <c r="B136" s="1">
+        <f>D136*10^-9</f>
+        <v>1.24E-7</v>
+      </c>
+      <c r="C136" t="s">
+        <v>125</v>
+      </c>
+      <c r="D136">
+        <v>124</v>
+      </c>
+      <c r="E136" t="s">
+        <v>124</v>
+      </c>
+      <c r="F136" s="49"/>
+      <c r="G136" s="49"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" s="4">
+        <f>(B133^2*B135)+(B11*B136*B9)</f>
+        <v>1.9966160603917822</v>
+      </c>
+      <c r="C138" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B139" s="4"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B140" s="22"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="27"/>
+      <c r="E140" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="F140" s="47"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>159</v>
+      </c>
+      <c r="B141" s="22">
+        <f>(B14-B13)/B138</f>
+        <v>37.563556403169102</v>
+      </c>
+      <c r="C141" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D141" s="27"/>
+      <c r="E141" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="F141" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>162</v>
+      </c>
+      <c r="B142" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="C142" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D142" s="27"/>
+      <c r="E142" s="20">
+        <f>E141*B144</f>
+        <v>59.005099999999999</v>
+      </c>
+      <c r="F142" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>163</v>
+      </c>
+      <c r="B143" s="25">
+        <v>1</v>
+      </c>
+      <c r="C143" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D143" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="E143" s="20">
+        <f>1/E142</f>
+        <v>1.6947687572769134E-2</v>
+      </c>
+      <c r="F143" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>164</v>
+      </c>
+      <c r="B144" s="22">
+        <f>10.67*15.8</f>
+        <v>168.58600000000001</v>
+      </c>
+      <c r="C144" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D144" s="27"/>
+      <c r="E144" s="20"/>
+      <c r="F144" s="20"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>166</v>
+      </c>
+      <c r="B145" s="22">
+        <f>E143</f>
+        <v>1.6947687572769134E-2</v>
+      </c>
+      <c r="C145" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D145" s="27"/>
+      <c r="E145" s="20"/>
+      <c r="F145" s="20"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>167</v>
+      </c>
+      <c r="B146" s="22">
+        <f>B141-B142-B143-B145</f>
+        <v>35.946608715596334</v>
+      </c>
+      <c r="C146" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D146" s="27"/>
+      <c r="E146" s="20"/>
+      <c r="F146" s="20"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B147" s="22"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="27"/>
+      <c r="E147" s="20"/>
+      <c r="F147" s="20"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>122</v>
-      </c>
-      <c r="B127" s="1">
-        <f>D127*10^-9</f>
-        <v>1.24E-7</v>
-      </c>
-      <c r="C127" t="s">
-        <v>125</v>
-      </c>
-      <c r="D127">
-        <v>124</v>
-      </c>
-      <c r="E127" t="s">
-        <v>124</v>
-      </c>
-      <c r="F127" s="47"/>
-      <c r="G127" s="47"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>139</v>
-      </c>
-      <c r="B129" s="4">
-        <f>(B124^2*B126)+(B11*B127*B9)</f>
-        <v>1.8681031935021499</v>
-      </c>
-      <c r="C129" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B130" s="4"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B131" s="22"/>
-      <c r="C131" s="20"/>
-      <c r="D131" s="27"/>
-      <c r="E131" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="F131" s="48"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>159</v>
-      </c>
-      <c r="B132" s="22">
-        <f>(B14-B13)/B129</f>
-        <v>40.147675064671787</v>
-      </c>
-      <c r="C132" s="20" t="s">
+      <c r="B148">
+        <v>12</v>
+      </c>
+      <c r="C148" t="s">
         <v>161</v>
       </c>
-      <c r="D132" s="27"/>
-      <c r="E132" s="14">
-        <v>0.35</v>
-      </c>
-      <c r="F132" s="20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>162</v>
-      </c>
-      <c r="B133" s="25">
-        <v>0.6</v>
-      </c>
-      <c r="C133" s="20" t="s">
+      <c r="D148" s="27"/>
+      <c r="E148" s="20"/>
+      <c r="F148" s="20"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>180</v>
+      </c>
+      <c r="B149" s="21">
+        <f>B142+B143+B145+B148</f>
+        <v>13.61694768757277</v>
+      </c>
+      <c r="C149" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="D133" s="27"/>
-      <c r="E133" s="20">
-        <f>E132*B135</f>
-        <v>112.84</v>
-      </c>
-      <c r="F133" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>163</v>
-      </c>
-      <c r="B134" s="25">
-        <v>1</v>
-      </c>
-      <c r="C134" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="D134" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="E134" s="20">
-        <f>1/E133</f>
-        <v>8.8621056362991838E-3</v>
-      </c>
-      <c r="F134" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>164</v>
-      </c>
-      <c r="B135" s="22">
-        <f>15.5*20.8</f>
-        <v>322.40000000000003</v>
-      </c>
-      <c r="C135" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="D135" s="27"/>
-      <c r="E135" s="20"/>
-      <c r="F135" s="20"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>166</v>
-      </c>
-      <c r="B136" s="22">
-        <f>E134</f>
-        <v>8.8621056362991838E-3</v>
-      </c>
-      <c r="C136" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="D136" s="27"/>
-      <c r="E136" s="20"/>
-      <c r="F136" s="20"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>167</v>
-      </c>
-      <c r="B137" s="22">
-        <f>B132-B133-B134-B136</f>
-        <v>38.538812959035489</v>
-      </c>
-      <c r="C137" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="D137" s="27"/>
-      <c r="E137" s="20"/>
-      <c r="F137" s="20"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B138" s="22"/>
-      <c r="C138" s="20"/>
-      <c r="D138" s="27"/>
-      <c r="E138" s="20"/>
-      <c r="F138" s="20"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>177</v>
-      </c>
-      <c r="B139">
-        <v>12</v>
-      </c>
-      <c r="C139" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A140" s="45" t="s">
+      <c r="D149" s="27"/>
+      <c r="E149" s="20"/>
+      <c r="F149" s="20"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C150" s="20"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="20"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>181</v>
+      </c>
+      <c r="B151">
+        <f>B13+B138*B149</f>
+        <v>77.187816446522532</v>
+      </c>
+      <c r="C151" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="B140" s="45"/>
-      <c r="C140" s="45"/>
-      <c r="D140" s="45"/>
-      <c r="E140" s="45"/>
-      <c r="F140" s="45"/>
-      <c r="G140" s="45"/>
-      <c r="H140" s="45"/>
-      <c r="I140" s="45"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+      <c r="B152" s="46"/>
+      <c r="C152" s="46"/>
+      <c r="D152" s="46"/>
+      <c r="E152" s="46"/>
+      <c r="F152" s="46"/>
+      <c r="G152" s="46"/>
+      <c r="H152" s="46"/>
+      <c r="I152" s="46"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>151</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B154" t="s">
         <v>146</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C154" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>147</v>
       </c>
-      <c r="B143">
+      <c r="B155">
         <v>15</v>
       </c>
-      <c r="C143">
+      <c r="C155">
         <v>6.25</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>150</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B156" t="s">
         <v>148</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C156" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>149</v>
       </c>
-      <c r="B145">
+      <c r="B157">
         <v>800</v>
       </c>
-      <c r="C145">
+      <c r="C157">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A140:I140"/>
+  <mergeCells count="17">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="G63:I66"/>
+    <mergeCell ref="A130:I130"/>
+    <mergeCell ref="F134:G136"/>
+    <mergeCell ref="A87:I87"/>
+    <mergeCell ref="A105:I105"/>
+    <mergeCell ref="F108:G110"/>
+    <mergeCell ref="F88:G90"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="A152:I152"/>
     <mergeCell ref="A47:I47"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="A29:I29"/>
     <mergeCell ref="A56:I56"/>
     <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="G63:I66"/>
-    <mergeCell ref="A121:I121"/>
-    <mergeCell ref="F125:G127"/>
-    <mergeCell ref="A84:I84"/>
-    <mergeCell ref="A99:I99"/>
-    <mergeCell ref="F102:G104"/>
-    <mergeCell ref="F85:G87"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E140:F140"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -5208,27 +5413,27 @@
       <selection activeCell="O22" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="16" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.5546875" style="36"/>
+    <col min="11" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.5703125" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5236,7 +5441,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5250,7 +5455,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -5261,7 +5466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -5275,7 +5480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -5289,7 +5494,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -5301,7 +5506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -5412,7 +5617,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -5423,7 +5628,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -5434,23 +5639,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B12" s="20"/>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -5467,7 +5672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -5478,7 +5683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -5494,7 +5699,7 @@
         <v>6.708333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -5503,7 +5708,7 @@
         <v>10.989010989010989</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -5522,7 +5727,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>18</v>
       </c>
@@ -5533,7 +5738,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -5564,7 +5769,7 @@
         <v>10.989010989010989</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -5591,7 +5796,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>35</v>
       </c>
@@ -5608,7 +5813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -5619,7 +5824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -5628,20 +5833,20 @@
         <v>0.99923076923076926</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A27" s="45" t="s">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A27" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -5653,7 +5858,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -5665,7 +5870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -5811,7 +6016,7 @@
         <v>1.599976110845676</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -5957,7 +6162,7 @@
         <v>2.9650706436420724</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:41" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -5977,10 +6182,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -5998,7 +6203,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -6007,7 +6212,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -6156,7 +6361,7 @@
         <v>-1.6891891891891893</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -6175,7 +6380,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -6193,7 +6398,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -6205,7 +6410,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -6217,7 +6422,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -6239,7 +6444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -6386,20 +6591,20 @@
         <v>37.003448275862688</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A45" s="45" t="s">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A45" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-    </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -6410,7 +6615,7 @@
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -6558,7 +6763,7 @@
         <v>0.25378340977707292</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -6704,7 +6909,7 @@
         <v>1.5227004586624375</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -6713,7 +6918,7 @@
         <v>0.5733397037744864</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -6852,7 +7057,7 @@
         <v>9187.9465249293535</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -6897,20 +7102,20 @@
       <c r="AO52" s="42"/>
       <c r="AP52" s="20"/>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A54" s="45" t="s">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A54" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
-    </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+    </row>
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>81</v>
       </c>
@@ -6925,7 +7130,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>73</v>
       </c>
@@ -6939,7 +7144,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>74</v>
       </c>
@@ -6957,7 +7162,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -6982,7 +7187,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>87</v>
       </c>
@@ -6994,14 +7199,14 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="G61" s="46" t="s">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="G61" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
-    </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+    </row>
+    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -7011,11 +7216,11 @@
       <c r="C62" t="s">
         <v>79</v>
       </c>
-      <c r="G62" s="47"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="47"/>
-    </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+    </row>
+    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -7025,11 +7230,11 @@
       <c r="C63" t="s">
         <v>10</v>
       </c>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-    </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="49"/>
+    </row>
+    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -7047,11 +7252,11 @@
       <c r="E64" t="s">
         <v>75</v>
       </c>
-      <c r="G64" s="47"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="47"/>
-    </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49"/>
+    </row>
+    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>89</v>
       </c>
@@ -7072,7 +7277,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -7086,7 +7291,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -7114,12 +7319,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D69" s="27"/>
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>138</v>
       </c>
@@ -7134,7 +7339,7 @@
       <c r="E70" s="20"/>
       <c r="F70" s="20"/>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>122</v>
       </c>
@@ -7153,7 +7358,7 @@
       </c>
       <c r="F71" s="20"/>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>140</v>
       </c>
@@ -7295,20 +7500,20 @@
         <v>6.6360555381126796</v>
       </c>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A74" s="45" t="s">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A74" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="B74" s="45"/>
-      <c r="C74" s="45"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="45"/>
-      <c r="F74" s="45"/>
-      <c r="G74" s="45"/>
-      <c r="H74" s="45"/>
-      <c r="I74" s="45"/>
-    </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B74" s="46"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="46"/>
+    </row>
+    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>114</v>
       </c>
@@ -7319,10 +7524,10 @@
       <c r="C75" t="s">
         <v>23</v>
       </c>
-      <c r="F75" s="47" t="s">
+      <c r="F75" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="G75" s="47"/>
+      <c r="G75" s="49"/>
       <c r="J75" t="s">
         <v>23</v>
       </c>
@@ -7451,7 +7656,7 @@
         <v>8.4530853761623004E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>116</v>
       </c>
@@ -7462,10 +7667,10 @@
       <c r="D76" t="s">
         <v>117</v>
       </c>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
-    </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
+    </row>
+    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>115</v>
       </c>
@@ -7476,23 +7681,23 @@
       <c r="C77" t="s">
         <v>23</v>
       </c>
-      <c r="F77" s="47"/>
-      <c r="G77" s="47"/>
-    </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A78" s="45" t="s">
+      <c r="F77" s="49"/>
+      <c r="G77" s="49"/>
+    </row>
+    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A78" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="B78" s="45"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="45"/>
-      <c r="F78" s="45"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="45"/>
-      <c r="I78" s="45"/>
-    </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B78" s="46"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="46"/>
+    </row>
+    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>118</v>
       </c>
@@ -7504,7 +7709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>119</v>
       </c>
@@ -7516,7 +7721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>74</v>
       </c>
@@ -7526,12 +7731,12 @@
       <c r="C81" t="s">
         <v>42</v>
       </c>
-      <c r="F81" s="47" t="s">
+      <c r="F81" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="G81" s="47"/>
-    </row>
-    <row r="82" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="G81" s="49"/>
+    </row>
+    <row r="82" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>122</v>
       </c>
@@ -7548,10 +7753,10 @@
       <c r="E82" t="s">
         <v>124</v>
       </c>
-      <c r="F82" s="47"/>
-      <c r="G82" s="47"/>
-    </row>
-    <row r="83" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="F82" s="49"/>
+      <c r="G82" s="49"/>
+    </row>
+    <row r="83" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>128</v>
       </c>
@@ -7568,10 +7773,10 @@
       <c r="E83" t="s">
         <v>124</v>
       </c>
-      <c r="F83" s="47"/>
-      <c r="G83" s="47"/>
-    </row>
-    <row r="85" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="F83" s="49"/>
+      <c r="G83" s="49"/>
+    </row>
+    <row r="85" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>120</v>
       </c>
@@ -7583,7 +7788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>121</v>
       </c>
@@ -7719,7 +7924,7 @@
         <v>0.12000000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>126</v>
       </c>
@@ -7855,7 +8060,7 @@
         <v>6.4497212989921611</v>
       </c>
     </row>
-    <row r="88" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>127</v>
       </c>
@@ -7991,7 +8196,7 @@
         <v>2.7518400000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>129</v>
       </c>
@@ -8127,20 +8332,20 @@
         <v>15.398778690296508</v>
       </c>
     </row>
-    <row r="90" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A90" s="45" t="s">
+    <row r="90" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A90" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="B90" s="45"/>
-      <c r="C90" s="45"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="45"/>
-      <c r="F90" s="45"/>
-      <c r="G90" s="45"/>
-      <c r="H90" s="45"/>
-      <c r="I90" s="45"/>
-    </row>
-    <row r="91" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B90" s="46"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="46"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="46"/>
+      <c r="H90" s="46"/>
+      <c r="I90" s="46"/>
+    </row>
+    <row r="91" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>135</v>
       </c>
@@ -8155,7 +8360,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="92" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>135</v>
       </c>
@@ -8297,7 +8502,7 @@
         <v>30.154861431004125</v>
       </c>
     </row>
-    <row r="93" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>138</v>
       </c>
@@ -8309,13 +8514,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="F94" s="47" t="s">
+    <row r="94" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="F94" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="G94" s="47"/>
-    </row>
-    <row r="95" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="G94" s="49"/>
+    </row>
+    <row r="95" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>74</v>
       </c>
@@ -8332,10 +8537,10 @@
       <c r="E95" t="s">
         <v>43</v>
       </c>
-      <c r="F95" s="47"/>
-      <c r="G95" s="47"/>
-    </row>
-    <row r="96" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="F95" s="49"/>
+      <c r="G95" s="49"/>
+    </row>
+    <row r="96" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>122</v>
       </c>
@@ -8352,10 +8557,10 @@
       <c r="E96" t="s">
         <v>124</v>
       </c>
-      <c r="F96" s="47"/>
-      <c r="G96" s="47"/>
-    </row>
-    <row r="98" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="F96" s="49"/>
+      <c r="G96" s="49"/>
+    </row>
+    <row r="98" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>139</v>
       </c>
@@ -8494,25 +8699,25 @@
         <v>2.2621920688007644</v>
       </c>
     </row>
-    <row r="100" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A100" s="45" t="s">
+    <row r="100" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A100" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="B100" s="45"/>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="45"/>
-      <c r="F100" s="45"/>
-      <c r="G100" s="45"/>
-      <c r="H100" s="45"/>
-      <c r="I100" s="45"/>
-    </row>
-    <row r="101" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B100" s="46"/>
+      <c r="C100" s="46"/>
+      <c r="D100" s="46"/>
+      <c r="E100" s="46"/>
+      <c r="F100" s="46"/>
+      <c r="G100" s="46"/>
+      <c r="H100" s="46"/>
+      <c r="I100" s="46"/>
+    </row>
+    <row r="101" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="102" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>151</v>
       </c>
@@ -8523,7 +8728,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="103" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>147</v>
       </c>
@@ -8534,7 +8739,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="104" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>150</v>
       </c>
@@ -8545,7 +8750,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>149</v>
       </c>
@@ -8556,7 +8761,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="106" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:41" x14ac:dyDescent="0.25">
       <c r="I106" t="s">
         <v>154</v>
       </c>
@@ -8690,6 +8895,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G61:I64"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A54:I54"/>
     <mergeCell ref="A100:I100"/>
     <mergeCell ref="A74:I74"/>
     <mergeCell ref="F75:G77"/>
@@ -8697,12 +8908,6 @@
     <mergeCell ref="F81:G83"/>
     <mergeCell ref="A90:I90"/>
     <mergeCell ref="F94:G96"/>
-    <mergeCell ref="G61:I64"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="A54:I54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/DC_Converter_Calc.xlsx
+++ b/DC_Converter_Calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Technik\Technik 2022\05 - Electronics\02 - HV\01 - HV Accumulator\02 - ECAD\02 - PCB Files\03 - HV_DCDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB66EDD-EFD3-4C51-BDBE-4BCD818C69D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF2F90A-1AF4-4BD7-A22C-68897CD83086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -733,14 +733,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3156,7 +3156,7 @@
   <dimension ref="A1:X157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O80" sqref="O80"/>
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4046,11 +4046,11 @@
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G63" s="48" t="s">
+      <c r="G63" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="H63" s="49"/>
-      <c r="I63" s="49"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="48"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -4062,9 +4062,9 @@
       <c r="C64" t="s">
         <v>79</v>
       </c>
-      <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="49"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="48"/>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -4076,9 +4076,9 @@
       <c r="C65" t="s">
         <v>10</v>
       </c>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
       <c r="J65" t="s">
         <v>174</v>
       </c>
@@ -4119,9 +4119,9 @@
       <c r="E66" t="s">
         <v>75</v>
       </c>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="49"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
       <c r="R66" t="s">
         <v>94</v>
       </c>
@@ -4304,10 +4304,10 @@
       <c r="B75" s="22"/>
       <c r="C75" s="20"/>
       <c r="D75" s="27"/>
-      <c r="E75" s="47" t="s">
+      <c r="E75" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="F75" s="47"/>
+      <c r="F75" s="49"/>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -4423,7 +4423,7 @@
         <v>182</v>
       </c>
       <c r="B83">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="C83" s="20" t="s">
         <v>161</v>
@@ -4438,7 +4438,7 @@
       </c>
       <c r="B84" s="21">
         <f>B77+B78+B80+B83</f>
-        <v>4.455643293087248</v>
+        <v>4.955643293087248</v>
       </c>
       <c r="C84" s="20"/>
       <c r="D84" s="27"/>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="B86">
         <f>B13+B74*B84</f>
-        <v>96.661523963891455</v>
+        <v>101.89775147297919</v>
       </c>
       <c r="C86" t="s">
         <v>158</v>
@@ -4487,10 +4487,10 @@
       <c r="C88" t="s">
         <v>23</v>
       </c>
-      <c r="F88" s="49" t="s">
+      <c r="F88" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="G88" s="49"/>
+      <c r="G88" s="48"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -4503,8 +4503,8 @@
       <c r="D89" t="s">
         <v>117</v>
       </c>
-      <c r="F89" s="49"/>
-      <c r="G89" s="49"/>
+      <c r="F89" s="48"/>
+      <c r="G89" s="48"/>
       <c r="H89" t="s">
         <v>175</v>
       </c>
@@ -4520,8 +4520,8 @@
       <c r="C90" t="s">
         <v>23</v>
       </c>
-      <c r="F90" s="49"/>
-      <c r="G90" s="49"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="48"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B91" s="23"/>
@@ -4594,10 +4594,10 @@
       <c r="B98" s="22"/>
       <c r="C98" s="20"/>
       <c r="D98" s="27"/>
-      <c r="E98" s="47" t="s">
+      <c r="E98" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="F98" s="47"/>
+      <c r="F98" s="49"/>
       <c r="G98" s="45"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -4748,10 +4748,10 @@
       <c r="C108" t="s">
         <v>42</v>
       </c>
-      <c r="F108" s="49" t="s">
+      <c r="F108" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="G108" s="49"/>
+      <c r="G108" s="48"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -4770,8 +4770,8 @@
       <c r="E109" t="s">
         <v>124</v>
       </c>
-      <c r="F109" s="49"/>
-      <c r="G109" s="49"/>
+      <c r="F109" s="48"/>
+      <c r="G109" s="48"/>
       <c r="H109" t="s">
         <v>172</v>
       </c>
@@ -4793,8 +4793,8 @@
       <c r="E110" t="s">
         <v>124</v>
       </c>
-      <c r="F110" s="49"/>
-      <c r="G110" s="49"/>
+      <c r="F110" s="48"/>
+      <c r="G110" s="48"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -4863,10 +4863,10 @@
       <c r="B118" s="22"/>
       <c r="C118" s="20"/>
       <c r="D118" s="27"/>
-      <c r="E118" s="47" t="s">
+      <c r="E118" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="F118" s="47"/>
+      <c r="F118" s="49"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -5082,10 +5082,10 @@
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F134" s="49" t="s">
+      <c r="F134" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="G134" s="49"/>
+      <c r="G134" s="48"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
@@ -5105,8 +5105,8 @@
       <c r="E135" t="s">
         <v>43</v>
       </c>
-      <c r="F135" s="49"/>
-      <c r="G135" s="49"/>
+      <c r="F135" s="48"/>
+      <c r="G135" s="48"/>
       <c r="H135" t="s">
         <v>175</v>
       </c>
@@ -5128,8 +5128,8 @@
       <c r="E136" t="s">
         <v>124</v>
       </c>
-      <c r="F136" s="49"/>
-      <c r="G136" s="49"/>
+      <c r="F136" s="48"/>
+      <c r="G136" s="48"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
@@ -5150,10 +5150,10 @@
       <c r="B140" s="22"/>
       <c r="C140" s="20"/>
       <c r="D140" s="27"/>
-      <c r="E140" s="47" t="s">
+      <c r="E140" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="F140" s="47"/>
+      <c r="F140" s="49"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
@@ -5377,6 +5377,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A152:I152"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E140:F140"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="G63:I66"/>
     <mergeCell ref="A130:I130"/>
@@ -5386,14 +5394,6 @@
     <mergeCell ref="F108:G110"/>
     <mergeCell ref="F88:G90"/>
     <mergeCell ref="E98:F98"/>
-    <mergeCell ref="A152:I152"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A56:I56"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E140:F140"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -7200,11 +7200,11 @@
       </c>
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="G61" s="48" t="s">
+      <c r="G61" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -7216,9 +7216,9 @@
       <c r="C62" t="s">
         <v>79</v>
       </c>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
     </row>
     <row r="63" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -7230,9 +7230,9 @@
       <c r="C63" t="s">
         <v>10</v>
       </c>
-      <c r="G63" s="49"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="49"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="48"/>
     </row>
     <row r="64" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -7252,9 +7252,9 @@
       <c r="E64" t="s">
         <v>75</v>
       </c>
-      <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="49"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="48"/>
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -7524,10 +7524,10 @@
       <c r="C75" t="s">
         <v>23</v>
       </c>
-      <c r="F75" s="49" t="s">
+      <c r="F75" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="G75" s="49"/>
+      <c r="G75" s="48"/>
       <c r="J75" t="s">
         <v>23</v>
       </c>
@@ -7667,8 +7667,8 @@
       <c r="D76" t="s">
         <v>117</v>
       </c>
-      <c r="F76" s="49"/>
-      <c r="G76" s="49"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="48"/>
     </row>
     <row r="77" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -7681,8 +7681,8 @@
       <c r="C77" t="s">
         <v>23</v>
       </c>
-      <c r="F77" s="49"/>
-      <c r="G77" s="49"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
     </row>
     <row r="78" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A78" s="46" t="s">
@@ -7731,10 +7731,10 @@
       <c r="C81" t="s">
         <v>42</v>
       </c>
-      <c r="F81" s="49" t="s">
+      <c r="F81" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="G81" s="49"/>
+      <c r="G81" s="48"/>
     </row>
     <row r="82" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -7753,8 +7753,8 @@
       <c r="E82" t="s">
         <v>124</v>
       </c>
-      <c r="F82" s="49"/>
-      <c r="G82" s="49"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="48"/>
     </row>
     <row r="83" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -7773,8 +7773,8 @@
       <c r="E83" t="s">
         <v>124</v>
       </c>
-      <c r="F83" s="49"/>
-      <c r="G83" s="49"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="48"/>
     </row>
     <row r="85" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -8515,10 +8515,10 @@
       </c>
     </row>
     <row r="94" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="F94" s="49" t="s">
+      <c r="F94" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="G94" s="49"/>
+      <c r="G94" s="48"/>
     </row>
     <row r="95" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -8537,8 +8537,8 @@
       <c r="E95" t="s">
         <v>43</v>
       </c>
-      <c r="F95" s="49"/>
-      <c r="G95" s="49"/>
+      <c r="F95" s="48"/>
+      <c r="G95" s="48"/>
     </row>
     <row r="96" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -8557,8 +8557,8 @@
       <c r="E96" t="s">
         <v>124</v>
       </c>
-      <c r="F96" s="49"/>
-      <c r="G96" s="49"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="48"/>
     </row>
     <row r="98" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -8895,12 +8895,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G61:I64"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="A54:I54"/>
     <mergeCell ref="A100:I100"/>
     <mergeCell ref="A74:I74"/>
     <mergeCell ref="F75:G77"/>
@@ -8908,6 +8902,12 @@
     <mergeCell ref="F81:G83"/>
     <mergeCell ref="A90:I90"/>
     <mergeCell ref="F94:G96"/>
+    <mergeCell ref="G61:I64"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A54:I54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/DC_Converter_Calc.xlsx
+++ b/DC_Converter_Calc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Technik\Technik 2022\05 - Electronics\02 - HV\01 - HV Accumulator\02 - ECAD\02 - PCB Files\03 - HV_DCDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF2F90A-1AF4-4BD7-A22C-68897CD83086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5C460E-2DDC-4A52-B808-99AB5AC697DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="23760" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="184">
   <si>
     <t>Eingangsparameter</t>
   </si>
@@ -582,6 +582,9 @@
   </si>
   <si>
     <t>CR101-75</t>
+  </si>
+  <si>
+    <t>neu 2.5V V_min ändern!</t>
   </si>
 </sst>
 </file>
@@ -733,14 +736,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3155,8 +3158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3238,6 +3241,9 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
+      <c r="E5" t="s">
+        <v>183</v>
+      </c>
       <c r="J5" t="s">
         <v>68</v>
       </c>
@@ -4046,11 +4052,11 @@
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G63" s="47" t="s">
+      <c r="G63" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="H63" s="48"/>
-      <c r="I63" s="48"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="49"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -4062,9 +4068,9 @@
       <c r="C64" t="s">
         <v>79</v>
       </c>
-      <c r="G64" s="48"/>
-      <c r="H64" s="48"/>
-      <c r="I64" s="48"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49"/>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -4076,9 +4082,9 @@
       <c r="C65" t="s">
         <v>10</v>
       </c>
-      <c r="G65" s="48"/>
-      <c r="H65" s="48"/>
-      <c r="I65" s="48"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="49"/>
       <c r="J65" t="s">
         <v>174</v>
       </c>
@@ -4119,9 +4125,9 @@
       <c r="E66" t="s">
         <v>75</v>
       </c>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
       <c r="R66" t="s">
         <v>94</v>
       </c>
@@ -4304,10 +4310,10 @@
       <c r="B75" s="22"/>
       <c r="C75" s="20"/>
       <c r="D75" s="27"/>
-      <c r="E75" s="49" t="s">
+      <c r="E75" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="F75" s="49"/>
+      <c r="F75" s="47"/>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -4487,10 +4493,10 @@
       <c r="C88" t="s">
         <v>23</v>
       </c>
-      <c r="F88" s="48" t="s">
+      <c r="F88" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="G88" s="48"/>
+      <c r="G88" s="49"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -4503,8 +4509,8 @@
       <c r="D89" t="s">
         <v>117</v>
       </c>
-      <c r="F89" s="48"/>
-      <c r="G89" s="48"/>
+      <c r="F89" s="49"/>
+      <c r="G89" s="49"/>
       <c r="H89" t="s">
         <v>175</v>
       </c>
@@ -4520,8 +4526,8 @@
       <c r="C90" t="s">
         <v>23</v>
       </c>
-      <c r="F90" s="48"/>
-      <c r="G90" s="48"/>
+      <c r="F90" s="49"/>
+      <c r="G90" s="49"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B91" s="23"/>
@@ -4594,10 +4600,10 @@
       <c r="B98" s="22"/>
       <c r="C98" s="20"/>
       <c r="D98" s="27"/>
-      <c r="E98" s="49" t="s">
+      <c r="E98" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="F98" s="49"/>
+      <c r="F98" s="47"/>
       <c r="G98" s="45"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -4748,10 +4754,10 @@
       <c r="C108" t="s">
         <v>42</v>
       </c>
-      <c r="F108" s="48" t="s">
+      <c r="F108" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="G108" s="48"/>
+      <c r="G108" s="49"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -4770,8 +4776,8 @@
       <c r="E109" t="s">
         <v>124</v>
       </c>
-      <c r="F109" s="48"/>
-      <c r="G109" s="48"/>
+      <c r="F109" s="49"/>
+      <c r="G109" s="49"/>
       <c r="H109" t="s">
         <v>172</v>
       </c>
@@ -4793,8 +4799,8 @@
       <c r="E110" t="s">
         <v>124</v>
       </c>
-      <c r="F110" s="48"/>
-      <c r="G110" s="48"/>
+      <c r="F110" s="49"/>
+      <c r="G110" s="49"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -4863,10 +4869,10 @@
       <c r="B118" s="22"/>
       <c r="C118" s="20"/>
       <c r="D118" s="27"/>
-      <c r="E118" s="49" t="s">
+      <c r="E118" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="F118" s="49"/>
+      <c r="F118" s="47"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -5082,10 +5088,10 @@
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F134" s="48" t="s">
+      <c r="F134" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="G134" s="48"/>
+      <c r="G134" s="49"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
@@ -5105,8 +5111,8 @@
       <c r="E135" t="s">
         <v>43</v>
       </c>
-      <c r="F135" s="48"/>
-      <c r="G135" s="48"/>
+      <c r="F135" s="49"/>
+      <c r="G135" s="49"/>
       <c r="H135" t="s">
         <v>175</v>
       </c>
@@ -5128,8 +5134,8 @@
       <c r="E136" t="s">
         <v>124</v>
       </c>
-      <c r="F136" s="48"/>
-      <c r="G136" s="48"/>
+      <c r="F136" s="49"/>
+      <c r="G136" s="49"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
@@ -5150,10 +5156,10 @@
       <c r="B140" s="22"/>
       <c r="C140" s="20"/>
       <c r="D140" s="27"/>
-      <c r="E140" s="49" t="s">
+      <c r="E140" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="F140" s="49"/>
+      <c r="F140" s="47"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
@@ -5377,14 +5383,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A152:I152"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A56:I56"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E140:F140"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="G63:I66"/>
     <mergeCell ref="A130:I130"/>
@@ -5394,6 +5392,14 @@
     <mergeCell ref="F108:G110"/>
     <mergeCell ref="F88:G90"/>
     <mergeCell ref="E98:F98"/>
+    <mergeCell ref="A152:I152"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E140:F140"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -7200,11 +7206,11 @@
       </c>
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="G61" s="47" t="s">
+      <c r="G61" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="H61" s="48"/>
-      <c r="I61" s="48"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -7216,9 +7222,9 @@
       <c r="C62" t="s">
         <v>79</v>
       </c>
-      <c r="G62" s="48"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="48"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
     </row>
     <row r="63" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -7230,9 +7236,9 @@
       <c r="C63" t="s">
         <v>10</v>
       </c>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="48"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="49"/>
     </row>
     <row r="64" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -7252,9 +7258,9 @@
       <c r="E64" t="s">
         <v>75</v>
       </c>
-      <c r="G64" s="48"/>
-      <c r="H64" s="48"/>
-      <c r="I64" s="48"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49"/>
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -7524,10 +7530,10 @@
       <c r="C75" t="s">
         <v>23</v>
       </c>
-      <c r="F75" s="48" t="s">
+      <c r="F75" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="G75" s="48"/>
+      <c r="G75" s="49"/>
       <c r="J75" t="s">
         <v>23</v>
       </c>
@@ -7667,8 +7673,8 @@
       <c r="D76" t="s">
         <v>117</v>
       </c>
-      <c r="F76" s="48"/>
-      <c r="G76" s="48"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
     </row>
     <row r="77" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -7681,8 +7687,8 @@
       <c r="C77" t="s">
         <v>23</v>
       </c>
-      <c r="F77" s="48"/>
-      <c r="G77" s="48"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="49"/>
     </row>
     <row r="78" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A78" s="46" t="s">
@@ -7731,10 +7737,10 @@
       <c r="C81" t="s">
         <v>42</v>
       </c>
-      <c r="F81" s="48" t="s">
+      <c r="F81" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="G81" s="48"/>
+      <c r="G81" s="49"/>
     </row>
     <row r="82" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -7753,8 +7759,8 @@
       <c r="E82" t="s">
         <v>124</v>
       </c>
-      <c r="F82" s="48"/>
-      <c r="G82" s="48"/>
+      <c r="F82" s="49"/>
+      <c r="G82" s="49"/>
     </row>
     <row r="83" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -7773,8 +7779,8 @@
       <c r="E83" t="s">
         <v>124</v>
       </c>
-      <c r="F83" s="48"/>
-      <c r="G83" s="48"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="49"/>
     </row>
     <row r="85" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -8515,10 +8521,10 @@
       </c>
     </row>
     <row r="94" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="F94" s="48" t="s">
+      <c r="F94" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="G94" s="48"/>
+      <c r="G94" s="49"/>
     </row>
     <row r="95" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -8537,8 +8543,8 @@
       <c r="E95" t="s">
         <v>43</v>
       </c>
-      <c r="F95" s="48"/>
-      <c r="G95" s="48"/>
+      <c r="F95" s="49"/>
+      <c r="G95" s="49"/>
     </row>
     <row r="96" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -8557,8 +8563,8 @@
       <c r="E96" t="s">
         <v>124</v>
       </c>
-      <c r="F96" s="48"/>
-      <c r="G96" s="48"/>
+      <c r="F96" s="49"/>
+      <c r="G96" s="49"/>
     </row>
     <row r="98" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -8895,6 +8901,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G61:I64"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A54:I54"/>
     <mergeCell ref="A100:I100"/>
     <mergeCell ref="A74:I74"/>
     <mergeCell ref="F75:G77"/>
@@ -8902,12 +8914,6 @@
     <mergeCell ref="F81:G83"/>
     <mergeCell ref="A90:I90"/>
     <mergeCell ref="F94:G96"/>
-    <mergeCell ref="G61:I64"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="A54:I54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
